--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,36 +4,29 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92733C5-E618-4EE7-A7DA-B44D8F74A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FED6CB-4542-4AB7-B2F4-48B020EFC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="5040" windowWidth="9780" windowHeight="5130" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11700" windowHeight="10170" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="3" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単体テスト!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">結合テスト!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単体テスト!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="346">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -704,22 +697,7 @@
   <si>
     <t>入力表示</t>
     <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>エイスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
+      <t>メイニュウリョクランハンカクエイスウモジニュウリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -732,7 +710,7 @@
   </si>
   <si>
     <t>メールアドレスでカタカナを入力する</t>
-    <rPh sb="18" eb="20">
+    <rPh sb="0" eb="17">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -914,7 +892,7 @@
   </si>
   <si>
     <t>郵便番号でカタカナを入力する</t>
-    <rPh sb="15" eb="17">
+    <rPh sb="0" eb="14">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1085,7 +1063,7 @@
   </si>
   <si>
     <t>住所(市区町村)でカタカナを入力する</t>
-    <rPh sb="19" eb="21">
+    <rPh sb="0" eb="18">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1196,7 +1174,7 @@
   </si>
   <si>
     <t>住所(番地)でカタカナを入力する</t>
-    <rPh sb="17" eb="19">
+    <rPh sb="0" eb="16">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -2619,16 +2597,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>住所（番地）に半角英数文字で入力する</t>
-    <rPh sb="7" eb="13">
-      <t>ハンカクエイスウモジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>住所（番地）にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）で101文字以上入力する</t>
     <rPh sb="40" eb="42">
       <t>モジ</t>
@@ -2670,29 +2638,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>住所（番地）に半角英数文字で入力する
-確認するボタンを押下する</t>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エイスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>住所（番地）入力欄の下に赤字で「住所（番地）が未入力です。」と出力される</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
@@ -3100,6 +3045,2222 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）に半角英数文字で入力する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）に半角英数文字で入力する
+確認するボタンを押下する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）入力欄の下に赤字で「住所（番地）はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可能で、最大100文字です。」と出力される</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URL表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面のURLを確認する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URLが「任意のURL/regist.php」となっている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面のURLを確認する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URLが「任意のURL/regist_confirm.php」となっている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面のURLを確認する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URLが「任意のURL/regist_complete.php」となっている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー確認</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーに「アカウント登録」があるか確認する</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーを確認する</t>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リンク形式で「アカウント登録」が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>何も入力せずに入力欄を確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力欄が空欄である</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）・名前（名）・カナ（姓）・カナ（名）・メールアドレス・パスワード・郵便番号・住所（都道府県）・住所（市区町村）・住所（番地）の初期値を確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別の初期値を確認する</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限の初期値を確認する</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値が「男性」となっている</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値が「一般」となっている</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古賀</t>
+    <rPh sb="0" eb="2">
+      <t>コガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>何も表示されない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pcで確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページ遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トップ画面からアカウント登録画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トップ画面の「アカウント登録」を押下する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値の受け渡し</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に入力通りに表示される</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクドオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスに条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="8" eb="11">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードに条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に入力通りの文字数が●が表示される</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクドオ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="12" eb="18">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所(都道府県)の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（都道府県）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限の入力値がアカウント登録確認画面に表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限に条件通りの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページ遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント登録確認画面に遷移する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に遷移する</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）の場所に「名前（姓）」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「名前（姓）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「名前（名）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）の表示欄を見る</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「カナ（姓）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）の表示欄を見る</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「カナ（名）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスの表示欄を見る</t>
+    <rPh sb="8" eb="11">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「メールアドレス」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの表示欄を見る</t>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「パスワード」で入力した値に対応する●が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）の場所に「名前（名）」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）の場所に「カナ（姓）」が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）の場所に「カナ（名）」が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスの場所に「メールアドレス」が表示されている</t>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの場所に「パスワード」が表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別の場所に「性別」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「性別」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号の場所に「郵便番号」が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号の表示欄を見る</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「郵便番号」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の場所に「住所（都道府県）」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（都道府県）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（市区町村）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の場所に「住所（市区町村）」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）の場所に「住所（番地）」が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）の表示欄を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（番地）」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限の場所に「アカウント権限」が表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限の表示欄を見る</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「アカウント権限」で入力した値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値の保持</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスの場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限の場所にもともと入力していた値が再表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+名前（姓）の表示欄を見る</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+名前（名）の表示欄を見る</t>
+    <rPh sb="27" eb="29">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+カナ（姓）の表示欄を見る</t>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+カナ（名）の表示欄を見る</t>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+メールアドレスの表示欄を見る</t>
+    <rPh sb="35" eb="38">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+パスワードの表示欄を見る</t>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+性別の表示欄を見る</t>
+    <rPh sb="27" eb="29">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+郵便番号の表示欄を見る</t>
+    <rPh sb="27" eb="31">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+住所（都道府県）の表示欄を見る</t>
+    <rPh sb="27" eb="29">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+住所（市区町村）の表示欄を見る</t>
+    <rPh sb="27" eb="29">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+住所（番地）の表示欄を見る</t>
+    <rPh sb="27" eb="29">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「前に戻る」ボタンを押下する
+アカウント権限の表示欄を見る</t>
+    <rPh sb="32" eb="34">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「名前（姓）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「名前（名）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「カナ（姓）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「カナ（名）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「メールアドレス」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「パスワード」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「性別」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「郵便番号」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（都道府県）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（市区町村）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「住所（番地）」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の「アカウント権限」にアカウント登録確認画面で表示されていた値が表示されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に遷移する</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文字に文字化け・エラー表示等なく正常に表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント画面の「確認する」を押下する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページ遷移</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンを押下する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の「前に戻る」を押下する</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>視認性確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表示されている文字に文字化け等の読めない文字がないか確認する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文字に文字化け・エラー表示等なく正常に表示されている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の「登録する」を押下する</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D.I.ブログのtopページに遷移する</t>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3764,7 +5925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -4053,6 +6214,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4318,7 +6555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4359,22 +6596,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4752,7 +7049,2799 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B6:K101"/>
+  <dimension ref="B6:K107"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83:F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:B75" si="0">ROW()-ROW($B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="40" customHeight="1">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="40" customHeight="1">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" ht="40" customHeight="1">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" ht="40" customHeight="1">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" ht="40" customHeight="1">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" ht="40" customHeight="1">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" ht="40" customHeight="1">
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" ht="40" customHeight="1">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" ht="40" customHeight="1">
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" ht="40" customHeight="1">
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" ht="40" customHeight="1">
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" ht="40" customHeight="1">
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" ht="40" customHeight="1">
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" ht="40" customHeight="1">
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" ht="40" customHeight="1">
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" ht="40" customHeight="1">
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" ht="40" customHeight="1">
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" ht="40" customHeight="1">
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" ht="40" customHeight="1">
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" ht="40" customHeight="1">
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1">
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1">
+      <c r="B52" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" ht="40" customHeight="1">
+      <c r="B53" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" ht="40" customHeight="1">
+      <c r="B54" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" ht="40" customHeight="1">
+      <c r="B55" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" ht="40" customHeight="1">
+      <c r="B56" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" ht="40" customHeight="1">
+      <c r="B57" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" ht="40" customHeight="1">
+      <c r="B58" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" ht="40" customHeight="1">
+      <c r="B59" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" ht="40" customHeight="1">
+      <c r="B60" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" ht="40" customHeight="1">
+      <c r="B61" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" ht="40" customHeight="1">
+      <c r="B62" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" ht="40" customHeight="1">
+      <c r="B63" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" ht="40" customHeight="1">
+      <c r="B64" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" ht="40" customHeight="1">
+      <c r="B65" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" ht="40" customHeight="1">
+      <c r="B66" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" ht="40" customHeight="1">
+      <c r="B67" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" ht="40" customHeight="1">
+      <c r="B68" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" ht="40" customHeight="1">
+      <c r="B69" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" ht="40" customHeight="1">
+      <c r="B70" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" ht="40" customHeight="1">
+      <c r="B71" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" ht="40" customHeight="1">
+      <c r="B72" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" ht="40" customHeight="1">
+      <c r="B73" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" ht="40" customHeight="1">
+      <c r="B74" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="40" customHeight="1">
+      <c r="B75" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="40" customHeight="1">
+      <c r="B76" s="4">
+        <f t="shared" ref="B76:B107" si="1">ROW()-ROW($B$7)</f>
+        <v>69</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="40" customHeight="1">
+      <c r="B77" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="40" customHeight="1">
+      <c r="B78" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="40" customHeight="1">
+      <c r="B79" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="40" customHeight="1">
+      <c r="B80" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="40" customHeight="1">
+      <c r="B81" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B82" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B83" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="40" customHeight="1">
+      <c r="B84" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="40" customHeight="1">
+      <c r="B85" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="40" customHeight="1">
+      <c r="B86" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B87" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B88" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1">
+      <c r="B89" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="40" customHeight="1">
+      <c r="B90" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="40" customHeight="1">
+      <c r="B91" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="40" customHeight="1">
+      <c r="B92" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" ht="40" customHeight="1">
+      <c r="B93" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" ht="40" customHeight="1">
+      <c r="B94" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" ht="40" customHeight="1">
+      <c r="B95" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" ht="40" customHeight="1">
+      <c r="B96" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" ht="40" customHeight="1">
+      <c r="B97" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" ht="40" customHeight="1">
+      <c r="B98" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" ht="40" customHeight="1">
+      <c r="B99" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" ht="40" customHeight="1">
+      <c r="B100" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" ht="40" customHeight="1">
+      <c r="B101" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" ht="40" customHeight="1">
+      <c r="B102" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" ht="40" customHeight="1">
+      <c r="B103" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" ht="40" customHeight="1">
+      <c r="B104" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" ht="40" customHeight="1">
+      <c r="B105" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" ht="40" customHeight="1">
+      <c r="B106" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" ht="40" customHeight="1">
+      <c r="B107" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EA918D-B36E-4224-89B1-EB1FC89D8AFC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:K113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -4811,1863 +9900,1532 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="41.25" customHeight="1">
+    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B71" si="0">ROW()-ROW($B$7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
+      <c r="C8" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="C9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
+      <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+      <c r="C11" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" ht="41.25" customHeight="1">
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
+      <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="41.25" customHeight="1">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>30</v>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
+      <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="41.25" customHeight="1">
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
+      <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" ht="41.25" customHeight="1">
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
+      <c r="B19" s="23">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11" ht="41.25" customHeight="1">
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
+      <c r="C20" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
+      <c r="B21" s="23">
         <v>14</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="23">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B25" s="23">
+        <v>18</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B27" s="23">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" ht="40" customHeight="1">
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" ht="40" customHeight="1">
-      <c r="B27" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:11" ht="40" customHeight="1">
+    <row r="28" spans="2:11" ht="41.25" customHeight="1">
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="2:11" ht="40" customHeight="1">
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
+    <row r="29" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B29" s="23">
         <v>22</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="2:11" ht="40" customHeight="1">
+    <row r="30" spans="2:11" ht="41.25" customHeight="1">
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
+      <c r="C30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="2:11" ht="40" customHeight="1">
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
+    <row r="31" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B31" s="23">
         <v>24</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:11" ht="40" customHeight="1">
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>61</v>
+      <c r="C32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="40" customHeight="1">
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
+      <c r="B33" s="23">
         <v>26</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>63</v>
+      <c r="C33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="40" customHeight="1">
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>12</v>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="40" customHeight="1">
-      <c r="B35" s="4">
-        <f t="shared" si="0"/>
+      <c r="B35" s="23">
         <v>28</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>15</v>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="2:11" ht="40" customHeight="1">
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
+      <c r="C36" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="2:11" ht="40" customHeight="1">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
+      <c r="B37" s="23">
         <v>30</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>67</v>
+      <c r="C37" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="2:11" ht="40" customHeight="1">
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>72</v>
+      <c r="C38" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="2:11" ht="40" customHeight="1">
-      <c r="B39" s="4">
-        <f t="shared" si="0"/>
+      <c r="B39" s="23">
         <v>32</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>75</v>
+      <c r="C39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="2:11" ht="40" customHeight="1">
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>77</v>
+      <c r="C40" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="2:11" ht="40" customHeight="1">
-      <c r="B41" s="4">
-        <f t="shared" si="0"/>
+      <c r="B41" s="23">
         <v>34</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>79</v>
+      <c r="C41" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:11" ht="40" customHeight="1">
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>81</v>
+      <c r="C42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:11" ht="40" customHeight="1">
-      <c r="B43" s="4">
-        <f t="shared" si="0"/>
+      <c r="B43" s="23">
         <v>36</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>83</v>
+      <c r="C43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="2:11" ht="40" customHeight="1">
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>86</v>
+      <c r="C44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="2:11" ht="40" customHeight="1">
-      <c r="B45" s="4">
-        <f t="shared" si="0"/>
+      <c r="B45" s="23">
         <v>38</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>87</v>
+      <c r="C45" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="2:11" ht="40" customHeight="1">
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>90</v>
+      <c r="C46" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="2:11" ht="40" customHeight="1">
-      <c r="B47" s="4">
-        <f t="shared" si="0"/>
+      <c r="B47" s="23">
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="2:11" ht="40" customHeight="1">
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="C48" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="2:11" ht="40" customHeight="1">
-      <c r="B49" s="4">
-        <f t="shared" si="0"/>
+      <c r="B49" s="23">
         <v>42</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>96</v>
+      <c r="C49" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>97</v>
+        <v>338</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" ht="40" customHeight="1">
+        <v>338</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="19"/>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B50" s="4">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" ht="40" customHeight="1">
-      <c r="B51" s="4">
-        <f t="shared" si="0"/>
+      <c r="C50" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="19"/>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="23">
         <v>44</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" ht="40" customHeight="1">
+      <c r="C51" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B52" s="4">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="C52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="15"/>
     </row>
     <row r="53" spans="2:11" ht="40" customHeight="1">
-      <c r="B53" s="4">
-        <f t="shared" si="0"/>
+      <c r="B53" s="23">
         <v>46</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>112</v>
+      <c r="C53" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="2:11" ht="40" customHeight="1">
       <c r="B54" s="4">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="4">
-        <f t="shared" si="0"/>
+      <c r="B55" s="23">
         <v>48</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:11" ht="40" customHeight="1">
       <c r="B56" s="4">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="22"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:11" ht="40" customHeight="1">
-      <c r="B57" s="4">
-        <f t="shared" si="0"/>
+      <c r="B57" s="23">
         <v>50</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="2:11" ht="40" customHeight="1">
       <c r="B58" s="4">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:11" ht="40" customHeight="1">
-      <c r="B59" s="4">
-        <f t="shared" si="0"/>
+      <c r="B59" s="23">
         <v>52</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:11" ht="40" customHeight="1">
       <c r="B60" s="4">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:11" ht="40" customHeight="1">
-      <c r="B61" s="4">
-        <f t="shared" si="0"/>
+      <c r="B61" s="23">
         <v>54</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:11" ht="40" customHeight="1">
       <c r="B62" s="4">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="22"/>
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="2:11" ht="40" customHeight="1">
-      <c r="B63" s="4">
-        <f t="shared" si="0"/>
+      <c r="B63" s="23">
         <v>56</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="22"/>
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="2:11" ht="40" customHeight="1">
       <c r="B64" s="4">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="2:11" ht="40" customHeight="1">
-      <c r="B65" s="4">
-        <f t="shared" si="0"/>
+      <c r="B65" s="23">
         <v>58</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="2:11" ht="40" customHeight="1">
       <c r="B66" s="4">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="22"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="2:11" ht="40" customHeight="1">
-      <c r="B67" s="4">
-        <f t="shared" si="0"/>
+      <c r="B67" s="23">
         <v>60</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="22"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="2:11" ht="40" customHeight="1">
       <c r="B68" s="4">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="22"/>
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="2:11" ht="40" customHeight="1">
-      <c r="B69" s="4">
-        <f t="shared" si="0"/>
+      <c r="B69" s="23">
         <v>62</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="22"/>
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="2:11" ht="40" customHeight="1">
       <c r="B70" s="4">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="2:11" ht="40" customHeight="1">
-      <c r="B71" s="4">
-        <f t="shared" si="0"/>
+      <c r="B71" s="23">
         <v>64</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="2:11" ht="40" customHeight="1">
       <c r="B72" s="4">
-        <f t="shared" ref="B72:B101" si="1">ROW()-ROW($B$7)</f>
         <v>65</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="2:11" ht="40" customHeight="1">
-      <c r="B73" s="4">
-        <f t="shared" si="1"/>
+      <c r="B73" s="23">
         <v>66</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="6"/>
     </row>
     <row r="74" spans="2:11" ht="40" customHeight="1">
       <c r="B74" s="4">
-        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="6"/>
     </row>
     <row r="75" spans="2:11" ht="40" customHeight="1">
-      <c r="B75" s="4">
-        <f t="shared" si="1"/>
+      <c r="B75" s="23">
         <v>68</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" spans="2:11" ht="40" customHeight="1">
       <c r="B76" s="4">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B77" s="17">
-        <f t="shared" si="1"/>
+    <row r="77" spans="2:11" ht="40" customHeight="1">
+      <c r="B77" s="23">
         <v>70</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B78" s="14">
-        <f t="shared" si="1"/>
+    <row r="78" spans="2:11" ht="40" customHeight="1">
+      <c r="B78" s="4">
         <v>71</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="2:11" ht="40" customHeight="1">
-      <c r="B79" s="4">
-        <f t="shared" si="1"/>
+      <c r="B79" s="23">
         <v>72</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="6"/>
     </row>
     <row r="80" spans="2:11" ht="40" customHeight="1">
       <c r="B80" s="4">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="22"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B81" s="17">
-        <f t="shared" si="1"/>
+    <row r="81" spans="2:11" ht="40" customHeight="1">
+      <c r="B81" s="23">
         <v>74</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>188</v>
-      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="22"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B82" s="14">
-        <f t="shared" si="1"/>
+    <row r="82" spans="2:11" ht="40" customHeight="1">
+      <c r="B82" s="4">
         <v>75</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>190</v>
-      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="22"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:11" ht="40" customHeight="1">
-      <c r="B83" s="4">
-        <f t="shared" si="1"/>
+      <c r="B83" s="23">
         <v>76</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="22"/>
       <c r="K83" s="6"/>
     </row>
     <row r="84" spans="2:11" ht="40" customHeight="1">
       <c r="B84" s="4">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>195</v>
-      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="22"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="2:11" ht="40" customHeight="1">
-      <c r="B85" s="4">
-        <f t="shared" si="1"/>
+      <c r="B85" s="23">
         <v>78</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>199</v>
-      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="22"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:11" ht="40" customHeight="1">
       <c r="B86" s="4">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="22"/>
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:11" ht="40" customHeight="1">
-      <c r="B87" s="4">
-        <f t="shared" si="1"/>
+      <c r="B87" s="23">
         <v>80</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="2:11" ht="40" customHeight="1">
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B88" s="4">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="22"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="2:11" ht="40" customHeight="1">
-      <c r="B89" s="4">
-        <f t="shared" si="1"/>
+    <row r="89" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B89" s="23">
         <v>82</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="22"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="2:11" ht="40" customHeight="1">
       <c r="B90" s="4">
-        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C90" s="7"/>
@@ -6675,14 +11433,13 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="22"/>
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="2:11" ht="40" customHeight="1">
-      <c r="B91" s="4">
-        <f t="shared" si="1"/>
+      <c r="B91" s="23">
         <v>84</v>
       </c>
       <c r="C91" s="7"/>
@@ -6690,74 +11447,69 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="22"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="2:11" ht="40" customHeight="1">
       <c r="B92" s="4">
-        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="6"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="22"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="2:11" ht="40" customHeight="1">
-      <c r="B93" s="4">
-        <f t="shared" si="1"/>
+    <row r="93" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B93" s="23">
         <v>86</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="22"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="2:11" ht="40" customHeight="1">
+    <row r="94" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B94" s="4">
-        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="22"/>
       <c r="K94" s="6"/>
     </row>
     <row r="95" spans="2:11" ht="40" customHeight="1">
-      <c r="B95" s="4">
-        <f t="shared" si="1"/>
+      <c r="B95" s="23">
         <v>88</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="22"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96" spans="2:11" ht="40" customHeight="1">
       <c r="B96" s="4">
-        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C96" s="7"/>
@@ -6765,44 +11517,41 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="8"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="22"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="2:11" ht="40" customHeight="1">
-      <c r="B97" s="4">
-        <f t="shared" si="1"/>
+      <c r="B97" s="23">
         <v>90</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="22"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="2:11" ht="40" customHeight="1">
       <c r="B98" s="4">
-        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="22"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="2:11" ht="40" customHeight="1">
-      <c r="B99" s="4">
-        <f t="shared" si="1"/>
+      <c r="B99" s="23">
         <v>92</v>
       </c>
       <c r="C99" s="7"/>
@@ -6810,14 +11559,13 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="22"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="2:11" ht="40" customHeight="1">
       <c r="B100" s="4">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C100" s="7"/>
@@ -6825,14 +11573,13 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="22"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="2:11" ht="40" customHeight="1">
-      <c r="B101" s="4">
-        <f t="shared" si="1"/>
+      <c r="B101" s="23">
         <v>94</v>
       </c>
       <c r="C101" s="7"/>
@@ -6840,10 +11587,178 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="J101" s="22"/>
       <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" ht="40" customHeight="1">
+      <c r="B102" s="4">
+        <v>95</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" ht="40" customHeight="1">
+      <c r="B103" s="23">
+        <v>96</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" ht="40" customHeight="1">
+      <c r="B104" s="4">
+        <v>97</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" ht="40" customHeight="1">
+      <c r="B105" s="23">
+        <v>98</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" ht="40" customHeight="1">
+      <c r="B106" s="4">
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" ht="40" customHeight="1">
+      <c r="B107" s="23">
+        <v>100</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="2:11" ht="40" customHeight="1">
+      <c r="B108" s="4">
+        <v>101</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" ht="40" customHeight="1">
+      <c r="B109" s="23">
+        <v>102</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="2:11" ht="40" customHeight="1">
+      <c r="B110" s="4">
+        <v>103</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="2:11" ht="40" customHeight="1">
+      <c r="B111" s="23">
+        <v>104</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="2:11" ht="40" customHeight="1">
+      <c r="B112" s="4">
+        <v>105</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" ht="40" customHeight="1">
+      <c r="B113" s="23">
+        <v>106</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FED6CB-4542-4AB7-B2F4-48B020EFC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CEBEE6-1963-4E19-943F-97C55D2DC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11700" windowHeight="10170" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="3" r:id="rId1"/>
@@ -16,17 +16,26 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">結合テスト!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単体テスト!$A$1:$K$31</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="350">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -5261,6 +5270,27 @@
     <t>D.I.ブログのtopページに遷移する</t>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古賀</t>
+    <rPh sb="0" eb="2">
+      <t>コガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pcで確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -5925,7 +5955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -6241,17 +6271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -6555,7 +6574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6644,31 +6663,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7051,2798 +7061,6 @@
   </sheetPr>
   <dimension ref="B6:K107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D13" sqref="D13:F13"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83:F83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B8" s="4">
-        <f t="shared" ref="B8:B75" si="0">ROW()-ROW($B$7)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B27" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B28" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" ht="40" customHeight="1">
-      <c r="B30" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="40" customHeight="1">
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" ht="40" customHeight="1">
-      <c r="B32" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" ht="40" customHeight="1">
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" ht="40" customHeight="1">
-      <c r="B34" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="2:11" ht="40" customHeight="1">
-      <c r="B35" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="2:11" ht="40" customHeight="1">
-      <c r="B36" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="2:11" ht="40" customHeight="1">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="2:11" ht="40" customHeight="1">
-      <c r="B38" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="2:11" ht="40" customHeight="1">
-      <c r="B39" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:11" ht="40" customHeight="1">
-      <c r="B40" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:11" ht="40" customHeight="1">
-      <c r="B41" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="2:11" ht="40" customHeight="1">
-      <c r="B42" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:11" ht="40" customHeight="1">
-      <c r="B43" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" ht="40" customHeight="1">
-      <c r="B44" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="2:11" ht="40" customHeight="1">
-      <c r="B45" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:11" ht="40" customHeight="1">
-      <c r="B46" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:11" ht="40" customHeight="1">
-      <c r="B47" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:11" ht="40" customHeight="1">
-      <c r="B48" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" ht="40" customHeight="1">
-      <c r="B49" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" ht="40" customHeight="1">
-      <c r="B50" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" ht="40" customHeight="1">
-      <c r="B51" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" ht="40" customHeight="1">
-      <c r="B52" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" ht="40" customHeight="1">
-      <c r="B53" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:11" ht="40" customHeight="1">
-      <c r="B54" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:11" ht="40" customHeight="1">
-      <c r="B56" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:11" ht="40" customHeight="1">
-      <c r="B57" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="2:11" ht="40" customHeight="1">
-      <c r="B58" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:11" ht="40" customHeight="1">
-      <c r="B59" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="2:11" ht="40" customHeight="1">
-      <c r="B60" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="2:11" ht="40" customHeight="1">
-      <c r="B61" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="2:11" ht="40" customHeight="1">
-      <c r="B62" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="2:11" ht="40" customHeight="1">
-      <c r="B63" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="2:11" ht="40" customHeight="1">
-      <c r="B64" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:11" ht="40" customHeight="1">
-      <c r="B65" s="4">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="2:11" ht="40" customHeight="1">
-      <c r="B66" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="2:11" ht="40" customHeight="1">
-      <c r="B67" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="2:11" ht="40" customHeight="1">
-      <c r="B68" s="4">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="2:11" ht="40" customHeight="1">
-      <c r="B69" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="2:11" ht="40" customHeight="1">
-      <c r="B70" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="2:11" ht="40" customHeight="1">
-      <c r="B71" s="4">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="2:11" ht="40" customHeight="1">
-      <c r="B72" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="2:11" ht="40" customHeight="1">
-      <c r="B73" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="2:11" ht="40" customHeight="1">
-      <c r="B74" s="4">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="40" customHeight="1">
-      <c r="B75" s="4">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="40" customHeight="1">
-      <c r="B76" s="4">
-        <f t="shared" ref="B76:B107" si="1">ROW()-ROW($B$7)</f>
-        <v>69</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="40" customHeight="1">
-      <c r="B77" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J77" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" ht="40" customHeight="1">
-      <c r="B78" s="4">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J78" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="40" customHeight="1">
-      <c r="B79" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" ht="40" customHeight="1">
-      <c r="B80" s="4">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J80" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="40" customHeight="1">
-      <c r="B81" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B82" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B83" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="40" customHeight="1">
-      <c r="B84" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J84" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="40" customHeight="1">
-      <c r="B85" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="40" customHeight="1">
-      <c r="B86" s="4">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B87" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J87" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B88" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="40" customHeight="1">
-      <c r="B89" s="4">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J89" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="40" customHeight="1">
-      <c r="B90" s="4">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="40" customHeight="1">
-      <c r="B91" s="4">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J91" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="40" customHeight="1">
-      <c r="B92" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="2:11" ht="40" customHeight="1">
-      <c r="B93" s="4">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="2:11" ht="40" customHeight="1">
-      <c r="B94" s="4">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="2:11" ht="40" customHeight="1">
-      <c r="B95" s="4">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="2:11" ht="40" customHeight="1">
-      <c r="B96" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="2:11" ht="40" customHeight="1">
-      <c r="B97" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="2:11" ht="40" customHeight="1">
-      <c r="B98" s="4">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="2:11" ht="40" customHeight="1">
-      <c r="B99" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="2:11" ht="40" customHeight="1">
-      <c r="B100" s="4">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="2:11" ht="40" customHeight="1">
-      <c r="B101" s="4">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="2:11" ht="40" customHeight="1">
-      <c r="B102" s="4">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="2:11" ht="40" customHeight="1">
-      <c r="B103" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="2:11" ht="40" customHeight="1">
-      <c r="B104" s="4">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="2:11" ht="40" customHeight="1">
-      <c r="B105" s="4">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="2:11" ht="40" customHeight="1">
-      <c r="B106" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="2:11" ht="40" customHeight="1">
-      <c r="B107" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EA918D-B36E-4224-89B1-EB1FC89D8AFC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B6:K113"/>
-  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13:F13"/>
@@ -9900,1594 +7118,2654 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+    <row r="8" spans="2:11" ht="41.25" customHeight="1">
       <c r="B8" s="4">
+        <f t="shared" ref="B8:B75" si="0">ROW()-ROW($B$7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="23">
+      <c r="C8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="C9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
       <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B11" s="23">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>232</v>
+      <c r="C11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="6"/>
+      <c r="H11" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="41.25" customHeight="1">
       <c r="B12" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>232</v>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B13" s="23">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>232</v>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="6"/>
+      <c r="H13" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="41.25" customHeight="1">
       <c r="B14" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>232</v>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="6"/>
+      <c r="H14" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B15" s="23">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>243</v>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="6"/>
+      <c r="H15" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="41.25" customHeight="1">
       <c r="B16" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>232</v>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="6"/>
+      <c r="H16" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B17" s="23">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>232</v>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="6"/>
+      <c r="H17" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="18" spans="2:11" ht="41.25" customHeight="1">
       <c r="B18" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>232</v>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B19" s="23">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>232</v>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="41.25" customHeight="1">
       <c r="B20" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>232</v>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B21" s="23">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>232</v>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="H21" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1">
       <c r="B22" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="23">
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1">
       <c r="B24" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="15"/>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="25" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B25" s="23">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>264</v>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="6"/>
+      <c r="H25" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="2:11" ht="41.25" customHeight="1">
       <c r="B26" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>266</v>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="6"/>
+      <c r="H26" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B27" s="23">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>268</v>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="6"/>
+      <c r="H27" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="41.25" customHeight="1">
       <c r="B28" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>270</v>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="6"/>
+      <c r="H28" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B29" s="23">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>272</v>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" ht="41.25" customHeight="1">
+      <c r="H29" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="40" customHeight="1">
       <c r="B30" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>280</v>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B31" s="23">
+      <c r="H30" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="40" customHeight="1">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>283</v>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="6"/>
+      <c r="H31" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="40" customHeight="1">
       <c r="B32" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>286</v>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="6"/>
+      <c r="H32" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="40" customHeight="1">
-      <c r="B33" s="23">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>288</v>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="6"/>
+      <c r="H33" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="40" customHeight="1">
       <c r="B34" s="4">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>292</v>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="6"/>
+      <c r="H34" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="35" spans="2:11" ht="40" customHeight="1">
-      <c r="B35" s="23">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>295</v>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="6"/>
+      <c r="H35" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="40" customHeight="1">
       <c r="B36" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>321</v>
+      <c r="C36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="6"/>
+      <c r="H36" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="37" spans="2:11" ht="40" customHeight="1">
-      <c r="B37" s="23">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>298</v>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="6"/>
+      <c r="H37" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="2:11" ht="40" customHeight="1">
       <c r="B38" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>299</v>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="6"/>
+      <c r="H38" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="40" customHeight="1">
-      <c r="B39" s="23">
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>300</v>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="6"/>
+      <c r="H39" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="40" spans="2:11" ht="40" customHeight="1">
       <c r="B40" s="4">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>301</v>
+      <c r="C40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="6"/>
+      <c r="H40" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="40" customHeight="1">
-      <c r="B41" s="23">
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>302</v>
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="6"/>
+      <c r="H41" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="40" customHeight="1">
       <c r="B42" s="4">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>303</v>
+      <c r="C42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="6"/>
+      <c r="H42" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="40" customHeight="1">
-      <c r="B43" s="23">
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>304</v>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="6"/>
+      <c r="H43" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="40" customHeight="1">
       <c r="B44" s="4">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>305</v>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>329</v>
+        <v>15</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="6"/>
+      <c r="H44" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="40" customHeight="1">
-      <c r="B45" s="23">
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>306</v>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="6"/>
+      <c r="H45" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="46" spans="2:11" ht="40" customHeight="1">
       <c r="B46" s="4">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>307</v>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="6"/>
+      <c r="H46" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="47" spans="2:11" ht="40" customHeight="1">
-      <c r="B47" s="23">
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="40" customHeight="1">
       <c r="B48" s="4">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="19"/>
+      <c r="C48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="49" spans="2:11" ht="40" customHeight="1">
-      <c r="B49" s="23">
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>337</v>
+      <c r="C49" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>339</v>
+        <v>87</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="2:11" ht="40" customHeight="1" thickBot="1">
+        <v>17</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
       <c r="B50" s="4">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B51" s="23">
+      <c r="C50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1">
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1">
       <c r="B52" s="4">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="15"/>
+      <c r="C52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="40" customHeight="1">
-      <c r="B53" s="23">
+      <c r="B53" s="4">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>197</v>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="6"/>
+      <c r="H53" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="54" spans="2:11" ht="40" customHeight="1">
       <c r="B54" s="4">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>345</v>
+        <v>99</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="6"/>
+      <c r="H54" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="23">
+      <c r="B55" s="4">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="C55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="6"/>
+      <c r="H55" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="56" spans="2:11" ht="40" customHeight="1">
       <c r="B56" s="4">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="C56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="6"/>
+      <c r="H56" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="57" spans="2:11" ht="40" customHeight="1">
-      <c r="B57" s="23">
+      <c r="B57" s="4">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="6"/>
+      <c r="H57" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="58" spans="2:11" ht="40" customHeight="1">
       <c r="B58" s="4">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="6"/>
+      <c r="H58" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="59" spans="2:11" ht="40" customHeight="1">
-      <c r="B59" s="23">
+      <c r="B59" s="4">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="C59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="6"/>
+      <c r="H59" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="40" customHeight="1">
       <c r="B60" s="4">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="C60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="6"/>
+      <c r="H60" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="61" spans="2:11" ht="40" customHeight="1">
-      <c r="B61" s="23">
+      <c r="B61" s="4">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="6"/>
+      <c r="H61" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="62" spans="2:11" ht="40" customHeight="1">
       <c r="B62" s="4">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
+      <c r="C62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="6"/>
+      <c r="H62" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="63" spans="2:11" ht="40" customHeight="1">
-      <c r="B63" s="23">
+      <c r="B63" s="4">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="C63" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="6"/>
+      <c r="H63" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="64" spans="2:11" ht="40" customHeight="1">
       <c r="B64" s="4">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="6"/>
+      <c r="H64" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="65" spans="2:11" ht="40" customHeight="1">
-      <c r="B65" s="23">
+      <c r="B65" s="4">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="C65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="6"/>
+      <c r="H65" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="66" spans="2:11" ht="40" customHeight="1">
       <c r="B66" s="4">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="C66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="6"/>
+      <c r="H66" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="67" spans="2:11" ht="40" customHeight="1">
-      <c r="B67" s="23">
+      <c r="B67" s="4">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="G67" s="6"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="6"/>
+      <c r="H67" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="68" spans="2:11" ht="40" customHeight="1">
       <c r="B68" s="4">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
+      <c r="C68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="6"/>
+      <c r="H68" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="69" spans="2:11" ht="40" customHeight="1">
-      <c r="B69" s="23">
+      <c r="B69" s="4">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="C69" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="G69" s="6"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="6"/>
+      <c r="H69" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="70" spans="2:11" ht="40" customHeight="1">
       <c r="B70" s="4">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="6"/>
+      <c r="H70" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="71" spans="2:11" ht="40" customHeight="1">
-      <c r="B71" s="23">
+      <c r="B71" s="4">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
+      <c r="C71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G71" s="6"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="6"/>
+      <c r="H71" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="40" customHeight="1">
       <c r="B72" s="4">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="C72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="6"/>
+      <c r="H72" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="73" spans="2:11" ht="40" customHeight="1">
-      <c r="B73" s="23">
+      <c r="B73" s="4">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G73" s="6"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="6"/>
+      <c r="H73" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="74" spans="2:11" ht="40" customHeight="1">
       <c r="B74" s="4">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G74" s="6"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="6"/>
+      <c r="H74" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="75" spans="2:11" ht="40" customHeight="1">
-      <c r="B75" s="23">
+      <c r="B75" s="4">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="6"/>
+      <c r="H75" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="76" spans="2:11" ht="40" customHeight="1">
       <c r="B76" s="4">
+        <f t="shared" ref="B76:B107" si="1">ROW()-ROW($B$7)</f>
         <v>69</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="G76" s="6"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="6"/>
+      <c r="H76" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="77" spans="2:11" ht="40" customHeight="1">
-      <c r="B77" s="23">
+      <c r="B77" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="6"/>
+      <c r="H77" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="78" spans="2:11" ht="40" customHeight="1">
       <c r="B78" s="4">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="C78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="G78" s="6"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="6"/>
+      <c r="H78" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="79" spans="2:11" ht="40" customHeight="1">
-      <c r="B79" s="23">
+      <c r="B79" s="4">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="G79" s="6"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="6"/>
+      <c r="H79" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="80" spans="2:11" ht="40" customHeight="1">
       <c r="B80" s="4">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="6"/>
+      <c r="C80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="G80" s="6"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="6"/>
+      <c r="H80" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="81" spans="2:11" ht="40" customHeight="1">
-      <c r="B81" s="23">
+      <c r="B81" s="4">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="C81" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="2:11" ht="40" customHeight="1">
+      <c r="H81" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B82" s="4">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="C82" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="G82" s="6"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="2:11" ht="40" customHeight="1">
-      <c r="B83" s="23">
+      <c r="H82" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B83" s="4">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
+      <c r="C83" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="G83" s="6"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="6"/>
+      <c r="H83" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="84" spans="2:11" ht="40" customHeight="1">
       <c r="B84" s="4">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
+      <c r="C84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="G84" s="6"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="6"/>
+      <c r="H84" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="85" spans="2:11" ht="40" customHeight="1">
-      <c r="B85" s="23">
+      <c r="B85" s="4">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="C85" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="G85" s="6"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="6"/>
+      <c r="H85" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="86" spans="2:11" ht="40" customHeight="1">
       <c r="B86" s="4">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
+      <c r="C86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="G86" s="6"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="2:11" ht="40" customHeight="1">
-      <c r="B87" s="23">
+      <c r="H86" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B87" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19"/>
+      <c r="C87" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="H87" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B88" s="4">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
+      <c r="C88" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B89" s="23">
+      <c r="H88" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1">
+      <c r="B89" s="4">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
+      <c r="C89" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="6"/>
+      <c r="H89" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="90" spans="2:11" ht="40" customHeight="1">
       <c r="B90" s="4">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="G90" s="6"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="6"/>
+      <c r="H90" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="91" spans="2:11" ht="40" customHeight="1">
-      <c r="B91" s="23">
+      <c r="B91" s="4">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="C91" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="6"/>
+      <c r="H91" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="92" spans="2:11" ht="40" customHeight="1">
       <c r="B92" s="4">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="G92" s="6"/>
       <c r="H92" s="8"/>
       <c r="I92" s="6"/>
       <c r="J92" s="22"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B93" s="23">
+    <row r="93" spans="2:11" ht="40" customHeight="1">
+      <c r="B93" s="4">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="8"/>
       <c r="I93" s="6"/>
       <c r="J93" s="22"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="2:11" ht="40" customHeight="1" thickTop="1">
+    <row r="94" spans="2:11" ht="40" customHeight="1">
       <c r="B94" s="4">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="8"/>
       <c r="I94" s="6"/>
@@ -11495,13 +9773,14 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95" spans="2:11" ht="40" customHeight="1">
-      <c r="B95" s="23">
+      <c r="B95" s="4">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="8"/>
       <c r="I95" s="6"/>
@@ -11510,6 +9789,7 @@
     </row>
     <row r="96" spans="2:11" ht="40" customHeight="1">
       <c r="B96" s="4">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C96" s="7"/>
@@ -11523,13 +9803,14 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="2:11" ht="40" customHeight="1">
-      <c r="B97" s="23">
+      <c r="B97" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="8"/>
       <c r="I97" s="6"/>
@@ -11538,11 +9819,12 @@
     </row>
     <row r="98" spans="2:11" ht="40" customHeight="1">
       <c r="B98" s="4">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="8"/>
@@ -11551,7 +9833,8 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="2:11" ht="40" customHeight="1">
-      <c r="B99" s="23">
+      <c r="B99" s="4">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C99" s="7"/>
@@ -11566,6 +9849,7 @@
     </row>
     <row r="100" spans="2:11" ht="40" customHeight="1">
       <c r="B100" s="4">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C100" s="7"/>
@@ -11579,7 +9863,8 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="2:11" ht="40" customHeight="1">
-      <c r="B101" s="23">
+      <c r="B101" s="4">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C101" s="7"/>
@@ -11594,6 +9879,7 @@
     </row>
     <row r="102" spans="2:11" ht="40" customHeight="1">
       <c r="B102" s="4">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C102" s="7"/>
@@ -11607,7 +9893,8 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="2:11" ht="40" customHeight="1">
-      <c r="B103" s="23">
+      <c r="B103" s="4">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C103" s="7"/>
@@ -11622,6 +9909,7 @@
     </row>
     <row r="104" spans="2:11" ht="40" customHeight="1">
       <c r="B104" s="4">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C104" s="7"/>
@@ -11635,7 +9923,8 @@
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="2:11" ht="40" customHeight="1">
-      <c r="B105" s="23">
+      <c r="B105" s="4">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C105" s="7"/>
@@ -11650,6 +9939,7 @@
     </row>
     <row r="106" spans="2:11" ht="40" customHeight="1">
       <c r="B106" s="4">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C106" s="7"/>
@@ -11663,7 +9953,8 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107" spans="2:11" ht="40" customHeight="1">
-      <c r="B107" s="23">
+      <c r="B107" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C107" s="7"/>
@@ -11676,6 +9967,2339 @@
       <c r="J107" s="22"/>
       <c r="K107" s="6"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EA918D-B36E-4224-89B1-EB1FC89D8AFC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:K113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34">
+        <v>45320</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B16" s="4">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B19" s="23">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B20" s="4">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B21" s="23">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B23" s="23">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B25" s="23">
+        <v>18</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B26" s="4">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B27" s="23">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B28" s="4">
+        <v>21</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B29" s="23">
+        <v>22</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B30" s="4">
+        <v>23</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B31" s="23">
+        <v>24</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="40" customHeight="1">
+      <c r="B32" s="4">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="40" customHeight="1">
+      <c r="B33" s="23">
+        <v>26</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="40" customHeight="1">
+      <c r="B34" s="4">
+        <v>27</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="40" customHeight="1">
+      <c r="B35" s="23">
+        <v>28</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="40" customHeight="1">
+      <c r="B36" s="4">
+        <v>29</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="40" customHeight="1">
+      <c r="B37" s="23">
+        <v>30</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="40" customHeight="1">
+      <c r="B38" s="4">
+        <v>31</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="40" customHeight="1">
+      <c r="B39" s="23">
+        <v>32</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="40" customHeight="1">
+      <c r="B40" s="4">
+        <v>33</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="40" customHeight="1">
+      <c r="B41" s="23">
+        <v>34</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="40" customHeight="1">
+      <c r="B42" s="4">
+        <v>35</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="40" customHeight="1">
+      <c r="B43" s="23">
+        <v>36</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="40" customHeight="1">
+      <c r="B44" s="4">
+        <v>37</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="40" customHeight="1">
+      <c r="B45" s="23">
+        <v>38</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="40" customHeight="1">
+      <c r="B46" s="4">
+        <v>39</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="40" customHeight="1">
+      <c r="B47" s="23">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="40" customHeight="1">
+      <c r="B48" s="4">
+        <v>41</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="40" customHeight="1">
+      <c r="B49" s="23">
+        <v>42</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
+      <c r="B50" s="4">
+        <v>43</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B51" s="23">
+        <v>44</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B52" s="4">
+        <v>45</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="40" customHeight="1">
+      <c r="B53" s="23">
+        <v>46</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="40" customHeight="1">
+      <c r="B54" s="4">
+        <v>47</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="40" customHeight="1">
+      <c r="B55" s="23">
+        <v>48</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="40" customHeight="1">
+      <c r="B56" s="4">
+        <v>49</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="40" customHeight="1">
+      <c r="B57" s="23">
+        <v>50</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="40" customHeight="1">
+      <c r="B58" s="4">
+        <v>51</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="40" customHeight="1">
+      <c r="B59" s="23">
+        <v>52</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="40" customHeight="1">
+      <c r="B60" s="4">
+        <v>53</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="40" customHeight="1">
+      <c r="B61" s="23">
+        <v>54</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="40" customHeight="1">
+      <c r="B62" s="4">
+        <v>55</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="40" customHeight="1">
+      <c r="B63" s="23">
+        <v>56</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="40" customHeight="1">
+      <c r="B64" s="4">
+        <v>57</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="40" customHeight="1">
+      <c r="B65" s="23">
+        <v>58</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="40" customHeight="1">
+      <c r="B66" s="4">
+        <v>59</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="40" customHeight="1">
+      <c r="B67" s="23">
+        <v>60</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="40" customHeight="1">
+      <c r="B68" s="4">
+        <v>61</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="40" customHeight="1">
+      <c r="B69" s="23">
+        <v>62</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="40" customHeight="1">
+      <c r="B70" s="4">
+        <v>63</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="40" customHeight="1">
+      <c r="B71" s="23">
+        <v>64</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="40" customHeight="1">
+      <c r="B72" s="4">
+        <v>65</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="40" customHeight="1">
+      <c r="B73" s="23">
+        <v>66</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="40" customHeight="1">
+      <c r="B74" s="4">
+        <v>67</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="40" customHeight="1">
+      <c r="B75" s="23">
+        <v>68</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="40" customHeight="1">
+      <c r="B76" s="4">
+        <v>69</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="40" customHeight="1">
+      <c r="B77" s="23">
+        <v>70</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="40" customHeight="1">
+      <c r="B78" s="4">
+        <v>71</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="40" customHeight="1">
+      <c r="B79" s="23">
+        <v>72</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="40" customHeight="1">
+      <c r="B80" s="4">
+        <v>73</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="40" customHeight="1">
+      <c r="B81" s="23">
+        <v>74</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1">
+      <c r="B82" s="4">
+        <v>75</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1">
+      <c r="B83" s="23">
+        <v>76</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="40" customHeight="1">
+      <c r="B84" s="4">
+        <v>77</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="40" customHeight="1">
+      <c r="B85" s="23">
+        <v>78</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="40" customHeight="1">
+      <c r="B86" s="4">
+        <v>79</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1">
+      <c r="B87" s="23">
+        <v>80</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B88" s="4">
+        <v>81</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B89" s="23">
+        <v>82</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="40" customHeight="1">
+      <c r="B90" s="4">
+        <v>83</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="40" customHeight="1">
+      <c r="B91" s="23">
+        <v>84</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="40" customHeight="1">
+      <c r="B92" s="4">
+        <v>85</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B93" s="23">
+        <v>86</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B94" s="4">
+        <v>87</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="40" customHeight="1">
+      <c r="B95" s="23">
+        <v>88</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="40" customHeight="1">
+      <c r="B96" s="4">
+        <v>89</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="40" customHeight="1">
+      <c r="B97" s="23">
+        <v>90</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="40" customHeight="1">
+      <c r="B98" s="4">
+        <v>91</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="40" customHeight="1">
+      <c r="B99" s="23">
+        <v>92</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="40" customHeight="1">
+      <c r="B100" s="4">
+        <v>93</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="40" customHeight="1">
+      <c r="B101" s="23">
+        <v>94</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="40" customHeight="1">
+      <c r="B102" s="4">
+        <v>95</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="40" customHeight="1">
+      <c r="B103" s="23">
+        <v>96</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="40" customHeight="1">
+      <c r="B104" s="4">
+        <v>97</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="40" customHeight="1">
+      <c r="B105" s="23">
+        <v>98</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="40" customHeight="1">
+      <c r="B106" s="4">
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="40" customHeight="1">
+      <c r="B107" s="23">
+        <v>100</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
     <row r="108" spans="2:11" ht="40" customHeight="1">
       <c r="B108" s="4">
         <v>101</v>
@@ -11688,7 +12312,9 @@
       <c r="H108" s="8"/>
       <c r="I108" s="6"/>
       <c r="J108" s="22"/>
-      <c r="K108" s="6"/>
+      <c r="K108" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="109" spans="2:11" ht="40" customHeight="1">
       <c r="B109" s="23">
@@ -11702,7 +12328,9 @@
       <c r="H109" s="8"/>
       <c r="I109" s="6"/>
       <c r="J109" s="22"/>
-      <c r="K109" s="6"/>
+      <c r="K109" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="110" spans="2:11" ht="40" customHeight="1">
       <c r="B110" s="4">
@@ -11716,7 +12344,9 @@
       <c r="H110" s="8"/>
       <c r="I110" s="6"/>
       <c r="J110" s="22"/>
-      <c r="K110" s="6"/>
+      <c r="K110" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="111" spans="2:11" ht="40" customHeight="1">
       <c r="B111" s="23">
@@ -11730,7 +12360,9 @@
       <c r="H111" s="8"/>
       <c r="I111" s="6"/>
       <c r="J111" s="22"/>
-      <c r="K111" s="6"/>
+      <c r="K111" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="112" spans="2:11" ht="40" customHeight="1">
       <c r="B112" s="4">
@@ -11744,7 +12376,9 @@
       <c r="H112" s="8"/>
       <c r="I112" s="6"/>
       <c r="J112" s="22"/>
-      <c r="K112" s="6"/>
+      <c r="K112" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="113" spans="2:11" ht="40" customHeight="1">
       <c r="B113" s="23">
@@ -11758,7 +12392,9 @@
       <c r="H113" s="8"/>
       <c r="I113" s="6"/>
       <c r="J113" s="22"/>
-      <c r="K113" s="6"/>
+      <c r="K113" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CEBEE6-1963-4E19-943F-97C55D2DC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2766A4-AB22-45D4-83DC-7482FC937BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="355">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -5291,6 +5291,69 @@
     <t>pcで確認</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表示がエラーコード担ってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値の初期化</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>session関数の効力が失われている</t>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録成功後TOPページに戻る
+もう一度アカウント登録画面に遷移する</t>
+    <rPh sb="0" eb="5">
+      <t>トウロクセイコウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値が初期化されている</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -7061,6 +7124,2930 @@
   </sheetPr>
   <dimension ref="B6:K107"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:B75" si="0">ROW()-ROW($B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="40" customHeight="1">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="40" customHeight="1">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="40" customHeight="1">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="40" customHeight="1">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="40" customHeight="1">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="40" customHeight="1">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="40" customHeight="1">
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="40" customHeight="1">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="40" customHeight="1">
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="40" customHeight="1">
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="40" customHeight="1">
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="40" customHeight="1">
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="40" customHeight="1">
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="40" customHeight="1">
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="40" customHeight="1">
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="40" customHeight="1">
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="40" customHeight="1">
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="40" customHeight="1">
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="40" customHeight="1">
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="40" customHeight="1">
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1">
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1">
+      <c r="B52" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="40" customHeight="1">
+      <c r="B53" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="40" customHeight="1">
+      <c r="B54" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="40" customHeight="1">
+      <c r="B55" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="40" customHeight="1">
+      <c r="B56" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="40" customHeight="1">
+      <c r="B57" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="40" customHeight="1">
+      <c r="B58" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="40" customHeight="1">
+      <c r="B59" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="40" customHeight="1">
+      <c r="B60" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="40" customHeight="1">
+      <c r="B61" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="40" customHeight="1">
+      <c r="B62" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="40" customHeight="1">
+      <c r="B63" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="40" customHeight="1">
+      <c r="B64" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="40" customHeight="1">
+      <c r="B65" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="40" customHeight="1">
+      <c r="B66" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="40" customHeight="1">
+      <c r="B67" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="40" customHeight="1">
+      <c r="B68" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="40" customHeight="1">
+      <c r="B69" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="40" customHeight="1">
+      <c r="B70" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="40" customHeight="1">
+      <c r="B71" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="40" customHeight="1">
+      <c r="B72" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="40" customHeight="1">
+      <c r="B73" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="40" customHeight="1">
+      <c r="B74" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="40" customHeight="1">
+      <c r="B75" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="40" customHeight="1">
+      <c r="B76" s="4">
+        <f t="shared" ref="B76:B107" si="1">ROW()-ROW($B$7)</f>
+        <v>69</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="40" customHeight="1">
+      <c r="B77" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="40" customHeight="1">
+      <c r="B78" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="40" customHeight="1">
+      <c r="B79" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="40" customHeight="1">
+      <c r="B80" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="40" customHeight="1">
+      <c r="B81" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B82" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B83" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="40" customHeight="1">
+      <c r="B84" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="40" customHeight="1">
+      <c r="B85" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="40" customHeight="1">
+      <c r="B86" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B87" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B88" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1">
+      <c r="B89" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="40" customHeight="1">
+      <c r="B90" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="40" customHeight="1">
+      <c r="B91" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="40" customHeight="1">
+      <c r="B92" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" ht="40" customHeight="1">
+      <c r="B93" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" ht="40" customHeight="1">
+      <c r="B94" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" ht="40" customHeight="1">
+      <c r="B95" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" ht="40" customHeight="1">
+      <c r="B96" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" ht="40" customHeight="1">
+      <c r="B97" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" ht="40" customHeight="1">
+      <c r="B98" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" ht="40" customHeight="1">
+      <c r="B99" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" ht="40" customHeight="1">
+      <c r="B100" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" ht="40" customHeight="1">
+      <c r="B101" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" ht="40" customHeight="1">
+      <c r="B102" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" ht="40" customHeight="1">
+      <c r="B103" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" ht="40" customHeight="1">
+      <c r="B104" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" ht="40" customHeight="1">
+      <c r="B105" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" ht="40" customHeight="1">
+      <c r="B106" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" ht="40" customHeight="1">
+      <c r="B107" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EA918D-B36E-4224-89B1-EB1FC89D8AFC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:K113"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13:F13"/>
@@ -7118,2678 +10105,2008 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="41.25" customHeight="1">
+    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B75" si="0">ROW()-ROW($B$7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B9" s="4">
+      <c r="C8" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>224</v>
+      <c r="C9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34">
+        <v>45320</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="41.25" customHeight="1">
       <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>224</v>
+        <v>45320</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B11" s="4">
+      <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>220</v>
+      <c r="C11" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="8">
-        <v>45314</v>
+      <c r="H11" s="24">
+        <v>45320</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="41.25" customHeight="1">
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
+      <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="8">
-        <v>45314</v>
+      <c r="H13" s="24">
+        <v>45320</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="41.25" customHeight="1">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
+      <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="8">
-        <v>45314</v>
+      <c r="H15" s="24">
+        <v>45320</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="41.25" customHeight="1">
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
+      <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="8">
-        <v>45314</v>
+      <c r="H17" s="24">
+        <v>45320</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="41.25" customHeight="1">
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>30</v>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
+      <c r="B19" s="23">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="8">
-        <v>45314</v>
+      <c r="H19" s="24">
+        <v>45320</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="41.25" customHeight="1">
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
+      <c r="C20" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
+      <c r="B21" s="23">
         <v>14</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
+      <c r="C22" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B23" s="23">
         <v>16</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="C23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="33"/>
       <c r="H23" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>224</v>
+        <v>45320</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="41.25" customHeight="1">
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>224</v>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
+      <c r="B25" s="23">
         <v>18</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
+      <c r="C25" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="41.25" customHeight="1">
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="8">
-        <v>45314</v>
+      <c r="H26" s="24">
+        <v>45320</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B27" s="4">
-        <f t="shared" si="0"/>
+      <c r="B27" s="23">
         <v>20</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="41.25" customHeight="1">
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="8">
-        <v>45314</v>
+      <c r="H28" s="24">
+        <v>45320</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
+      <c r="B29" s="23">
         <v>22</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="40" customHeight="1">
+        <v>347</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="41.25" customHeight="1">
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
+      <c r="C30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="8">
-        <v>45314</v>
+      <c r="H30" s="24">
+        <v>45320</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="40" customHeight="1">
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B31" s="23">
         <v>24</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="40" customHeight="1">
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
+      <c r="C32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="8">
-        <v>45314</v>
+      <c r="H32" s="24">
+        <v>45320</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="40" customHeight="1">
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
+      <c r="B33" s="23">
         <v>26</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
+      <c r="C33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="40" customHeight="1">
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="8">
-        <v>45314</v>
+      <c r="H34" s="24">
+        <v>45320</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="40" customHeight="1">
-      <c r="B35" s="4">
-        <f t="shared" si="0"/>
+      <c r="B35" s="23">
         <v>28</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>23</v>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="40" customHeight="1">
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>61</v>
+      <c r="C36" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="8">
-        <v>45314</v>
+      <c r="H36" s="24">
+        <v>45320</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="40" customHeight="1">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
+      <c r="B37" s="23">
         <v>30</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>59</v>
+      <c r="C37" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="40" customHeight="1">
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>64</v>
+      <c r="C38" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="8">
-        <v>45314</v>
+      <c r="H38" s="24">
+        <v>45320</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="40" customHeight="1">
-      <c r="B39" s="4">
-        <f t="shared" si="0"/>
+      <c r="B39" s="23">
         <v>32</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>65</v>
+      <c r="C39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="40" customHeight="1">
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>66</v>
+      <c r="C40" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="8">
-        <v>45314</v>
+      <c r="H40" s="24">
+        <v>45320</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="40" customHeight="1">
-      <c r="B41" s="4">
-        <f t="shared" si="0"/>
+      <c r="B41" s="23">
         <v>34</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>67</v>
+      <c r="C41" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="40" customHeight="1">
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>72</v>
+      <c r="C42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="8">
-        <v>45314</v>
+      <c r="H42" s="24">
+        <v>45320</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="40" customHeight="1">
-      <c r="B43" s="4">
-        <f t="shared" si="0"/>
+      <c r="B43" s="23">
         <v>36</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>75</v>
+      <c r="C43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="40" customHeight="1">
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>77</v>
+      <c r="C44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="8">
-        <v>45314</v>
+      <c r="H44" s="24">
+        <v>45320</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="40" customHeight="1">
-      <c r="B45" s="4">
-        <f t="shared" si="0"/>
+      <c r="B45" s="23">
         <v>38</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>79</v>
+      <c r="C45" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="40" customHeight="1">
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>81</v>
+      <c r="C46" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="8">
-        <v>45314</v>
+      <c r="H46" s="24">
+        <v>45320</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="40" customHeight="1">
-      <c r="B47" s="4">
-        <f t="shared" si="0"/>
+      <c r="B47" s="23">
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>224</v>
+        <v>332</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="40" customHeight="1">
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>224</v>
+      <c r="C48" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="40" customHeight="1">
-      <c r="B49" s="4">
-        <f t="shared" si="0"/>
+      <c r="B49" s="23">
         <v>42</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>19</v>
+      <c r="C49" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>88</v>
+        <v>338</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>224</v>
+        <v>338</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="40" customHeight="1">
       <c r="B50" s="4">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>90</v>
+      <c r="C50" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="40" customHeight="1">
-      <c r="B51" s="4">
-        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B51" s="23">
         <v>44</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="40" customHeight="1">
+      <c r="C51" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B52" s="4">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>224</v>
+      <c r="C52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="40" customHeight="1">
-      <c r="B53" s="4">
-        <f t="shared" si="0"/>
+      <c r="B53" s="23">
         <v>46</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>98</v>
+      <c r="C53" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>224</v>
+        <v>350</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="40" customHeight="1">
       <c r="B54" s="4">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>103</v>
+        <v>225</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="4">
-        <f t="shared" si="0"/>
+      <c r="B55" s="23">
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>105</v>
+        <v>352</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>100</v>
+        <v>354</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="8">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>221</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>224</v>
+        <v>347</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="40" customHeight="1">
       <c r="B56" s="4">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="15"/>
     </row>
     <row r="57" spans="2:11" ht="40" customHeight="1">
-      <c r="B57" s="4">
-        <f t="shared" si="0"/>
+      <c r="B57" s="23">
         <v>50</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="15"/>
     </row>
     <row r="58" spans="2:11" ht="40" customHeight="1">
       <c r="B58" s="4">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="15"/>
     </row>
     <row r="59" spans="2:11" ht="40" customHeight="1">
-      <c r="B59" s="4">
-        <f t="shared" si="0"/>
+      <c r="B59" s="23">
         <v>52</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="15"/>
     </row>
     <row r="60" spans="2:11" ht="40" customHeight="1">
       <c r="B60" s="4">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="15"/>
     </row>
     <row r="61" spans="2:11" ht="40" customHeight="1">
-      <c r="B61" s="4">
-        <f t="shared" si="0"/>
+      <c r="B61" s="23">
         <v>54</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="15"/>
     </row>
     <row r="62" spans="2:11" ht="40" customHeight="1">
       <c r="B62" s="4">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="15"/>
     </row>
     <row r="63" spans="2:11" ht="40" customHeight="1">
-      <c r="B63" s="4">
-        <f t="shared" si="0"/>
+      <c r="B63" s="23">
         <v>56</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="15"/>
     </row>
     <row r="64" spans="2:11" ht="40" customHeight="1">
       <c r="B64" s="4">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="15"/>
     </row>
     <row r="65" spans="2:11" ht="40" customHeight="1">
-      <c r="B65" s="4">
-        <f t="shared" si="0"/>
+      <c r="B65" s="23">
         <v>58</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="15"/>
     </row>
     <row r="66" spans="2:11" ht="40" customHeight="1">
       <c r="B66" s="4">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="15"/>
     </row>
     <row r="67" spans="2:11" ht="40" customHeight="1">
-      <c r="B67" s="4">
-        <f t="shared" si="0"/>
+      <c r="B67" s="23">
         <v>60</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="15"/>
     </row>
     <row r="68" spans="2:11" ht="40" customHeight="1">
       <c r="B68" s="4">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="15"/>
     </row>
     <row r="69" spans="2:11" ht="40" customHeight="1">
-      <c r="B69" s="4">
-        <f t="shared" si="0"/>
+      <c r="B69" s="23">
         <v>62</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="15"/>
     </row>
     <row r="70" spans="2:11" ht="40" customHeight="1">
       <c r="B70" s="4">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="15"/>
     </row>
     <row r="71" spans="2:11" ht="40" customHeight="1">
-      <c r="B71" s="4">
-        <f t="shared" si="0"/>
+      <c r="B71" s="23">
         <v>64</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" spans="2:11" ht="40" customHeight="1">
       <c r="B72" s="4">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="15"/>
     </row>
     <row r="73" spans="2:11" ht="40" customHeight="1">
-      <c r="B73" s="4">
-        <f t="shared" si="0"/>
+      <c r="B73" s="23">
         <v>66</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="15"/>
     </row>
     <row r="74" spans="2:11" ht="40" customHeight="1">
       <c r="B74" s="4">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="15"/>
     </row>
     <row r="75" spans="2:11" ht="40" customHeight="1">
-      <c r="B75" s="4">
-        <f t="shared" si="0"/>
+      <c r="B75" s="23">
         <v>68</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="15"/>
     </row>
     <row r="76" spans="2:11" ht="40" customHeight="1">
       <c r="B76" s="4">
-        <f t="shared" ref="B76:B107" si="1">ROW()-ROW($B$7)</f>
         <v>69</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="15"/>
     </row>
     <row r="77" spans="2:11" ht="40" customHeight="1">
-      <c r="B77" s="4">
-        <f t="shared" si="1"/>
+      <c r="B77" s="23">
         <v>70</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J77" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="15"/>
     </row>
     <row r="78" spans="2:11" ht="40" customHeight="1">
       <c r="B78" s="4">
-        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J78" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="2:11" ht="40" customHeight="1">
-      <c r="B79" s="4">
-        <f t="shared" si="1"/>
+      <c r="B79" s="23">
         <v>72</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="15"/>
     </row>
     <row r="80" spans="2:11" ht="40" customHeight="1">
       <c r="B80" s="4">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J80" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="15"/>
     </row>
     <row r="81" spans="2:11" ht="40" customHeight="1">
-      <c r="B81" s="4">
-        <f t="shared" si="1"/>
+      <c r="B81" s="23">
         <v>74</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="H81" s="8"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1">
       <c r="B82" s="4">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B83" s="4">
-        <f t="shared" si="1"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1">
+      <c r="B83" s="23">
         <v>76</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" spans="2:11" ht="40" customHeight="1">
       <c r="B84" s="4">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J84" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" spans="2:11" ht="40" customHeight="1">
-      <c r="B85" s="4">
-        <f t="shared" si="1"/>
+      <c r="B85" s="23">
         <v>78</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>182</v>
-      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" spans="2:11" ht="40" customHeight="1">
       <c r="B86" s="4">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B87" s="4">
-        <f t="shared" si="1"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1">
+      <c r="B87" s="23">
         <v>80</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>186</v>
-      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J87" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="15"/>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B88" s="4">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>188</v>
-      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="40" customHeight="1">
-      <c r="B89" s="4">
-        <f t="shared" si="1"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B89" s="23">
         <v>82</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J89" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="15"/>
     </row>
     <row r="90" spans="2:11" ht="40" customHeight="1">
       <c r="B90" s="4">
-        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="15"/>
     </row>
     <row r="91" spans="2:11" ht="40" customHeight="1">
-      <c r="B91" s="4">
-        <f t="shared" si="1"/>
+      <c r="B91" s="23">
         <v>84</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="8">
-        <v>45314</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J91" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="15"/>
     </row>
     <row r="92" spans="2:11" ht="40" customHeight="1">
       <c r="B92" s="4">
-        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="8"/>
       <c r="I92" s="6"/>
       <c r="J92" s="22"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="2:11" ht="40" customHeight="1">
-      <c r="B93" s="4">
-        <f t="shared" si="1"/>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B93" s="23">
         <v>86</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="6"/>
       <c r="H93" s="8"/>
       <c r="I93" s="6"/>
       <c r="J93" s="22"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="2:11" ht="40" customHeight="1">
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B94" s="4">
-        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
       <c r="G94" s="6"/>
       <c r="H94" s="8"/>
       <c r="I94" s="6"/>
       <c r="J94" s="22"/>
-      <c r="K94" s="6"/>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" spans="2:11" ht="40" customHeight="1">
-      <c r="B95" s="4">
-        <f t="shared" si="1"/>
+      <c r="B95" s="23">
         <v>88</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="6"/>
       <c r="H95" s="8"/>
       <c r="I95" s="6"/>
       <c r="J95" s="22"/>
-      <c r="K95" s="6"/>
+      <c r="K95" s="15"/>
     </row>
     <row r="96" spans="2:11" ht="40" customHeight="1">
       <c r="B96" s="4">
-        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C96" s="7"/>
@@ -9800,41 +12117,38 @@
       <c r="H96" s="8"/>
       <c r="I96" s="6"/>
       <c r="J96" s="22"/>
-      <c r="K96" s="6"/>
+      <c r="K96" s="15"/>
     </row>
     <row r="97" spans="2:11" ht="40" customHeight="1">
-      <c r="B97" s="4">
-        <f t="shared" si="1"/>
+      <c r="B97" s="23">
         <v>90</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="6"/>
       <c r="H97" s="8"/>
       <c r="I97" s="6"/>
       <c r="J97" s="22"/>
-      <c r="K97" s="6"/>
+      <c r="K97" s="15"/>
     </row>
     <row r="98" spans="2:11" ht="40" customHeight="1">
       <c r="B98" s="4">
-        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="8"/>
       <c r="I98" s="6"/>
       <c r="J98" s="22"/>
-      <c r="K98" s="6"/>
+      <c r="K98" s="15"/>
     </row>
     <row r="99" spans="2:11" ht="40" customHeight="1">
-      <c r="B99" s="4">
-        <f t="shared" si="1"/>
+      <c r="B99" s="23">
         <v>92</v>
       </c>
       <c r="C99" s="7"/>
@@ -9845,11 +12159,10 @@
       <c r="H99" s="8"/>
       <c r="I99" s="6"/>
       <c r="J99" s="22"/>
-      <c r="K99" s="6"/>
+      <c r="K99" s="15"/>
     </row>
     <row r="100" spans="2:11" ht="40" customHeight="1">
       <c r="B100" s="4">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C100" s="7"/>
@@ -9860,11 +12173,10 @@
       <c r="H100" s="8"/>
       <c r="I100" s="6"/>
       <c r="J100" s="22"/>
-      <c r="K100" s="6"/>
+      <c r="K100" s="15"/>
     </row>
     <row r="101" spans="2:11" ht="40" customHeight="1">
-      <c r="B101" s="4">
-        <f t="shared" si="1"/>
+      <c r="B101" s="23">
         <v>94</v>
       </c>
       <c r="C101" s="7"/>
@@ -9875,11 +12187,10 @@
       <c r="H101" s="8"/>
       <c r="I101" s="6"/>
       <c r="J101" s="22"/>
-      <c r="K101" s="6"/>
+      <c r="K101" s="15"/>
     </row>
     <row r="102" spans="2:11" ht="40" customHeight="1">
       <c r="B102" s="4">
-        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C102" s="7"/>
@@ -9890,11 +12201,10 @@
       <c r="H102" s="8"/>
       <c r="I102" s="6"/>
       <c r="J102" s="22"/>
-      <c r="K102" s="6"/>
+      <c r="K102" s="15"/>
     </row>
     <row r="103" spans="2:11" ht="40" customHeight="1">
-      <c r="B103" s="4">
-        <f t="shared" si="1"/>
+      <c r="B103" s="23">
         <v>96</v>
       </c>
       <c r="C103" s="7"/>
@@ -9905,11 +12215,10 @@
       <c r="H103" s="8"/>
       <c r="I103" s="6"/>
       <c r="J103" s="22"/>
-      <c r="K103" s="6"/>
+      <c r="K103" s="15"/>
     </row>
     <row r="104" spans="2:11" ht="40" customHeight="1">
       <c r="B104" s="4">
-        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C104" s="7"/>
@@ -9920,11 +12229,10 @@
       <c r="H104" s="8"/>
       <c r="I104" s="6"/>
       <c r="J104" s="22"/>
-      <c r="K104" s="6"/>
+      <c r="K104" s="15"/>
     </row>
     <row r="105" spans="2:11" ht="40" customHeight="1">
-      <c r="B105" s="4">
-        <f t="shared" si="1"/>
+      <c r="B105" s="23">
         <v>98</v>
       </c>
       <c r="C105" s="7"/>
@@ -9935,11 +12243,10 @@
       <c r="H105" s="8"/>
       <c r="I105" s="6"/>
       <c r="J105" s="22"/>
-      <c r="K105" s="6"/>
+      <c r="K105" s="15"/>
     </row>
     <row r="106" spans="2:11" ht="40" customHeight="1">
       <c r="B106" s="4">
-        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C106" s="7"/>
@@ -9950,11 +12257,10 @@
       <c r="H106" s="8"/>
       <c r="I106" s="6"/>
       <c r="J106" s="22"/>
-      <c r="K106" s="6"/>
+      <c r="K106" s="15"/>
     </row>
     <row r="107" spans="2:11" ht="40" customHeight="1">
-      <c r="B107" s="4">
-        <f t="shared" si="1"/>
+      <c r="B107" s="23">
         <v>100</v>
       </c>
       <c r="C107" s="7"/>
@@ -9965,2340 +12271,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="6"/>
       <c r="J107" s="22"/>
-      <c r="K107" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EA918D-B36E-4224-89B1-EB1FC89D8AFC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B6:K113"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D13" sqref="D13:F13"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26">
-        <v>45320</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
-      <c r="B9" s="23">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34">
-        <v>45320</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B11" s="23">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B13" s="23">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B14" s="4">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B15" s="23">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B16" s="4">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B17" s="23">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B18" s="4">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B19" s="23">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B20" s="4">
-        <v>13</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B21" s="23">
-        <v>14</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B22" s="4">
-        <v>15</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="26">
-        <v>45320</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
-      <c r="B23" s="23">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B24" s="4">
-        <v>17</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B25" s="23">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B26" s="4">
-        <v>19</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B27" s="23">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B28" s="4">
-        <v>21</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B29" s="23">
-        <v>22</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B30" s="4">
-        <v>23</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B31" s="23">
-        <v>24</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="40" customHeight="1">
-      <c r="B32" s="4">
-        <v>25</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="40" customHeight="1">
-      <c r="B33" s="23">
-        <v>26</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="40" customHeight="1">
-      <c r="B34" s="4">
-        <v>27</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="40" customHeight="1">
-      <c r="B35" s="23">
-        <v>28</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="40" customHeight="1">
-      <c r="B36" s="4">
-        <v>29</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="40" customHeight="1">
-      <c r="B37" s="23">
-        <v>30</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="40" customHeight="1">
-      <c r="B38" s="4">
-        <v>31</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="40" customHeight="1">
-      <c r="B39" s="23">
-        <v>32</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="40" customHeight="1">
-      <c r="B40" s="4">
-        <v>33</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="40" customHeight="1">
-      <c r="B41" s="23">
-        <v>34</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="40" customHeight="1">
-      <c r="B42" s="4">
-        <v>35</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="40" customHeight="1">
-      <c r="B43" s="23">
-        <v>36</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="40" customHeight="1">
-      <c r="B44" s="4">
-        <v>37</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="40" customHeight="1">
-      <c r="B45" s="23">
-        <v>38</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="40" customHeight="1">
-      <c r="B46" s="4">
-        <v>39</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="40" customHeight="1">
-      <c r="B47" s="23">
-        <v>40</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="28">
-        <v>45320</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="40" customHeight="1">
-      <c r="B48" s="4">
-        <v>41</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="28">
-        <v>45320</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="40" customHeight="1">
-      <c r="B49" s="23">
-        <v>42</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="28">
-        <v>45320</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="40" customHeight="1">
-      <c r="B50" s="4">
-        <v>43</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="28">
-        <v>45320</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B51" s="23">
-        <v>44</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="26">
-        <v>45320</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B52" s="4">
-        <v>45</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="24">
-        <v>45320</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="40" customHeight="1">
-      <c r="B53" s="23">
-        <v>46</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="40" customHeight="1">
-      <c r="B54" s="4">
-        <v>47</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="8">
-        <v>45320</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="23">
-        <v>48</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="40" customHeight="1">
-      <c r="B56" s="4">
-        <v>49</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="40" customHeight="1">
-      <c r="B57" s="23">
-        <v>50</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="40" customHeight="1">
-      <c r="B58" s="4">
-        <v>51</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="40" customHeight="1">
-      <c r="B59" s="23">
-        <v>52</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="40" customHeight="1">
-      <c r="B60" s="4">
-        <v>53</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="40" customHeight="1">
-      <c r="B61" s="23">
-        <v>54</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="40" customHeight="1">
-      <c r="B62" s="4">
-        <v>55</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="40" customHeight="1">
-      <c r="B63" s="23">
-        <v>56</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="40" customHeight="1">
-      <c r="B64" s="4">
-        <v>57</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="40" customHeight="1">
-      <c r="B65" s="23">
-        <v>58</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="40" customHeight="1">
-      <c r="B66" s="4">
-        <v>59</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="40" customHeight="1">
-      <c r="B67" s="23">
-        <v>60</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="40" customHeight="1">
-      <c r="B68" s="4">
-        <v>61</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="40" customHeight="1">
-      <c r="B69" s="23">
-        <v>62</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="40" customHeight="1">
-      <c r="B70" s="4">
-        <v>63</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="40" customHeight="1">
-      <c r="B71" s="23">
-        <v>64</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="40" customHeight="1">
-      <c r="B72" s="4">
-        <v>65</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="40" customHeight="1">
-      <c r="B73" s="23">
-        <v>66</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="40" customHeight="1">
-      <c r="B74" s="4">
-        <v>67</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="40" customHeight="1">
-      <c r="B75" s="23">
-        <v>68</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="40" customHeight="1">
-      <c r="B76" s="4">
-        <v>69</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="40" customHeight="1">
-      <c r="B77" s="23">
-        <v>70</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" ht="40" customHeight="1">
-      <c r="B78" s="4">
-        <v>71</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="40" customHeight="1">
-      <c r="B79" s="23">
-        <v>72</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" ht="40" customHeight="1">
-      <c r="B80" s="4">
-        <v>73</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="40" customHeight="1">
-      <c r="B81" s="23">
-        <v>74</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="40" customHeight="1">
-      <c r="B82" s="4">
-        <v>75</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="40" customHeight="1">
-      <c r="B83" s="23">
-        <v>76</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="40" customHeight="1">
-      <c r="B84" s="4">
-        <v>77</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="40" customHeight="1">
-      <c r="B85" s="23">
-        <v>78</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="40" customHeight="1">
-      <c r="B86" s="4">
-        <v>79</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="40" customHeight="1">
-      <c r="B87" s="23">
-        <v>80</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B88" s="4">
-        <v>81</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B89" s="23">
-        <v>82</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="40" customHeight="1">
-      <c r="B90" s="4">
-        <v>83</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="40" customHeight="1">
-      <c r="B91" s="23">
-        <v>84</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="40" customHeight="1">
-      <c r="B92" s="4">
-        <v>85</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="40" customHeight="1" thickBot="1">
-      <c r="B93" s="23">
-        <v>86</v>
-      </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="40" customHeight="1" thickTop="1">
-      <c r="B94" s="4">
-        <v>87</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="40" customHeight="1">
-      <c r="B95" s="23">
-        <v>88</v>
-      </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="40" customHeight="1">
-      <c r="B96" s="4">
-        <v>89</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" ht="40" customHeight="1">
-      <c r="B97" s="23">
-        <v>90</v>
-      </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" ht="40" customHeight="1">
-      <c r="B98" s="4">
-        <v>91</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" ht="40" customHeight="1">
-      <c r="B99" s="23">
-        <v>92</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" ht="40" customHeight="1">
-      <c r="B100" s="4">
-        <v>93</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" ht="40" customHeight="1">
-      <c r="B101" s="23">
-        <v>94</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" ht="40" customHeight="1">
-      <c r="B102" s="4">
-        <v>95</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" ht="40" customHeight="1">
-      <c r="B103" s="23">
-        <v>96</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" ht="40" customHeight="1">
-      <c r="B104" s="4">
-        <v>97</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" ht="40" customHeight="1">
-      <c r="B105" s="23">
-        <v>98</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" ht="40" customHeight="1">
-      <c r="B106" s="4">
-        <v>99</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" ht="40" customHeight="1">
-      <c r="B107" s="23">
-        <v>100</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K107" s="15"/>
     </row>
     <row r="108" spans="2:11" ht="40" customHeight="1">
       <c r="B108" s="4">
@@ -12312,9 +12285,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="6"/>
       <c r="J108" s="22"/>
-      <c r="K108" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K108" s="15"/>
     </row>
     <row r="109" spans="2:11" ht="40" customHeight="1">
       <c r="B109" s="23">
@@ -12328,9 +12299,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="6"/>
       <c r="J109" s="22"/>
-      <c r="K109" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K109" s="15"/>
     </row>
     <row r="110" spans="2:11" ht="40" customHeight="1">
       <c r="B110" s="4">
@@ -12344,9 +12313,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="6"/>
       <c r="J110" s="22"/>
-      <c r="K110" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" spans="2:11" ht="40" customHeight="1">
       <c r="B111" s="23">
@@ -12360,9 +12327,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="6"/>
       <c r="J111" s="22"/>
-      <c r="K111" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K111" s="15"/>
     </row>
     <row r="112" spans="2:11" ht="40" customHeight="1">
       <c r="B112" s="4">
@@ -12376,9 +12341,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="6"/>
       <c r="J112" s="22"/>
-      <c r="K112" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K112" s="15"/>
     </row>
     <row r="113" spans="2:11" ht="40" customHeight="1">
       <c r="B113" s="23">
@@ -12392,9 +12355,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="6"/>
       <c r="J113" s="22"/>
-      <c r="K113" s="15" t="s">
-        <v>349</v>
-      </c>
+      <c r="K113" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2766A4-AB22-45D4-83DC-7482FC937BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60B6AD-1E3B-4000-A293-39A45E709D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3760" yWindow="1880" windowWidth="14710" windowHeight="7360" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="369">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -5295,16 +5295,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>表示がエラーコード担ってしまう</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>入力値の初期化</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
@@ -5354,6 +5344,223 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表示がエラーコードになってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>正しい値の受け渡し</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスの値が正しいかどうか</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスに数値だけ・「＠」以降の値がないの入力値を入力する
+「確認する」を押下する</t>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認画面に行かずに制限がかかる</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古賀</t>
+    <rPh sb="0" eb="2">
+      <t>コガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>そのまま確認画面に遷移してしまった</t>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）の値が正しいかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）に0から始まる住所を入力する
+「確認する」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号の値を正しくmysqlに登録する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0から始まる7桁の数字を入力する
+「確認する」を押下する</t>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mysqlに入力通りに登録されている</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクドオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>先頭の0が消えてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0のみの7桁の数字を入力する
+「確認する」を押下する</t>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「0」と登録される</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -6018,7 +6225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -6372,6 +6579,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6637,7 +6881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6745,6 +6989,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10049,9 +10314,9 @@
   <dimension ref="B6:K113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13:F13"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
@@ -11479,7 +11744,7 @@
         <v>346</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>349</v>
@@ -11515,91 +11780,155 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="40" customHeight="1">
-      <c r="B55" s="23">
+    <row r="55" spans="2:11" s="43" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B55" s="37">
         <v>48</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="8">
+      <c r="G55" s="39"/>
+      <c r="H55" s="40">
         <v>45320</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="40" customHeight="1">
-      <c r="B56" s="4">
+    <row r="56" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B56" s="23">
         <v>49</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="15"/>
+      <c r="C56" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="24">
+        <v>45321</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="57" spans="2:11" ht="40" customHeight="1">
       <c r="B57" s="23">
         <v>50</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="15"/>
+      <c r="H57" s="8">
+        <v>45321</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="58" spans="2:11" ht="40" customHeight="1">
       <c r="B58" s="4">
         <v>51</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="15"/>
+      <c r="H58" s="8">
+        <v>45321</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="59" spans="2:11" ht="40" customHeight="1">
       <c r="B59" s="23">
         <v>52</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="C59" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="15"/>
+      <c r="H59" s="8">
+        <v>45321</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="40" customHeight="1">
       <c r="B60" s="4">

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0C3C22-F705-4854-A422-6AC4222F226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867B597C-CCEA-4883-8C81-815744D8147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12070" windowHeight="10170" tabRatio="729" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver1,2単体テスト" sheetId="3" r:id="rId1"/>
     <sheet name="ver1,2結合テスト" sheetId="5" r:id="rId2"/>
     <sheet name="ver3単体テスト " sheetId="7" r:id="rId3"/>
     <sheet name="ver3結合テスト " sheetId="8" r:id="rId4"/>
+    <sheet name="ver4単体テスト" sheetId="11" r:id="rId5"/>
+    <sheet name="ver4結合テスト" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ver1,2結合テスト'!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ver1,2単体テスト'!$A$1:$K$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ver3結合テスト '!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ver3単体テスト '!$A$1:$K$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ver4結合テスト!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ver4単体テスト!$A$1:$K$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="736">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -9834,6 +9838,451 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス・パスワード初期値を確認する</t>
+    <rPh sb="13" eb="16">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードでひらがなを入力する</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの入力欄にひらがなを入力する</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードでカタカナを入力する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの入力欄にカタカナを入力する</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードで半角英数文字を入力する</t>
+    <rPh sb="6" eb="10">
+      <t>ハンカクエイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの入力欄に半角英数文字を入力する</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードで入力した値を削除する</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの入力欄に入力されている値を「バックスペースキー」で削除する</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URLが「任意のURL/login.php」となっている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスを空欄にする
+ログインボタンを押下する</t>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）で101文字以上入力する
+ログインボタンを押下する</t>
+    <rPh sb="42" eb="44">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>イジョウニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスに全角文字で入力する
+ログインボタンを押下する</t>
+    <rPh sb="8" eb="10">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードを空欄にする
+ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードに半角英数字で11文字以上入力する
+ログインボタンを押下する</t>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イジョウニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードに全角文字・記号で入力する
+ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラーチェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン不可の表示</t>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>異なったメールアドレス・パスワードを入力する
+ログインボタンを押下する</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>赤字で「ログインに失敗しました」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>urlに遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>login.phpにアクセスする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクセス権</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者権限を持つアカウントの表示</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者権限を持つメールアドレス・パスワードを入力する
+ログインボタンを押下する</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページでナビゲーションバーに「アカウント登録」「アカウント一覧」が表示されている</t>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページのアカウント登録を押下する</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページのアカウント一覧を押下する</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つアカウントの表示</t>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つメールアドレス・パスワードを入力する
+ログインボタンを押下する</t>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページでナビゲーションバーに「アカウント登録」「アカウント一覧」が表示されていない</t>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧の削除を押下する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧の更新を押下する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つアカウントでregist.phpにアクセスする</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つアカウントでlist.phpにアクセスする</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つアカウントでupdate.phpにアクセスする</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般権限を持つアカウントでdelete.phpにアクセスする</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -11231,7 +11680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11443,17 +11892,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="55" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -18813,7 +19265,7 @@
   </sheetPr>
   <dimension ref="B6:K164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13:F13"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
@@ -18872,7 +19324,7 @@
     </row>
     <row r="8" spans="2:11" ht="41.25" customHeight="1">
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B85" si="0">ROW()-ROW($B$7)</f>
+        <f t="shared" ref="B8" si="0">ROW()-ROW($B$7)</f>
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -22471,7 +22923,7 @@
     </row>
     <row r="129" spans="2:11" ht="58" customHeight="1">
       <c r="B129" s="4">
-        <f t="shared" ref="B86:B141" si="1">ROW()-ROW($B$7)</f>
+        <f t="shared" ref="B129:B141" si="1">ROW()-ROW($B$7)</f>
         <v>122</v>
       </c>
       <c r="C129" s="7"/>
@@ -22666,7 +23118,7 @@
     </row>
     <row r="142" spans="2:11" ht="58" customHeight="1">
       <c r="B142" s="4">
-        <f t="shared" ref="B142:B195" si="2">ROW()-ROW($B$7)</f>
+        <f t="shared" ref="B142:B164" si="2">ROW()-ROW($B$7)</f>
         <v>135</v>
       </c>
       <c r="C142" s="7"/>
@@ -23025,7 +23477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A6:K135"/>
+  <dimension ref="A6:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -24797,7 +25249,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="65" spans="1:11" ht="40" customHeight="1">
       <c r="B65" s="23">
         <v>58</v>
       </c>
@@ -24827,7 +25279,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="66" spans="1:11" ht="40" customHeight="1">
       <c r="B66" s="4">
         <v>59</v>
       </c>
@@ -24857,7 +25309,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="67" spans="1:11" ht="40" customHeight="1">
       <c r="B67" s="23">
         <v>60</v>
       </c>
@@ -24887,7 +25339,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1">
+    <row r="68" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="B68" s="4">
         <v>61</v>
       </c>
@@ -24917,7 +25369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1" thickTop="1">
+    <row r="69" spans="1:11" ht="40" customHeight="1" thickTop="1">
       <c r="B69" s="23">
         <v>62</v>
       </c>
@@ -24947,7 +25399,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="70" spans="1:11" ht="40" customHeight="1">
       <c r="B70" s="4">
         <v>63</v>
       </c>
@@ -24977,7 +25429,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="71" spans="1:11" ht="40" customHeight="1">
       <c r="B71" s="23">
         <v>64</v>
       </c>
@@ -25007,7 +25459,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="72" spans="1:11" ht="40" customHeight="1">
       <c r="B72" s="23">
         <v>65</v>
       </c>
@@ -25037,7 +25489,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="73" spans="1:11" ht="40" customHeight="1">
       <c r="B73" s="23">
         <v>65</v>
       </c>
@@ -25067,7 +25519,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="71" customFormat="1" ht="40" customHeight="1" thickBot="1">
+    <row r="74" spans="1:11" ht="40" customHeight="1" thickBot="1">
       <c r="A74" s="43"/>
       <c r="B74" s="4">
         <v>65</v>
@@ -25098,10 +25550,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="72" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="A75" s="50"/>
+    <row r="75" spans="1:11" s="50" customFormat="1" ht="40" customHeight="1" thickTop="1">
       <c r="B75" s="51"/>
-      <c r="C75" s="73" t="s">
+      <c r="C75" s="71" t="s">
         <v>527</v>
       </c>
       <c r="D75" s="52"/>
@@ -25113,7 +25564,7 @@
       <c r="J75" s="55"/>
       <c r="K75" s="53"/>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="76" spans="1:11" ht="40" customHeight="1">
       <c r="B76" s="4">
         <v>1</v>
       </c>
@@ -25143,7 +25594,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="77" spans="1:11" ht="40" customHeight="1">
       <c r="B77" s="4">
         <v>2</v>
       </c>
@@ -25173,7 +25624,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="78" spans="1:11" ht="40" customHeight="1">
       <c r="B78" s="4">
         <v>3</v>
       </c>
@@ -25203,7 +25654,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="79" spans="1:11" ht="40" customHeight="1">
       <c r="B79" s="4">
         <v>4</v>
       </c>
@@ -25233,7 +25684,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="80" spans="1:11" ht="40" customHeight="1">
       <c r="B80" s="4">
         <v>5</v>
       </c>
@@ -25263,7 +25714,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="81" spans="2:11" ht="40" customHeight="1">
       <c r="B81" s="4">
         <v>6</v>
       </c>
@@ -25293,7 +25744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="82" spans="2:11" ht="40" customHeight="1">
       <c r="B82" s="4">
         <v>7</v>
       </c>
@@ -25323,7 +25774,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="83" spans="2:11" ht="40" customHeight="1">
       <c r="B83" s="4">
         <v>8</v>
       </c>
@@ -25353,7 +25804,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="84" spans="2:11" ht="40" customHeight="1">
       <c r="B84" s="4">
         <v>9</v>
       </c>
@@ -25383,7 +25834,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="85" spans="2:11" ht="40" customHeight="1">
       <c r="B85" s="4">
         <v>10</v>
       </c>
@@ -25413,7 +25864,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="86" spans="2:11" ht="40" customHeight="1">
       <c r="B86" s="4">
         <v>11</v>
       </c>
@@ -25443,7 +25894,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="87" spans="2:11" ht="40" customHeight="1">
       <c r="B87" s="4">
         <v>12</v>
       </c>
@@ -25473,7 +25924,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="88" spans="2:11" ht="40" customHeight="1">
       <c r="B88" s="4">
         <v>13</v>
       </c>
@@ -25503,7 +25954,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="89" spans="2:11" ht="40" customHeight="1">
       <c r="B89" s="4">
         <v>14</v>
       </c>
@@ -25533,7 +25984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="90" spans="2:11" ht="40" customHeight="1">
       <c r="B90" s="4">
         <v>15</v>
       </c>
@@ -25563,7 +26014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="91" spans="2:11" ht="40" customHeight="1">
       <c r="B91" s="4">
         <v>16</v>
       </c>
@@ -25593,14 +26044,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1">
+    <row r="92" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B92" s="4">
         <v>17</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="D92" s="72" t="s">
         <v>646</v>
       </c>
       <c r="E92" s="31" t="s">
@@ -25623,7 +26074,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="93" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1" thickTop="1">
+    <row r="93" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B93" s="4">
         <v>18</v>
       </c>
@@ -25653,7 +26104,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="94" spans="2:11" ht="40" customHeight="1">
       <c r="B94" s="4">
         <v>19</v>
       </c>
@@ -25683,7 +26134,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="95" spans="2:11" ht="40" customHeight="1">
       <c r="B95" s="4">
         <v>20</v>
       </c>
@@ -25713,7 +26164,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="96" spans="2:11" ht="40" customHeight="1">
       <c r="B96" s="4">
         <v>21</v>
       </c>
@@ -25743,7 +26194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="97" spans="2:11" ht="40" customHeight="1">
       <c r="B97" s="4">
         <v>22</v>
       </c>
@@ -25773,7 +26224,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1">
+    <row r="98" spans="2:11" ht="40" customHeight="1" thickBot="1">
       <c r="B98" s="4">
         <v>23</v>
       </c>
@@ -25803,7 +26254,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1" thickTop="1">
+    <row r="99" spans="2:11" ht="40" customHeight="1" thickTop="1">
       <c r="B99" s="4">
         <v>24</v>
       </c>
@@ -25833,7 +26284,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="100" spans="2:11" ht="40" customHeight="1">
       <c r="B100" s="4">
         <v>25</v>
       </c>
@@ -25863,7 +26314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="101" spans="2:11" ht="40" customHeight="1">
       <c r="B101" s="4">
         <v>26</v>
       </c>
@@ -25893,7 +26344,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="102" spans="2:11" ht="40" customHeight="1">
       <c r="B102" s="4">
         <v>27</v>
       </c>
@@ -25923,7 +26374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="103" spans="2:11" ht="40" customHeight="1">
       <c r="B103" s="4">
         <v>28</v>
       </c>
@@ -25953,7 +26404,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="104" spans="2:11" ht="40" customHeight="1">
       <c r="B104" s="4">
         <v>29</v>
       </c>
@@ -25983,7 +26434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="105" spans="2:11" ht="40" customHeight="1">
       <c r="B105" s="4">
         <v>30</v>
       </c>
@@ -25997,7 +26448,7 @@
       <c r="J105" s="22"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="106" spans="2:11" ht="40" customHeight="1">
       <c r="B106" s="4">
         <v>31</v>
       </c>
@@ -26011,7 +26462,7 @@
       <c r="J106" s="22"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="107" spans="2:11" ht="40" customHeight="1">
       <c r="B107" s="4">
         <v>32</v>
       </c>
@@ -26025,7 +26476,7 @@
       <c r="J107" s="22"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="108" spans="2:11" ht="40" customHeight="1">
       <c r="B108" s="4">
         <v>33</v>
       </c>
@@ -26039,7 +26490,7 @@
       <c r="J108" s="22"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="109" spans="2:11" ht="40" customHeight="1">
       <c r="B109" s="4">
         <v>34</v>
       </c>
@@ -26053,7 +26504,7 @@
       <c r="J109" s="22"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="110" spans="2:11" ht="40" customHeight="1">
       <c r="B110" s="4">
         <v>35</v>
       </c>
@@ -26067,7 +26518,7 @@
       <c r="J110" s="22"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="111" spans="2:11" ht="40" customHeight="1">
       <c r="B111" s="4">
         <v>36</v>
       </c>
@@ -26081,7 +26532,7 @@
       <c r="J111" s="22"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="112" spans="2:11" ht="40" customHeight="1">
       <c r="B112" s="4">
         <v>37</v>
       </c>
@@ -26095,7 +26546,7 @@
       <c r="J112" s="22"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="113" spans="2:11" ht="40" customHeight="1">
       <c r="B113" s="4">
         <v>38</v>
       </c>
@@ -26109,7 +26560,7 @@
       <c r="J113" s="22"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="114" spans="2:11" ht="40" customHeight="1">
       <c r="B114" s="4">
         <v>39</v>
       </c>
@@ -26123,7 +26574,7 @@
       <c r="J114" s="22"/>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="115" spans="2:11" ht="40" customHeight="1">
       <c r="B115" s="4">
         <v>40</v>
       </c>
@@ -26137,7 +26588,7 @@
       <c r="J115" s="22"/>
       <c r="K115" s="15"/>
     </row>
-    <row r="116" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="116" spans="2:11" ht="40" customHeight="1">
       <c r="B116" s="4">
         <v>41</v>
       </c>
@@ -26151,7 +26602,7 @@
       <c r="J116" s="22"/>
       <c r="K116" s="15"/>
     </row>
-    <row r="117" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="117" spans="2:11" ht="40" customHeight="1">
       <c r="B117" s="4">
         <v>42</v>
       </c>
@@ -26165,7 +26616,7 @@
       <c r="J117" s="22"/>
       <c r="K117" s="15"/>
     </row>
-    <row r="118" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="118" spans="2:11" ht="40" customHeight="1">
       <c r="B118" s="4">
         <v>43</v>
       </c>
@@ -26179,7 +26630,7 @@
       <c r="J118" s="22"/>
       <c r="K118" s="15"/>
     </row>
-    <row r="119" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="119" spans="2:11" ht="40" customHeight="1">
       <c r="B119" s="4">
         <v>44</v>
       </c>
@@ -26193,7 +26644,7 @@
       <c r="J119" s="22"/>
       <c r="K119" s="15"/>
     </row>
-    <row r="120" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="120" spans="2:11" ht="40" customHeight="1">
       <c r="B120" s="4">
         <v>45</v>
       </c>
@@ -26207,7 +26658,7 @@
       <c r="J120" s="22"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="121" spans="2:11" ht="40" customHeight="1">
       <c r="B121" s="4">
         <v>46</v>
       </c>
@@ -26221,7 +26672,7 @@
       <c r="J121" s="22"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="122" spans="2:11" ht="40" customHeight="1">
       <c r="B122" s="4">
         <v>47</v>
       </c>
@@ -26235,7 +26686,7 @@
       <c r="J122" s="22"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" spans="2:11" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="123" spans="2:11" ht="40" customHeight="1">
       <c r="B123" s="4">
         <v>48</v>
       </c>
@@ -26249,65 +26700,4883 @@
       <c r="J123" s="22"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" spans="2:11" s="2" customFormat="1">
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="2:11" s="2" customFormat="1">
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="2:11" s="2" customFormat="1">
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="2:11" s="2" customFormat="1">
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="2:11" s="2" customFormat="1">
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="2:4" s="2" customFormat="1">
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="2:4" s="2" customFormat="1">
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="2:4" s="2" customFormat="1">
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="2:4" s="2" customFormat="1">
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="2:4" s="2" customFormat="1">
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="2:4" s="2" customFormat="1">
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="2:4" s="2" customFormat="1">
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A02E38-732E-4378-8612-E03ABFB8CF84}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:K109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="73" customFormat="1">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="40" customHeight="1">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="40" customHeight="1">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="40" customHeight="1">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="40" customHeight="1">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="40" customHeight="1">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="40" customHeight="1">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="40" customHeight="1">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="40" customHeight="1">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="40" customHeight="1">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="40" customHeight="1">
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="40" customHeight="1">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="40" customHeight="1">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="40" customHeight="1">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="40" customHeight="1">
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="40" customHeight="1">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="40" customHeight="1">
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="40" customHeight="1">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="58" customHeight="1">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="40" customHeight="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="40" customHeight="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="40" customHeight="1">
+      <c r="B33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="40" customHeight="1">
+      <c r="B36" s="4"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="40" customHeight="1">
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="40" customHeight="1">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8">
+        <v>45314</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46"/>
+    </row>
+    <row r="40" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46"/>
+    </row>
+    <row r="41" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="40" customHeight="1">
+      <c r="B42" s="4"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="40" customHeight="1">
+      <c r="B43" s="4"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="40" customHeight="1">
+      <c r="B44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="40" customHeight="1">
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="40" customHeight="1">
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="40" customHeight="1">
+      <c r="B47" s="4"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="40" customHeight="1">
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="40" customHeight="1">
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1">
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1">
+      <c r="B52" s="4"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="58" customHeight="1">
+      <c r="B53" s="4"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="58" customHeight="1">
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="58" customHeight="1">
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="58" customHeight="1">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="58" customHeight="1">
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="58" customHeight="1">
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="58" customHeight="1">
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="58" customHeight="1">
+      <c r="B60" s="4"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="58" customHeight="1">
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="58" customHeight="1">
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="58" customHeight="1">
+      <c r="B63" s="4"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="58" customHeight="1">
+      <c r="B64" s="4"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="58" customHeight="1">
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="58" customHeight="1">
+      <c r="B66" s="4">
+        <f t="shared" ref="B28:B86" si="0">ROW()-ROW($B$7)</f>
+        <v>59</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" ht="58" customHeight="1">
+      <c r="B67" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" ht="58" customHeight="1">
+      <c r="B68" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" ht="58" customHeight="1">
+      <c r="B69" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" ht="58" customHeight="1">
+      <c r="B70" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" ht="58" customHeight="1">
+      <c r="B71" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" ht="58" customHeight="1">
+      <c r="B72" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" ht="58" customHeight="1">
+      <c r="B73" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" ht="58" customHeight="1">
+      <c r="B74" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" ht="58" customHeight="1">
+      <c r="B75" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" ht="58" customHeight="1">
+      <c r="B76" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" ht="58" customHeight="1">
+      <c r="B77" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" ht="58" customHeight="1">
+      <c r="B78" s="4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" ht="58" customHeight="1">
+      <c r="B79" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" ht="58" customHeight="1">
+      <c r="B80" s="4">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" ht="58" customHeight="1">
+      <c r="B81" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" ht="58" customHeight="1">
+      <c r="B82" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" ht="58" customHeight="1">
+      <c r="B83" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="2:11" ht="58" customHeight="1">
+      <c r="B84" s="4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="2:11" ht="58" customHeight="1">
+      <c r="B85" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="2:11" ht="58" customHeight="1">
+      <c r="B86" s="4">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="2:11" ht="58" customHeight="1">
+      <c r="B87" s="4">
+        <f t="shared" ref="B87:B140" si="1">ROW()-ROW($B$7)</f>
+        <v>80</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="2:11" ht="58" customHeight="1">
+      <c r="B88" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" ht="58" customHeight="1">
+      <c r="B89" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" ht="58" customHeight="1">
+      <c r="B90" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:11" ht="58" customHeight="1">
+      <c r="B91" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:11" ht="58" customHeight="1">
+      <c r="B92" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" ht="58" customHeight="1">
+      <c r="B93" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" ht="58" customHeight="1">
+      <c r="B94" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" ht="58" customHeight="1">
+      <c r="B95" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" ht="58" customHeight="1">
+      <c r="B96" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" ht="58" customHeight="1">
+      <c r="B97" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" ht="58" customHeight="1">
+      <c r="B98" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" ht="58" customHeight="1">
+      <c r="B99" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" ht="58" customHeight="1">
+      <c r="B100" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" ht="58" customHeight="1">
+      <c r="B101" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" ht="58" customHeight="1">
+      <c r="B102" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" ht="58" customHeight="1">
+      <c r="B103" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" ht="58" customHeight="1">
+      <c r="B104" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" ht="58" customHeight="1">
+      <c r="B105" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" ht="58" customHeight="1">
+      <c r="B106" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" ht="58" customHeight="1">
+      <c r="B107" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="2:11" ht="58" customHeight="1">
+      <c r="B108" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" ht="58" customHeight="1">
+      <c r="B109" s="4">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Meiryo UI,標準"&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;P / &amp;N&amp;R&amp;"Meiryo UI,標準"Copyright　SHIFT.Inc All Right Reserved</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8FAD73-0907-475D-8B4E-E18754702B17}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:K117"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.5" thickBot="1">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34">
+        <v>45320</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B14" s="23">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B16" s="23">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B18" s="23">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B20" s="23">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B22" s="23">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="41.25" customHeight="1" thickTop="1">
+      <c r="B24" s="23">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B26" s="23">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B28" s="23">
+        <v>20</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B30" s="23">
+        <v>22</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B31" s="4">
+        <v>23</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="41.25" customHeight="1">
+      <c r="B32" s="23">
+        <v>24</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="40" customHeight="1">
+      <c r="B33" s="4">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="40" customHeight="1">
+      <c r="B34" s="23">
+        <v>26</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="40" customHeight="1">
+      <c r="B35" s="4">
+        <v>27</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="40" customHeight="1">
+      <c r="B36" s="23">
+        <v>28</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="40" customHeight="1">
+      <c r="B37" s="4">
+        <v>29</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="40" customHeight="1">
+      <c r="B38" s="23">
+        <v>30</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="40" customHeight="1">
+      <c r="B39" s="4">
+        <v>31</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="40" customHeight="1">
+      <c r="B40" s="23">
+        <v>32</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="40" customHeight="1">
+      <c r="B41" s="4">
+        <v>33</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="40" customHeight="1">
+      <c r="B42" s="23">
+        <v>34</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="40" customHeight="1">
+      <c r="B43" s="4">
+        <v>35</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="40" customHeight="1">
+      <c r="B44" s="23">
+        <v>36</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="40" customHeight="1">
+      <c r="B45" s="4">
+        <v>37</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="40" customHeight="1">
+      <c r="B46" s="23">
+        <v>38</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="40" customHeight="1">
+      <c r="B47" s="4">
+        <v>39</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="40" customHeight="1">
+      <c r="B48" s="23">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="40" customHeight="1">
+      <c r="B49" s="4">
+        <v>41</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="40" customHeight="1">
+      <c r="B50" s="23">
+        <v>42</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="40" customHeight="1">
+      <c r="B51" s="4">
+        <v>43</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="28">
+        <v>45320</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B52" s="23">
+        <v>44</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="26">
+        <v>45320</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B53" s="4">
+        <v>45</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="24">
+        <v>45320</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="40" customHeight="1">
+      <c r="B54" s="23">
+        <v>46</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="40" customHeight="1">
+      <c r="B55" s="4">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="43" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B56" s="37">
+        <v>48</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40">
+        <v>45320</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K56" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B57" s="23">
+        <v>49</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="24">
+        <v>45321</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="40" customHeight="1">
+      <c r="B58" s="23">
+        <v>50</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8">
+        <v>45321</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="40" customHeight="1">
+      <c r="B59" s="4">
+        <v>51</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8">
+        <v>45321</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B60" s="44">
+        <v>52</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47">
+        <v>45321</v>
+      </c>
+      <c r="I60" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K60" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B61" s="44"/>
+      <c r="C61" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B62" s="23">
+        <v>54</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="40" customHeight="1">
+      <c r="B63" s="4">
+        <v>55</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="40" customHeight="1">
+      <c r="B64" s="23">
+        <v>56</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="40" customHeight="1">
+      <c r="B65" s="4">
+        <v>57</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="40" customHeight="1">
+      <c r="B66" s="23">
+        <v>58</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="40" customHeight="1">
+      <c r="B67" s="4">
+        <v>59</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="40" customHeight="1">
+      <c r="B68" s="23">
+        <v>60</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="40" customHeight="1">
+      <c r="B69" s="4">
+        <v>61</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="40" customHeight="1">
+      <c r="B70" s="23">
+        <v>62</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="40" customHeight="1">
+      <c r="B71" s="23">
+        <v>63</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="40" customHeight="1">
+      <c r="B72" s="23">
+        <v>64</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="40" customHeight="1">
+      <c r="B73" s="23">
+        <v>65</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="40" customHeight="1">
+      <c r="B74" s="23">
+        <v>66</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="40" customHeight="1">
+      <c r="B75" s="23">
+        <v>67</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="40" customHeight="1">
+      <c r="B76" s="23">
+        <v>68</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="40" customHeight="1">
+      <c r="B77" s="4">
+        <v>69</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="40" customHeight="1">
+      <c r="B78" s="23">
+        <v>70</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="40" customHeight="1">
+      <c r="B79" s="23">
+        <v>71</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8">
+        <v>45323</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="40" customHeight="1">
+      <c r="B80" s="23">
+        <v>72</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="40" customHeight="1">
+      <c r="B81" s="23">
+        <v>73</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="40" customHeight="1">
+      <c r="B82" s="23">
+        <v>74</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="40" customHeight="1">
+      <c r="B83" s="23">
+        <v>75</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="40" customHeight="1">
+      <c r="B84" s="23">
+        <v>76</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="40" customHeight="1">
+      <c r="B85" s="4">
+        <v>77</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="40" customHeight="1">
+      <c r="B86" s="23">
+        <v>78</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8">
+        <v>45324</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="40" customHeight="1">
+      <c r="B87" s="23">
+        <v>79</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="15"/>
+    </row>
+    <row r="88" spans="2:11" ht="40" customHeight="1">
+      <c r="B88" s="23">
+        <v>80</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="2:11" ht="40" customHeight="1">
+      <c r="B89" s="23">
+        <v>81</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="2:11" ht="40" customHeight="1">
+      <c r="B90" s="23">
+        <v>82</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="15"/>
+    </row>
+    <row r="91" spans="2:11" ht="40" customHeight="1">
+      <c r="B91" s="23">
+        <v>83</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="15"/>
+    </row>
+    <row r="92" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B92" s="23">
+        <v>84</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B93" s="4">
+        <v>85</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="2:11" ht="40" customHeight="1">
+      <c r="B94" s="23">
+        <v>86</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="15"/>
+    </row>
+    <row r="95" spans="2:11" ht="40" customHeight="1">
+      <c r="B95" s="23">
+        <v>87</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="15"/>
+    </row>
+    <row r="96" spans="2:11" ht="40" customHeight="1">
+      <c r="B96" s="23">
+        <v>88</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="15"/>
+    </row>
+    <row r="97" spans="2:11" ht="40" customHeight="1" thickBot="1">
+      <c r="B97" s="23">
+        <v>89</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="15"/>
+    </row>
+    <row r="98" spans="2:11" ht="40" customHeight="1" thickTop="1">
+      <c r="B98" s="23">
+        <v>90</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="15"/>
+    </row>
+    <row r="99" spans="2:11" ht="40" customHeight="1">
+      <c r="B99" s="23">
+        <v>91</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" spans="2:11" ht="40" customHeight="1">
+      <c r="B100" s="23">
+        <v>92</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="15"/>
+    </row>
+    <row r="101" spans="2:11" ht="40" customHeight="1">
+      <c r="B101" s="4">
+        <v>93</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="15"/>
+    </row>
+    <row r="102" spans="2:11" ht="40" customHeight="1">
+      <c r="B102" s="23">
+        <v>94</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="15"/>
+    </row>
+    <row r="103" spans="2:11" ht="40" customHeight="1">
+      <c r="B103" s="23">
+        <v>95</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="15"/>
+    </row>
+    <row r="104" spans="2:11" ht="40" customHeight="1">
+      <c r="B104" s="23">
+        <v>96</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="15"/>
+    </row>
+    <row r="105" spans="2:11" ht="40" customHeight="1">
+      <c r="B105" s="23">
+        <v>97</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" spans="2:11" ht="40" customHeight="1">
+      <c r="B106" s="23">
+        <v>98</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="15"/>
+    </row>
+    <row r="107" spans="2:11" ht="40" customHeight="1">
+      <c r="B107" s="23">
+        <v>99</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="15"/>
+    </row>
+    <row r="108" spans="2:11" ht="40" customHeight="1">
+      <c r="B108" s="23">
+        <v>100</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="2:11" ht="40" customHeight="1">
+      <c r="B109" s="4">
+        <v>101</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="2:11" ht="40" customHeight="1">
+      <c r="B110" s="23">
+        <v>102</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="15"/>
+    </row>
+    <row r="111" spans="2:11" ht="40" customHeight="1">
+      <c r="B111" s="23">
+        <v>103</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="2:11" ht="40" customHeight="1">
+      <c r="B112" s="23">
+        <v>104</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="15"/>
+    </row>
+    <row r="113" spans="2:11" ht="40" customHeight="1">
+      <c r="B113" s="23">
+        <v>105</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="2:11" ht="40" customHeight="1">
+      <c r="B114" s="23">
+        <v>106</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="15"/>
+    </row>
+    <row r="115" spans="2:11" ht="40" customHeight="1">
+      <c r="B115" s="23">
+        <v>107</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="15"/>
+    </row>
+    <row r="116" spans="2:11" ht="40" customHeight="1">
+      <c r="B116" s="23">
+        <v>108</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="2:11" ht="40" customHeight="1">
+      <c r="B117" s="4">
+        <v>109</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BFF0D-0FEA-4392-AA50-AF0D60B1BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A802C8-2976-472F-BA7B-BFFEC86603BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="14050" windowHeight="10170" tabRatio="729" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11090" windowHeight="10170" tabRatio="729" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver1,2単体テスト" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="901">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -12431,13 +12431,172 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>TOP画面遷移</t>
+    <rPh sb="3" eb="7">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各画面からTOPページに遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一覧画面からTOPページに遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページに遷移できない</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からTOPページに遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブラウザ読み込み時の不具合</t>
+    <rPh sb="10" eb="13">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録完了画面でブラウザ再読み込みをする</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録完了画面でブラウザを再読み込みする</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>何も起こらずに通常通り完了画面が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ツウジョウドオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mysqlに空欄値が登録される</t>
+    <rPh sb="6" eb="9">
+      <t>クウランチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>同一情報のログイン</t>
+    <rPh sb="0" eb="4">
+      <t>ドウイツジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>同じメールアドレスのアカウントデータそれぞれでログインできる</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面で同じメールアドレスのアカウントデータの両方をログイン試行する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>両方ログインできる</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>先に登録したデータでしかログインできない</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -12819,7 +12978,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13140,6 +13299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13877,7 +14042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -14107,9 +14272,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14125,7 +14287,22 @@
     <xf numFmtId="0" fontId="48" fillId="56" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34851,7 +35028,7 @@
     </row>
     <row r="128" spans="2:11" ht="58" customHeight="1">
       <c r="B128" s="4">
-        <f t="shared" ref="B128:B181" si="2">ROW()-ROW($B$7)</f>
+        <f t="shared" ref="B128:B150" si="2">ROW()-ROW($B$7)</f>
         <v>121</v>
       </c>
       <c r="C128" s="7"/>
@@ -35989,7 +36166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="77" customFormat="1" ht="40" customHeight="1">
+    <row r="32" spans="2:11" ht="40" customHeight="1">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -36139,7 +36316,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="78" customFormat="1" ht="40" customHeight="1">
+    <row r="37" spans="2:11" s="77" customFormat="1" ht="40" customHeight="1">
       <c r="B37" s="23">
         <v>30</v>
       </c>
@@ -37256,9 +37433,9 @@
   <dimension ref="B6:K712"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13:F13"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
@@ -37646,7 +37823,7 @@
       <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>872</v>
       </c>
       <c r="D19" s="14"/>
@@ -38026,7 +38203,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="77" customFormat="1" ht="40" customHeight="1">
+    <row r="32" spans="2:11" ht="40" customHeight="1">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -38176,7 +38353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="78" customFormat="1" ht="40" customHeight="1">
+    <row r="37" spans="2:11" s="77" customFormat="1" ht="40" customHeight="1">
       <c r="B37" s="4">
         <v>30</v>
       </c>
@@ -39500,7 +39677,7 @@
       <c r="B81" s="23">
         <v>74</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="79" t="s">
         <v>869</v>
       </c>
       <c r="D81" s="12"/>
@@ -39897,7 +40074,7 @@
         <v>812</v>
       </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="83">
+      <c r="H94" s="82">
         <v>45351</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -39927,7 +40104,7 @@
         <v>815</v>
       </c>
       <c r="G95" s="13"/>
-      <c r="H95" s="83">
+      <c r="H95" s="82">
         <v>45351</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -39957,7 +40134,7 @@
         <v>817</v>
       </c>
       <c r="G96" s="13"/>
-      <c r="H96" s="83">
+      <c r="H96" s="82">
         <v>45351</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -39987,7 +40164,7 @@
         <v>819</v>
       </c>
       <c r="G97" s="13"/>
-      <c r="H97" s="83">
+      <c r="H97" s="82">
         <v>45351</v>
       </c>
       <c r="I97" s="13" t="s">
@@ -40017,7 +40194,7 @@
         <v>822</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="83">
+      <c r="H98" s="82">
         <v>45351</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -40047,7 +40224,7 @@
         <v>824</v>
       </c>
       <c r="G99" s="13"/>
-      <c r="H99" s="83">
+      <c r="H99" s="82">
         <v>45351</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -40077,7 +40254,7 @@
         <v>826</v>
       </c>
       <c r="G100" s="13"/>
-      <c r="H100" s="83">
+      <c r="H100" s="82">
         <v>45351</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -40107,7 +40284,7 @@
         <v>828</v>
       </c>
       <c r="G101" s="13"/>
-      <c r="H101" s="83">
+      <c r="H101" s="82">
         <v>45351</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -40137,7 +40314,7 @@
         <v>830</v>
       </c>
       <c r="G102" s="13"/>
-      <c r="H102" s="83">
+      <c r="H102" s="82">
         <v>45351</v>
       </c>
       <c r="I102" s="13" t="s">
@@ -40167,7 +40344,7 @@
         <v>832</v>
       </c>
       <c r="G103" s="13"/>
-      <c r="H103" s="83">
+      <c r="H103" s="82">
         <v>45351</v>
       </c>
       <c r="I103" s="13" t="s">
@@ -40197,7 +40374,7 @@
         <v>454</v>
       </c>
       <c r="G104" s="13"/>
-      <c r="H104" s="83">
+      <c r="H104" s="82">
         <v>45351</v>
       </c>
       <c r="I104" s="13" t="s">
@@ -40227,7 +40404,7 @@
         <v>454</v>
       </c>
       <c r="G105" s="13"/>
-      <c r="H105" s="83">
+      <c r="H105" s="82">
         <v>45351</v>
       </c>
       <c r="I105" s="13" t="s">
@@ -40257,7 +40434,7 @@
         <v>454</v>
       </c>
       <c r="G106" s="13"/>
-      <c r="H106" s="83">
+      <c r="H106" s="82">
         <v>45351</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -40287,7 +40464,7 @@
         <v>454</v>
       </c>
       <c r="G107" s="13"/>
-      <c r="H107" s="83">
+      <c r="H107" s="82">
         <v>45351</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -40317,7 +40494,7 @@
         <v>454</v>
       </c>
       <c r="G108" s="13"/>
-      <c r="H108" s="83">
+      <c r="H108" s="82">
         <v>45351</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -40347,7 +40524,7 @@
         <v>454</v>
       </c>
       <c r="G109" s="13"/>
-      <c r="H109" s="83">
+      <c r="H109" s="82">
         <v>45351</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -40377,7 +40554,7 @@
         <v>479</v>
       </c>
       <c r="G110" s="13"/>
-      <c r="H110" s="83">
+      <c r="H110" s="82">
         <v>45351</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -40407,7 +40584,7 @@
         <v>480</v>
       </c>
       <c r="G111" s="13"/>
-      <c r="H111" s="83">
+      <c r="H111" s="82">
         <v>45351</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -40437,7 +40614,7 @@
         <v>482</v>
       </c>
       <c r="G112" s="13"/>
-      <c r="H112" s="83">
+      <c r="H112" s="82">
         <v>45351</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -40467,7 +40644,7 @@
         <v>483</v>
       </c>
       <c r="G113" s="13"/>
-      <c r="H113" s="83">
+      <c r="H113" s="82">
         <v>45351</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -40497,7 +40674,7 @@
         <v>488</v>
       </c>
       <c r="G114" s="13"/>
-      <c r="H114" s="83">
+      <c r="H114" s="82">
         <v>45351</v>
       </c>
       <c r="I114" s="13" t="s">
@@ -40527,7 +40704,7 @@
         <v>490</v>
       </c>
       <c r="G115" s="13"/>
-      <c r="H115" s="83">
+      <c r="H115" s="82">
         <v>45351</v>
       </c>
       <c r="I115" s="13" t="s">
@@ -40557,7 +40734,7 @@
         <v>454</v>
       </c>
       <c r="G116" s="13"/>
-      <c r="H116" s="83">
+      <c r="H116" s="82">
         <v>45351</v>
       </c>
       <c r="I116" s="13" t="s">
@@ -40587,7 +40764,7 @@
         <v>454</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="83">
+      <c r="H117" s="82">
         <v>45351</v>
       </c>
       <c r="I117" s="13" t="s">
@@ -40604,14 +40781,14 @@
       <c r="B118" s="4">
         <v>111</v>
       </c>
-      <c r="C118" s="82" t="s">
+      <c r="C118" s="81" t="s">
         <v>834</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="83">
+      <c r="H118" s="82">
         <v>45351</v>
       </c>
       <c r="I118" s="13" t="s">
@@ -40641,7 +40818,7 @@
         <v>335</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="83">
+      <c r="H119" s="82">
         <v>45351</v>
       </c>
       <c r="I119" s="13" t="s">
@@ -40671,7 +40848,7 @@
         <v>563</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="83">
+      <c r="H120" s="82">
         <v>45351</v>
       </c>
       <c r="I120" s="13" t="s">
@@ -40701,7 +40878,7 @@
         <v>563</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="83">
+      <c r="H121" s="82">
         <v>45351</v>
       </c>
       <c r="I121" s="13" t="s">
@@ -40731,7 +40908,7 @@
         <v>563</v>
       </c>
       <c r="G122" s="13"/>
-      <c r="H122" s="83">
+      <c r="H122" s="82">
         <v>45351</v>
       </c>
       <c r="I122" s="13" t="s">
@@ -40761,7 +40938,7 @@
         <v>563</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="83">
+      <c r="H123" s="82">
         <v>45351</v>
       </c>
       <c r="I123" s="13" t="s">
@@ -40791,7 +40968,7 @@
         <v>563</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="83">
+      <c r="H124" s="82">
         <v>45351</v>
       </c>
       <c r="I124" s="13" t="s">
@@ -40821,7 +40998,7 @@
         <v>564</v>
       </c>
       <c r="G125" s="13"/>
-      <c r="H125" s="83">
+      <c r="H125" s="82">
         <v>45351</v>
       </c>
       <c r="I125" s="13" t="s">
@@ -40851,7 +41028,7 @@
         <v>563</v>
       </c>
       <c r="G126" s="13"/>
-      <c r="H126" s="83">
+      <c r="H126" s="82">
         <v>45351</v>
       </c>
       <c r="I126" s="13" t="s">
@@ -40881,7 +41058,7 @@
         <v>563</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="83">
+      <c r="H127" s="82">
         <v>45351</v>
       </c>
       <c r="I127" s="13" t="s">
@@ -40911,7 +41088,7 @@
         <v>563</v>
       </c>
       <c r="G128" s="13"/>
-      <c r="H128" s="83">
+      <c r="H128" s="82">
         <v>45351</v>
       </c>
       <c r="I128" s="13" t="s">
@@ -40941,7 +41118,7 @@
         <v>563</v>
       </c>
       <c r="G129" s="13"/>
-      <c r="H129" s="83">
+      <c r="H129" s="82">
         <v>45351</v>
       </c>
       <c r="I129" s="13" t="s">
@@ -40971,7 +41148,7 @@
         <v>563</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="83">
+      <c r="H130" s="82">
         <v>45351</v>
       </c>
       <c r="I130" s="13" t="s">
@@ -41001,7 +41178,7 @@
         <v>563</v>
       </c>
       <c r="G131" s="13"/>
-      <c r="H131" s="83">
+      <c r="H131" s="82">
         <v>45351</v>
       </c>
       <c r="I131" s="13" t="s">
@@ -41031,7 +41208,7 @@
         <v>567</v>
       </c>
       <c r="G132" s="13"/>
-      <c r="H132" s="83">
+      <c r="H132" s="82">
         <v>45351</v>
       </c>
       <c r="I132" s="13" t="s">
@@ -41061,7 +41238,7 @@
         <v>567</v>
       </c>
       <c r="G133" s="13"/>
-      <c r="H133" s="83">
+      <c r="H133" s="82">
         <v>45351</v>
       </c>
       <c r="I133" s="13" t="s">
@@ -41091,7 +41268,7 @@
         <v>567</v>
       </c>
       <c r="G134" s="13"/>
-      <c r="H134" s="83">
+      <c r="H134" s="82">
         <v>45351</v>
       </c>
       <c r="I134" s="13" t="s">
@@ -41121,7 +41298,7 @@
         <v>567</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="83">
+      <c r="H135" s="82">
         <v>45351</v>
       </c>
       <c r="I135" s="13" t="s">
@@ -41151,7 +41328,7 @@
         <v>567</v>
       </c>
       <c r="G136" s="13"/>
-      <c r="H136" s="83">
+      <c r="H136" s="82">
         <v>45351</v>
       </c>
       <c r="I136" s="13" t="s">
@@ -41181,7 +41358,7 @@
         <v>593</v>
       </c>
       <c r="G137" s="13"/>
-      <c r="H137" s="83">
+      <c r="H137" s="82">
         <v>45351</v>
       </c>
       <c r="I137" s="13" t="s">
@@ -41211,7 +41388,7 @@
         <v>567</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="H138" s="83">
+      <c r="H138" s="82">
         <v>45351</v>
       </c>
       <c r="I138" s="13" t="s">
@@ -41241,7 +41418,7 @@
         <v>567</v>
       </c>
       <c r="G139" s="13"/>
-      <c r="H139" s="83">
+      <c r="H139" s="82">
         <v>45351</v>
       </c>
       <c r="I139" s="13" t="s">
@@ -41271,7 +41448,7 @@
         <v>567</v>
       </c>
       <c r="G140" s="13"/>
-      <c r="H140" s="83">
+      <c r="H140" s="82">
         <v>45351</v>
       </c>
       <c r="I140" s="13" t="s">
@@ -41301,7 +41478,7 @@
         <v>567</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="83">
+      <c r="H141" s="82">
         <v>45351</v>
       </c>
       <c r="I141" s="13" t="s">
@@ -41331,7 +41508,7 @@
         <v>567</v>
       </c>
       <c r="G142" s="13"/>
-      <c r="H142" s="83">
+      <c r="H142" s="82">
         <v>45351</v>
       </c>
       <c r="I142" s="13" t="s">
@@ -41361,7 +41538,7 @@
         <v>567</v>
       </c>
       <c r="G143" s="13"/>
-      <c r="H143" s="83">
+      <c r="H143" s="82">
         <v>45351</v>
       </c>
       <c r="I143" s="13" t="s">
@@ -41391,7 +41568,7 @@
         <v>566</v>
       </c>
       <c r="G144" s="13"/>
-      <c r="H144" s="83">
+      <c r="H144" s="82">
         <v>45351</v>
       </c>
       <c r="I144" s="13" t="s">
@@ -41421,7 +41598,7 @@
         <v>581</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="83">
+      <c r="H145" s="82">
         <v>45351</v>
       </c>
       <c r="I145" s="13" t="s">
@@ -41451,7 +41628,7 @@
         <v>582</v>
       </c>
       <c r="G146" s="13"/>
-      <c r="H146" s="83">
+      <c r="H146" s="82">
         <v>45351</v>
       </c>
       <c r="I146" s="13" t="s">
@@ -41481,7 +41658,7 @@
         <v>583</v>
       </c>
       <c r="G147" s="13"/>
-      <c r="H147" s="83">
+      <c r="H147" s="82">
         <v>45351</v>
       </c>
       <c r="I147" s="13" t="s">
@@ -41511,7 +41688,7 @@
         <v>584</v>
       </c>
       <c r="G148" s="13"/>
-      <c r="H148" s="83">
+      <c r="H148" s="82">
         <v>45351</v>
       </c>
       <c r="I148" s="13" t="s">
@@ -41541,7 +41718,7 @@
         <v>585</v>
       </c>
       <c r="G149" s="13"/>
-      <c r="H149" s="83">
+      <c r="H149" s="82">
         <v>45351</v>
       </c>
       <c r="I149" s="13" t="s">
@@ -41571,7 +41748,7 @@
         <v>586</v>
       </c>
       <c r="G150" s="13"/>
-      <c r="H150" s="83">
+      <c r="H150" s="82">
         <v>45351</v>
       </c>
       <c r="I150" s="13" t="s">
@@ -41601,7 +41778,7 @@
         <v>587</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="83">
+      <c r="H151" s="82">
         <v>45351</v>
       </c>
       <c r="I151" s="13" t="s">
@@ -41631,7 +41808,7 @@
         <v>588</v>
       </c>
       <c r="G152" s="13"/>
-      <c r="H152" s="83">
+      <c r="H152" s="82">
         <v>45351</v>
       </c>
       <c r="I152" s="13" t="s">
@@ -41661,7 +41838,7 @@
         <v>589</v>
       </c>
       <c r="G153" s="13"/>
-      <c r="H153" s="83">
+      <c r="H153" s="82">
         <v>45351</v>
       </c>
       <c r="I153" s="13" t="s">
@@ -41691,7 +41868,7 @@
         <v>590</v>
       </c>
       <c r="G154" s="13"/>
-      <c r="H154" s="83">
+      <c r="H154" s="82">
         <v>45351</v>
       </c>
       <c r="I154" s="13" t="s">
@@ -41721,7 +41898,7 @@
         <v>591</v>
       </c>
       <c r="G155" s="13"/>
-      <c r="H155" s="83">
+      <c r="H155" s="82">
         <v>45351</v>
       </c>
       <c r="I155" s="13" t="s">
@@ -41751,7 +41928,7 @@
         <v>592</v>
       </c>
       <c r="G156" s="13"/>
-      <c r="H156" s="83">
+      <c r="H156" s="82">
         <v>45351</v>
       </c>
       <c r="I156" s="13" t="s">
@@ -41781,7 +41958,7 @@
         <v>594</v>
       </c>
       <c r="G157" s="13"/>
-      <c r="H157" s="83">
+      <c r="H157" s="82">
         <v>45351</v>
       </c>
       <c r="I157" s="13" t="s">
@@ -41811,7 +41988,7 @@
         <v>595</v>
       </c>
       <c r="G158" s="13"/>
-      <c r="H158" s="83">
+      <c r="H158" s="82">
         <v>45351</v>
       </c>
       <c r="I158" s="13" t="s">
@@ -41841,7 +42018,7 @@
         <v>596</v>
       </c>
       <c r="G159" s="13"/>
-      <c r="H159" s="83">
+      <c r="H159" s="82">
         <v>45351</v>
       </c>
       <c r="I159" s="13" t="s">
@@ -41871,7 +42048,7 @@
         <v>597</v>
       </c>
       <c r="G160" s="13"/>
-      <c r="H160" s="83">
+      <c r="H160" s="82">
         <v>45351</v>
       </c>
       <c r="I160" s="13" t="s">
@@ -41901,7 +42078,7 @@
         <v>598</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="83">
+      <c r="H161" s="82">
         <v>45351</v>
       </c>
       <c r="I161" s="13" t="s">
@@ -41931,7 +42108,7 @@
         <v>599</v>
       </c>
       <c r="G162" s="13"/>
-      <c r="H162" s="83">
+      <c r="H162" s="82">
         <v>45351</v>
       </c>
       <c r="I162" s="13" t="s">
@@ -41961,7 +42138,7 @@
         <v>600</v>
       </c>
       <c r="G163" s="13"/>
-      <c r="H163" s="83">
+      <c r="H163" s="82">
         <v>45351</v>
       </c>
       <c r="I163" s="13" t="s">
@@ -41991,7 +42168,7 @@
         <v>601</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="83">
+      <c r="H164" s="82">
         <v>45351</v>
       </c>
       <c r="I164" s="13" t="s">
@@ -42021,7 +42198,7 @@
         <v>602</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="83">
+      <c r="H165" s="82">
         <v>45351</v>
       </c>
       <c r="I165" s="13" t="s">
@@ -42051,7 +42228,7 @@
         <v>603</v>
       </c>
       <c r="G166" s="13"/>
-      <c r="H166" s="83">
+      <c r="H166" s="82">
         <v>45351</v>
       </c>
       <c r="I166" s="13" t="s">
@@ -42081,7 +42258,7 @@
         <v>604</v>
       </c>
       <c r="G167" s="13"/>
-      <c r="H167" s="83">
+      <c r="H167" s="82">
         <v>45351</v>
       </c>
       <c r="I167" s="13" t="s">
@@ -42111,7 +42288,7 @@
         <v>605</v>
       </c>
       <c r="G168" s="13"/>
-      <c r="H168" s="83">
+      <c r="H168" s="82">
         <v>45351</v>
       </c>
       <c r="I168" s="13" t="s">
@@ -42141,7 +42318,7 @@
         <v>644</v>
       </c>
       <c r="G169" s="13"/>
-      <c r="H169" s="83">
+      <c r="H169" s="82">
         <v>45351</v>
       </c>
       <c r="I169" s="13" t="s">
@@ -42171,7 +42348,7 @@
         <v>606</v>
       </c>
       <c r="G170" s="13"/>
-      <c r="H170" s="83">
+      <c r="H170" s="82">
         <v>45351</v>
       </c>
       <c r="I170" s="13" t="s">
@@ -42201,7 +42378,7 @@
         <v>558</v>
       </c>
       <c r="G171" s="13"/>
-      <c r="H171" s="83">
+      <c r="H171" s="82">
         <v>45351</v>
       </c>
       <c r="I171" s="13" t="s">
@@ -42231,7 +42408,7 @@
         <v>335</v>
       </c>
       <c r="G172" s="13"/>
-      <c r="H172" s="83">
+      <c r="H172" s="82">
         <v>45351</v>
       </c>
       <c r="I172" s="13" t="s">
@@ -42261,7 +42438,7 @@
         <v>655</v>
       </c>
       <c r="G173" s="13"/>
-      <c r="H173" s="83">
+      <c r="H173" s="82">
         <v>45351</v>
       </c>
       <c r="I173" s="13" t="s">
@@ -42291,7 +42468,7 @@
         <v>345</v>
       </c>
       <c r="G174" s="13"/>
-      <c r="H174" s="83">
+      <c r="H174" s="82">
         <v>45351</v>
       </c>
       <c r="I174" s="13" t="s">
@@ -42321,7 +42498,7 @@
         <v>688</v>
       </c>
       <c r="G175" s="13"/>
-      <c r="H175" s="83">
+      <c r="H175" s="82">
         <v>45351</v>
       </c>
       <c r="I175" s="13" t="s">
@@ -42351,7 +42528,7 @@
         <v>688</v>
       </c>
       <c r="G176" s="13"/>
-      <c r="H176" s="83">
+      <c r="H176" s="82">
         <v>45351</v>
       </c>
       <c r="I176" s="13" t="s">
@@ -42368,14 +42545,14 @@
       <c r="B177" s="23">
         <v>170</v>
       </c>
-      <c r="C177" s="82" t="s">
+      <c r="C177" s="81" t="s">
         <v>873</v>
       </c>
       <c r="D177" s="12"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="83">
+      <c r="H177" s="82">
         <v>45351</v>
       </c>
       <c r="I177" s="13" t="s">
@@ -42405,7 +42582,7 @@
         <v>335</v>
       </c>
       <c r="G178" s="13"/>
-      <c r="H178" s="83">
+      <c r="H178" s="82">
         <v>45351</v>
       </c>
       <c r="I178" s="13" t="s">
@@ -42435,7 +42612,7 @@
         <v>563</v>
       </c>
       <c r="G179" s="13"/>
-      <c r="H179" s="83">
+      <c r="H179" s="82">
         <v>45351</v>
       </c>
       <c r="I179" s="13" t="s">
@@ -42465,7 +42642,7 @@
         <v>563</v>
       </c>
       <c r="G180" s="13"/>
-      <c r="H180" s="83">
+      <c r="H180" s="82">
         <v>45351</v>
       </c>
       <c r="I180" s="13" t="s">
@@ -42495,7 +42672,7 @@
         <v>563</v>
       </c>
       <c r="G181" s="13"/>
-      <c r="H181" s="83">
+      <c r="H181" s="82">
         <v>45351</v>
       </c>
       <c r="I181" s="13" t="s">
@@ -42525,7 +42702,7 @@
         <v>563</v>
       </c>
       <c r="G182" s="13"/>
-      <c r="H182" s="83">
+      <c r="H182" s="82">
         <v>45351</v>
       </c>
       <c r="I182" s="13" t="s">
@@ -42555,7 +42732,7 @@
         <v>563</v>
       </c>
       <c r="G183" s="13"/>
-      <c r="H183" s="83">
+      <c r="H183" s="82">
         <v>45351</v>
       </c>
       <c r="I183" s="13" t="s">
@@ -42585,7 +42762,7 @@
         <v>564</v>
       </c>
       <c r="G184" s="13"/>
-      <c r="H184" s="83">
+      <c r="H184" s="82">
         <v>45351</v>
       </c>
       <c r="I184" s="13" t="s">
@@ -42615,7 +42792,7 @@
         <v>563</v>
       </c>
       <c r="G185" s="13"/>
-      <c r="H185" s="83">
+      <c r="H185" s="82">
         <v>45351</v>
       </c>
       <c r="I185" s="13" t="s">
@@ -42645,7 +42822,7 @@
         <v>563</v>
       </c>
       <c r="G186" s="13"/>
-      <c r="H186" s="83">
+      <c r="H186" s="82">
         <v>45351</v>
       </c>
       <c r="I186" s="13" t="s">
@@ -42675,7 +42852,7 @@
         <v>563</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="83">
+      <c r="H187" s="82">
         <v>45351</v>
       </c>
       <c r="I187" s="13" t="s">
@@ -42705,7 +42882,7 @@
         <v>563</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="83">
+      <c r="H188" s="82">
         <v>45351</v>
       </c>
       <c r="I188" s="13" t="s">
@@ -42735,7 +42912,7 @@
         <v>563</v>
       </c>
       <c r="G189" s="13"/>
-      <c r="H189" s="83">
+      <c r="H189" s="82">
         <v>45351</v>
       </c>
       <c r="I189" s="13" t="s">
@@ -42765,7 +42942,7 @@
         <v>563</v>
       </c>
       <c r="G190" s="13"/>
-      <c r="H190" s="83">
+      <c r="H190" s="82">
         <v>45351</v>
       </c>
       <c r="I190" s="13" t="s">
@@ -42795,7 +42972,7 @@
         <v>566</v>
       </c>
       <c r="G191" s="13"/>
-      <c r="H191" s="83">
+      <c r="H191" s="82">
         <v>45351</v>
       </c>
       <c r="I191" s="13" t="s">
@@ -42825,7 +43002,7 @@
         <v>651</v>
       </c>
       <c r="G192" s="13"/>
-      <c r="H192" s="83">
+      <c r="H192" s="82">
         <v>45351</v>
       </c>
       <c r="I192" s="13" t="s">
@@ -42855,7 +43032,7 @@
         <v>648</v>
       </c>
       <c r="G193" s="13"/>
-      <c r="H193" s="83">
+      <c r="H193" s="82">
         <v>45351</v>
       </c>
       <c r="I193" s="13" t="s">
@@ -42885,7 +43062,7 @@
         <v>675</v>
       </c>
       <c r="G194" s="13"/>
-      <c r="H194" s="83">
+      <c r="H194" s="82">
         <v>45351</v>
       </c>
       <c r="I194" s="13" t="s">
@@ -42915,7 +43092,7 @@
         <v>677</v>
       </c>
       <c r="G195" s="13"/>
-      <c r="H195" s="83">
+      <c r="H195" s="82">
         <v>45351</v>
       </c>
       <c r="I195" s="13" t="s">
@@ -42945,7 +43122,7 @@
         <v>680</v>
       </c>
       <c r="G196" s="13"/>
-      <c r="H196" s="83">
+      <c r="H196" s="82">
         <v>45351</v>
       </c>
       <c r="I196" s="13" t="s">
@@ -42975,7 +43152,7 @@
         <v>683</v>
       </c>
       <c r="G197" s="13"/>
-      <c r="H197" s="83">
+      <c r="H197" s="82">
         <v>45351</v>
       </c>
       <c r="I197" s="13" t="s">
@@ -43005,7 +43182,7 @@
         <v>345</v>
       </c>
       <c r="G198" s="13"/>
-      <c r="H198" s="83">
+      <c r="H198" s="82">
         <v>45351</v>
       </c>
       <c r="I198" s="13" t="s">
@@ -43035,7 +43212,7 @@
         <v>353</v>
       </c>
       <c r="G199" s="13"/>
-      <c r="H199" s="83">
+      <c r="H199" s="82">
         <v>45351</v>
       </c>
       <c r="I199" s="13" t="s">
@@ -43065,7 +43242,7 @@
         <v>690</v>
       </c>
       <c r="G200" s="13"/>
-      <c r="H200" s="83">
+      <c r="H200" s="82">
         <v>45351</v>
       </c>
       <c r="I200" s="13" t="s">
@@ -43095,7 +43272,7 @@
         <v>691</v>
       </c>
       <c r="G201" s="13"/>
-      <c r="H201" s="83">
+      <c r="H201" s="82">
         <v>45351</v>
       </c>
       <c r="I201" s="13" t="s">
@@ -43112,14 +43289,14 @@
       <c r="B202" s="4">
         <v>195</v>
       </c>
-      <c r="C202" s="82" t="s">
+      <c r="C202" s="81" t="s">
         <v>874</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
       <c r="G202" s="13"/>
-      <c r="H202" s="83">
+      <c r="H202" s="82">
         <v>45351</v>
       </c>
       <c r="I202" s="13" t="s">
@@ -43149,7 +43326,7 @@
         <v>878</v>
       </c>
       <c r="G203" s="13"/>
-      <c r="H203" s="83">
+      <c r="H203" s="82">
         <v>45351</v>
       </c>
       <c r="I203" s="13" t="s">
@@ -43179,7 +43356,7 @@
         <v>880</v>
       </c>
       <c r="G204" s="13"/>
-      <c r="H204" s="83">
+      <c r="H204" s="82">
         <v>45351</v>
       </c>
       <c r="I204" s="13" t="s">
@@ -43192,68 +43369,132 @@
         <v>224</v>
       </c>
     </row>
-    <row r="205" spans="2:11" ht="40" customHeight="1">
-      <c r="B205" s="81"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
+    <row r="205" spans="2:11" s="86" customFormat="1" ht="40" customHeight="1">
+      <c r="B205" s="83"/>
+      <c r="C205" s="84"/>
+      <c r="D205" s="84"/>
+      <c r="E205" s="85"/>
+      <c r="F205" s="85"/>
+      <c r="G205" s="85"/>
+      <c r="H205" s="85"/>
+      <c r="I205" s="85"/>
+      <c r="J205" s="85"/>
+      <c r="K205" s="85"/>
     </row>
     <row r="206" spans="2:11" ht="40" customHeight="1">
-      <c r="B206" s="81"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
+      <c r="B206" s="80"/>
+      <c r="C206" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>888</v>
+      </c>
       <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
+      <c r="H206" s="87">
+        <v>45352</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="K206" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="207" spans="2:11" ht="40" customHeight="1">
-      <c r="B207" s="81"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
+      <c r="B207" s="80"/>
+      <c r="C207" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>890</v>
+      </c>
       <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
+      <c r="H207" s="87">
+        <v>45352</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="K207" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="208" spans="2:11" ht="40" customHeight="1">
-      <c r="B208" s="81"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
+      <c r="B208" s="80"/>
+      <c r="C208" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>894</v>
+      </c>
       <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
+      <c r="H208" s="87">
+        <v>45352</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="K208" s="13" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="209" spans="2:11" ht="40" customHeight="1">
-      <c r="B209" s="81"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
+      <c r="B209" s="80"/>
+      <c r="C209" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>899</v>
+      </c>
       <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
+      <c r="H209" s="87">
+        <v>45352</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="K209" s="13" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="210" spans="2:11" ht="40" customHeight="1">
-      <c r="B210" s="81"/>
+      <c r="B210" s="80"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="13"/>
@@ -43265,7 +43506,7 @@
       <c r="K210" s="13"/>
     </row>
     <row r="211" spans="2:11" ht="40" customHeight="1">
-      <c r="B211" s="81"/>
+      <c r="B211" s="80"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
       <c r="E211" s="13"/>
@@ -43277,7 +43518,7 @@
       <c r="K211" s="13"/>
     </row>
     <row r="212" spans="2:11" ht="40" customHeight="1">
-      <c r="B212" s="81"/>
+      <c r="B212" s="80"/>
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="13"/>
@@ -43289,7 +43530,7 @@
       <c r="K212" s="13"/>
     </row>
     <row r="213" spans="2:11" ht="40" customHeight="1">
-      <c r="B213" s="81"/>
+      <c r="B213" s="80"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
       <c r="E213" s="13"/>
@@ -43301,7 +43542,7 @@
       <c r="K213" s="13"/>
     </row>
     <row r="214" spans="2:11" ht="40" customHeight="1">
-      <c r="B214" s="81"/>
+      <c r="B214" s="80"/>
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
       <c r="E214" s="13"/>
@@ -43313,7 +43554,7 @@
       <c r="K214" s="13"/>
     </row>
     <row r="215" spans="2:11" ht="40" customHeight="1">
-      <c r="B215" s="81"/>
+      <c r="B215" s="80"/>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="13"/>
@@ -43325,7 +43566,7 @@
       <c r="K215" s="13"/>
     </row>
     <row r="216" spans="2:11" ht="40" customHeight="1">
-      <c r="B216" s="81"/>
+      <c r="B216" s="80"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
       <c r="E216" s="13"/>
@@ -43337,7 +43578,7 @@
       <c r="K216" s="13"/>
     </row>
     <row r="217" spans="2:11" ht="40" customHeight="1">
-      <c r="B217" s="81"/>
+      <c r="B217" s="80"/>
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="13"/>
@@ -43349,7 +43590,7 @@
       <c r="K217" s="13"/>
     </row>
     <row r="218" spans="2:11" ht="40" customHeight="1">
-      <c r="B218" s="81"/>
+      <c r="B218" s="80"/>
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
       <c r="E218" s="13"/>
@@ -43361,7 +43602,7 @@
       <c r="K218" s="13"/>
     </row>
     <row r="219" spans="2:11" ht="40" customHeight="1">
-      <c r="B219" s="81"/>
+      <c r="B219" s="80"/>
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="13"/>
@@ -43373,7 +43614,7 @@
       <c r="K219" s="13"/>
     </row>
     <row r="220" spans="2:11" ht="40" customHeight="1">
-      <c r="B220" s="81"/>
+      <c r="B220" s="80"/>
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="13"/>
@@ -43385,7 +43626,7 @@
       <c r="K220" s="13"/>
     </row>
     <row r="221" spans="2:11" ht="40" customHeight="1">
-      <c r="B221" s="81"/>
+      <c r="B221" s="80"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="13"/>
@@ -43397,7 +43638,7 @@
       <c r="K221" s="13"/>
     </row>
     <row r="222" spans="2:11" ht="40" customHeight="1">
-      <c r="B222" s="81"/>
+      <c r="B222" s="80"/>
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
       <c r="E222" s="13"/>
@@ -43409,7 +43650,7 @@
       <c r="K222" s="13"/>
     </row>
     <row r="223" spans="2:11" ht="40" customHeight="1">
-      <c r="B223" s="81"/>
+      <c r="B223" s="80"/>
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
       <c r="E223" s="13"/>
@@ -43421,7 +43662,7 @@
       <c r="K223" s="13"/>
     </row>
     <row r="224" spans="2:11" ht="40" customHeight="1">
-      <c r="B224" s="81"/>
+      <c r="B224" s="80"/>
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
       <c r="E224" s="13"/>
@@ -43433,7 +43674,7 @@
       <c r="K224" s="13"/>
     </row>
     <row r="225" spans="2:11" ht="40" customHeight="1">
-      <c r="B225" s="81"/>
+      <c r="B225" s="80"/>
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
       <c r="E225" s="13"/>
@@ -43445,7 +43686,7 @@
       <c r="K225" s="13"/>
     </row>
     <row r="226" spans="2:11" ht="40" customHeight="1">
-      <c r="B226" s="81"/>
+      <c r="B226" s="80"/>
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="13"/>
@@ -43457,7 +43698,7 @@
       <c r="K226" s="13"/>
     </row>
     <row r="227" spans="2:11" ht="40" customHeight="1">
-      <c r="B227" s="81"/>
+      <c r="B227" s="80"/>
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
       <c r="E227" s="13"/>
@@ -43469,7 +43710,7 @@
       <c r="K227" s="13"/>
     </row>
     <row r="228" spans="2:11" ht="40" customHeight="1">
-      <c r="B228" s="81"/>
+      <c r="B228" s="80"/>
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
       <c r="E228" s="13"/>
@@ -43481,7 +43722,7 @@
       <c r="K228" s="13"/>
     </row>
     <row r="229" spans="2:11" ht="40" customHeight="1">
-      <c r="B229" s="81"/>
+      <c r="B229" s="80"/>
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
       <c r="E229" s="13"/>
@@ -43493,7 +43734,7 @@
       <c r="K229" s="13"/>
     </row>
     <row r="230" spans="2:11" ht="40" customHeight="1">
-      <c r="B230" s="81"/>
+      <c r="B230" s="80"/>
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
       <c r="E230" s="13"/>
@@ -43505,7 +43746,7 @@
       <c r="K230" s="13"/>
     </row>
     <row r="231" spans="2:11" ht="40" customHeight="1">
-      <c r="B231" s="81"/>
+      <c r="B231" s="80"/>
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
       <c r="E231" s="13"/>
@@ -43517,7 +43758,7 @@
       <c r="K231" s="13"/>
     </row>
     <row r="232" spans="2:11" ht="40" customHeight="1">
-      <c r="B232" s="81"/>
+      <c r="B232" s="80"/>
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
       <c r="E232" s="13"/>
@@ -43529,7 +43770,7 @@
       <c r="K232" s="13"/>
     </row>
     <row r="233" spans="2:11" ht="40" customHeight="1">
-      <c r="B233" s="81"/>
+      <c r="B233" s="80"/>
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
       <c r="E233" s="13"/>
@@ -43541,7 +43782,7 @@
       <c r="K233" s="13"/>
     </row>
     <row r="234" spans="2:11" ht="40" customHeight="1">
-      <c r="B234" s="81"/>
+      <c r="B234" s="80"/>
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
       <c r="E234" s="13"/>
@@ -43553,7 +43794,7 @@
       <c r="K234" s="13"/>
     </row>
     <row r="235" spans="2:11" ht="40" customHeight="1">
-      <c r="B235" s="81"/>
+      <c r="B235" s="80"/>
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="13"/>
@@ -43565,7 +43806,7 @@
       <c r="K235" s="13"/>
     </row>
     <row r="236" spans="2:11" ht="40" customHeight="1">
-      <c r="B236" s="81"/>
+      <c r="B236" s="80"/>
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
       <c r="E236" s="13"/>
@@ -43577,7 +43818,7 @@
       <c r="K236" s="13"/>
     </row>
     <row r="237" spans="2:11" ht="40" customHeight="1">
-      <c r="B237" s="81"/>
+      <c r="B237" s="80"/>
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="13"/>
@@ -43589,7 +43830,7 @@
       <c r="K237" s="13"/>
     </row>
     <row r="238" spans="2:11" ht="40" customHeight="1">
-      <c r="B238" s="81"/>
+      <c r="B238" s="80"/>
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
       <c r="E238" s="13"/>
@@ -43601,7 +43842,7 @@
       <c r="K238" s="13"/>
     </row>
     <row r="239" spans="2:11" ht="40" customHeight="1">
-      <c r="B239" s="81"/>
+      <c r="B239" s="80"/>
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
       <c r="E239" s="13"/>
@@ -43613,7 +43854,7 @@
       <c r="K239" s="13"/>
     </row>
     <row r="240" spans="2:11" ht="40" customHeight="1">
-      <c r="B240" s="81"/>
+      <c r="B240" s="80"/>
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="13"/>
@@ -43625,7 +43866,7 @@
       <c r="K240" s="13"/>
     </row>
     <row r="241" spans="2:11" ht="40" customHeight="1">
-      <c r="B241" s="81"/>
+      <c r="B241" s="80"/>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
       <c r="E241" s="13"/>
@@ -43637,7 +43878,7 @@
       <c r="K241" s="13"/>
     </row>
     <row r="242" spans="2:11" ht="40" customHeight="1">
-      <c r="B242" s="81"/>
+      <c r="B242" s="80"/>
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
       <c r="E242" s="13"/>
@@ -43649,7 +43890,7 @@
       <c r="K242" s="13"/>
     </row>
     <row r="243" spans="2:11" ht="40" customHeight="1">
-      <c r="B243" s="81"/>
+      <c r="B243" s="80"/>
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
       <c r="E243" s="13"/>
@@ -43661,7 +43902,7 @@
       <c r="K243" s="13"/>
     </row>
     <row r="244" spans="2:11" ht="40" customHeight="1">
-      <c r="B244" s="81"/>
+      <c r="B244" s="80"/>
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
       <c r="E244" s="13"/>
@@ -43673,7 +43914,7 @@
       <c r="K244" s="13"/>
     </row>
     <row r="245" spans="2:11" ht="40" customHeight="1">
-      <c r="B245" s="81"/>
+      <c r="B245" s="80"/>
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
       <c r="E245" s="13"/>
@@ -43685,7 +43926,7 @@
       <c r="K245" s="13"/>
     </row>
     <row r="246" spans="2:11" ht="40" customHeight="1">
-      <c r="B246" s="81"/>
+      <c r="B246" s="80"/>
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
       <c r="E246" s="13"/>
@@ -43697,7 +43938,7 @@
       <c r="K246" s="13"/>
     </row>
     <row r="247" spans="2:11" ht="40" customHeight="1">
-      <c r="B247" s="81"/>
+      <c r="B247" s="80"/>
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
       <c r="E247" s="13"/>
@@ -43709,7 +43950,7 @@
       <c r="K247" s="13"/>
     </row>
     <row r="248" spans="2:11" ht="40" customHeight="1">
-      <c r="B248" s="81"/>
+      <c r="B248" s="80"/>
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
       <c r="E248" s="13"/>
@@ -43721,7 +43962,7 @@
       <c r="K248" s="13"/>
     </row>
     <row r="249" spans="2:11" ht="40" customHeight="1">
-      <c r="B249" s="81"/>
+      <c r="B249" s="80"/>
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="13"/>
@@ -43733,7 +43974,7 @@
       <c r="K249" s="13"/>
     </row>
     <row r="250" spans="2:11" ht="40" customHeight="1">
-      <c r="B250" s="81"/>
+      <c r="B250" s="80"/>
       <c r="C250" s="12"/>
       <c r="D250" s="12"/>
       <c r="E250" s="13"/>
@@ -43745,7 +43986,7 @@
       <c r="K250" s="13"/>
     </row>
     <row r="251" spans="2:11" ht="40" customHeight="1">
-      <c r="B251" s="81"/>
+      <c r="B251" s="80"/>
       <c r="C251" s="12"/>
       <c r="D251" s="12"/>
       <c r="E251" s="13"/>
@@ -43757,7 +43998,7 @@
       <c r="K251" s="13"/>
     </row>
     <row r="252" spans="2:11" ht="40" customHeight="1">
-      <c r="B252" s="81"/>
+      <c r="B252" s="80"/>
       <c r="C252" s="12"/>
       <c r="D252" s="12"/>
       <c r="E252" s="13"/>
@@ -43769,7 +44010,7 @@
       <c r="K252" s="13"/>
     </row>
     <row r="253" spans="2:11" ht="40" customHeight="1">
-      <c r="B253" s="81"/>
+      <c r="B253" s="80"/>
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
       <c r="E253" s="13"/>
@@ -43781,7 +44022,7 @@
       <c r="K253" s="13"/>
     </row>
     <row r="254" spans="2:11" ht="40" customHeight="1">
-      <c r="B254" s="81"/>
+      <c r="B254" s="80"/>
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="13"/>
@@ -43793,7 +44034,7 @@
       <c r="K254" s="13"/>
     </row>
     <row r="255" spans="2:11" ht="40" customHeight="1">
-      <c r="B255" s="81"/>
+      <c r="B255" s="80"/>
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
       <c r="E255" s="13"/>
@@ -43805,7 +44046,7 @@
       <c r="K255" s="13"/>
     </row>
     <row r="256" spans="2:11" ht="40" customHeight="1">
-      <c r="B256" s="81"/>
+      <c r="B256" s="80"/>
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="13"/>
@@ -43817,7 +44058,7 @@
       <c r="K256" s="13"/>
     </row>
     <row r="257" spans="2:11" ht="40" customHeight="1">
-      <c r="B257" s="81"/>
+      <c r="B257" s="80"/>
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
       <c r="E257" s="13"/>
@@ -43829,7 +44070,7 @@
       <c r="K257" s="13"/>
     </row>
     <row r="258" spans="2:11" ht="40" customHeight="1">
-      <c r="B258" s="81"/>
+      <c r="B258" s="80"/>
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
       <c r="E258" s="13"/>
@@ -43841,7 +44082,7 @@
       <c r="K258" s="13"/>
     </row>
     <row r="259" spans="2:11" ht="40" customHeight="1">
-      <c r="B259" s="81"/>
+      <c r="B259" s="80"/>
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="13"/>
@@ -43853,7 +44094,7 @@
       <c r="K259" s="13"/>
     </row>
     <row r="260" spans="2:11" ht="40" customHeight="1">
-      <c r="B260" s="81"/>
+      <c r="B260" s="80"/>
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
       <c r="E260" s="13"/>
@@ -43865,7 +44106,7 @@
       <c r="K260" s="13"/>
     </row>
     <row r="261" spans="2:11" ht="40" customHeight="1">
-      <c r="B261" s="81"/>
+      <c r="B261" s="80"/>
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="13"/>
@@ -43877,7 +44118,7 @@
       <c r="K261" s="13"/>
     </row>
     <row r="262" spans="2:11" ht="40" customHeight="1">
-      <c r="B262" s="81"/>
+      <c r="B262" s="80"/>
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="13"/>
@@ -43889,7 +44130,7 @@
       <c r="K262" s="13"/>
     </row>
     <row r="263" spans="2:11" ht="40" customHeight="1">
-      <c r="B263" s="81"/>
+      <c r="B263" s="80"/>
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
       <c r="E263" s="13"/>
@@ -43901,7 +44142,7 @@
       <c r="K263" s="13"/>
     </row>
     <row r="264" spans="2:11" ht="40" customHeight="1">
-      <c r="B264" s="81"/>
+      <c r="B264" s="80"/>
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
       <c r="E264" s="13"/>
@@ -43913,7 +44154,7 @@
       <c r="K264" s="13"/>
     </row>
     <row r="265" spans="2:11" ht="40" customHeight="1">
-      <c r="B265" s="81"/>
+      <c r="B265" s="80"/>
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
       <c r="E265" s="13"/>
@@ -43925,7 +44166,7 @@
       <c r="K265" s="13"/>
     </row>
     <row r="266" spans="2:11" ht="40" customHeight="1">
-      <c r="B266" s="81"/>
+      <c r="B266" s="80"/>
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
       <c r="E266" s="13"/>
@@ -43937,7 +44178,7 @@
       <c r="K266" s="13"/>
     </row>
     <row r="267" spans="2:11" ht="40" customHeight="1">
-      <c r="B267" s="81"/>
+      <c r="B267" s="80"/>
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
       <c r="E267" s="13"/>
@@ -43949,7 +44190,7 @@
       <c r="K267" s="13"/>
     </row>
     <row r="268" spans="2:11" ht="40" customHeight="1">
-      <c r="B268" s="81"/>
+      <c r="B268" s="80"/>
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
       <c r="E268" s="13"/>
@@ -43961,7 +44202,7 @@
       <c r="K268" s="13"/>
     </row>
     <row r="269" spans="2:11" ht="40" customHeight="1">
-      <c r="B269" s="81"/>
+      <c r="B269" s="80"/>
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
       <c r="E269" s="13"/>
@@ -43973,7 +44214,7 @@
       <c r="K269" s="13"/>
     </row>
     <row r="270" spans="2:11" ht="40" customHeight="1">
-      <c r="B270" s="81"/>
+      <c r="B270" s="80"/>
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
       <c r="E270" s="13"/>
@@ -43985,7 +44226,7 @@
       <c r="K270" s="13"/>
     </row>
     <row r="271" spans="2:11" ht="40" customHeight="1">
-      <c r="B271" s="81"/>
+      <c r="B271" s="80"/>
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="13"/>
@@ -43997,7 +44238,7 @@
       <c r="K271" s="13"/>
     </row>
     <row r="272" spans="2:11" ht="40" customHeight="1">
-      <c r="B272" s="81"/>
+      <c r="B272" s="80"/>
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
       <c r="E272" s="13"/>
@@ -44009,7 +44250,7 @@
       <c r="K272" s="13"/>
     </row>
     <row r="273" spans="2:11" ht="40" customHeight="1">
-      <c r="B273" s="81"/>
+      <c r="B273" s="80"/>
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="13"/>
@@ -44021,7 +44262,7 @@
       <c r="K273" s="13"/>
     </row>
     <row r="274" spans="2:11" ht="40" customHeight="1">
-      <c r="B274" s="81"/>
+      <c r="B274" s="80"/>
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
       <c r="E274" s="13"/>
@@ -44033,7 +44274,7 @@
       <c r="K274" s="13"/>
     </row>
     <row r="275" spans="2:11" ht="40" customHeight="1">
-      <c r="B275" s="81"/>
+      <c r="B275" s="80"/>
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="13"/>
@@ -44045,7 +44286,7 @@
       <c r="K275" s="13"/>
     </row>
     <row r="276" spans="2:11" ht="40" customHeight="1">
-      <c r="B276" s="81"/>
+      <c r="B276" s="80"/>
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
       <c r="E276" s="13"/>
@@ -44057,7 +44298,7 @@
       <c r="K276" s="13"/>
     </row>
     <row r="277" spans="2:11" ht="40" customHeight="1">
-      <c r="B277" s="81"/>
+      <c r="B277" s="80"/>
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
       <c r="E277" s="13"/>
@@ -44069,7 +44310,7 @@
       <c r="K277" s="13"/>
     </row>
     <row r="278" spans="2:11" ht="40" customHeight="1">
-      <c r="B278" s="81"/>
+      <c r="B278" s="80"/>
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="13"/>
@@ -44081,7 +44322,7 @@
       <c r="K278" s="13"/>
     </row>
     <row r="279" spans="2:11" ht="40" customHeight="1">
-      <c r="B279" s="81"/>
+      <c r="B279" s="80"/>
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
       <c r="E279" s="13"/>
@@ -44093,7 +44334,7 @@
       <c r="K279" s="13"/>
     </row>
     <row r="280" spans="2:11" ht="40" customHeight="1">
-      <c r="B280" s="81"/>
+      <c r="B280" s="80"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
       <c r="E280" s="13"/>
@@ -44105,7 +44346,7 @@
       <c r="K280" s="13"/>
     </row>
     <row r="281" spans="2:11" ht="40" customHeight="1">
-      <c r="B281" s="81"/>
+      <c r="B281" s="80"/>
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
       <c r="E281" s="13"/>
@@ -44117,7 +44358,7 @@
       <c r="K281" s="13"/>
     </row>
     <row r="282" spans="2:11" ht="40" customHeight="1">
-      <c r="B282" s="81"/>
+      <c r="B282" s="80"/>
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
       <c r="E282" s="13"/>
@@ -44129,7 +44370,7 @@
       <c r="K282" s="13"/>
     </row>
     <row r="283" spans="2:11" ht="40" customHeight="1">
-      <c r="B283" s="81"/>
+      <c r="B283" s="80"/>
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="13"/>
@@ -44141,7 +44382,7 @@
       <c r="K283" s="13"/>
     </row>
     <row r="284" spans="2:11" ht="40" customHeight="1">
-      <c r="B284" s="81"/>
+      <c r="B284" s="80"/>
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
       <c r="E284" s="13"/>
@@ -44153,7 +44394,7 @@
       <c r="K284" s="13"/>
     </row>
     <row r="285" spans="2:11" ht="40" customHeight="1">
-      <c r="B285" s="81"/>
+      <c r="B285" s="80"/>
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
       <c r="E285" s="13"/>
@@ -44165,7 +44406,7 @@
       <c r="K285" s="13"/>
     </row>
     <row r="286" spans="2:11" ht="40" customHeight="1">
-      <c r="B286" s="81"/>
+      <c r="B286" s="80"/>
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="13"/>
@@ -44177,7 +44418,7 @@
       <c r="K286" s="13"/>
     </row>
     <row r="287" spans="2:11" ht="40" customHeight="1">
-      <c r="B287" s="81"/>
+      <c r="B287" s="80"/>
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="13"/>
@@ -44189,7 +44430,7 @@
       <c r="K287" s="13"/>
     </row>
     <row r="288" spans="2:11" ht="40" customHeight="1">
-      <c r="B288" s="81"/>
+      <c r="B288" s="80"/>
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
       <c r="E288" s="13"/>
@@ -44201,7 +44442,7 @@
       <c r="K288" s="13"/>
     </row>
     <row r="289" spans="2:11" ht="40" customHeight="1">
-      <c r="B289" s="81"/>
+      <c r="B289" s="80"/>
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
       <c r="E289" s="13"/>
@@ -44213,7 +44454,7 @@
       <c r="K289" s="13"/>
     </row>
     <row r="290" spans="2:11" ht="40" customHeight="1">
-      <c r="B290" s="81"/>
+      <c r="B290" s="80"/>
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
       <c r="E290" s="13"/>
@@ -44225,7 +44466,7 @@
       <c r="K290" s="13"/>
     </row>
     <row r="291" spans="2:11" ht="40" customHeight="1">
-      <c r="B291" s="81"/>
+      <c r="B291" s="80"/>
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
       <c r="E291" s="13"/>
@@ -44237,7 +44478,7 @@
       <c r="K291" s="13"/>
     </row>
     <row r="292" spans="2:11" ht="40" customHeight="1">
-      <c r="B292" s="81"/>
+      <c r="B292" s="80"/>
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
       <c r="E292" s="13"/>
@@ -44249,7 +44490,7 @@
       <c r="K292" s="13"/>
     </row>
     <row r="293" spans="2:11" ht="40" customHeight="1">
-      <c r="B293" s="81"/>
+      <c r="B293" s="80"/>
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="13"/>
@@ -44261,7 +44502,7 @@
       <c r="K293" s="13"/>
     </row>
     <row r="294" spans="2:11" ht="40" customHeight="1">
-      <c r="B294" s="81"/>
+      <c r="B294" s="80"/>
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="13"/>
@@ -44273,7 +44514,7 @@
       <c r="K294" s="13"/>
     </row>
     <row r="295" spans="2:11" ht="40" customHeight="1">
-      <c r="B295" s="81"/>
+      <c r="B295" s="80"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="13"/>
@@ -44285,7 +44526,7 @@
       <c r="K295" s="13"/>
     </row>
     <row r="296" spans="2:11" ht="40" customHeight="1">
-      <c r="B296" s="81"/>
+      <c r="B296" s="80"/>
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
       <c r="E296" s="13"/>
@@ -44297,7 +44538,7 @@
       <c r="K296" s="13"/>
     </row>
     <row r="297" spans="2:11" ht="40" customHeight="1">
-      <c r="B297" s="81"/>
+      <c r="B297" s="80"/>
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
       <c r="E297" s="13"/>
@@ -44309,7 +44550,7 @@
       <c r="K297" s="13"/>
     </row>
     <row r="298" spans="2:11" ht="40" customHeight="1">
-      <c r="B298" s="81"/>
+      <c r="B298" s="80"/>
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
       <c r="E298" s="13"/>
@@ -44321,7 +44562,7 @@
       <c r="K298" s="13"/>
     </row>
     <row r="299" spans="2:11" ht="40" customHeight="1">
-      <c r="B299" s="81"/>
+      <c r="B299" s="80"/>
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
       <c r="E299" s="13"/>
@@ -44333,7 +44574,7 @@
       <c r="K299" s="13"/>
     </row>
     <row r="300" spans="2:11" ht="40" customHeight="1">
-      <c r="B300" s="81"/>
+      <c r="B300" s="80"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
       <c r="E300" s="13"/>
@@ -44345,7 +44586,7 @@
       <c r="K300" s="13"/>
     </row>
     <row r="301" spans="2:11" ht="40" customHeight="1">
-      <c r="B301" s="81"/>
+      <c r="B301" s="80"/>
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
       <c r="E301" s="13"/>
@@ -44357,7 +44598,7 @@
       <c r="K301" s="13"/>
     </row>
     <row r="302" spans="2:11" ht="40" customHeight="1">
-      <c r="B302" s="81"/>
+      <c r="B302" s="80"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
       <c r="E302" s="13"/>
@@ -44369,7 +44610,7 @@
       <c r="K302" s="13"/>
     </row>
     <row r="303" spans="2:11" ht="40" customHeight="1">
-      <c r="B303" s="81"/>
+      <c r="B303" s="80"/>
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
       <c r="E303" s="13"/>
@@ -44381,7 +44622,7 @@
       <c r="K303" s="13"/>
     </row>
     <row r="304" spans="2:11" ht="40" customHeight="1">
-      <c r="B304" s="81"/>
+      <c r="B304" s="80"/>
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
       <c r="E304" s="13"/>
@@ -44393,7 +44634,7 @@
       <c r="K304" s="13"/>
     </row>
     <row r="305" spans="2:11" ht="40" customHeight="1">
-      <c r="B305" s="81"/>
+      <c r="B305" s="80"/>
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
       <c r="E305" s="13"/>
@@ -44405,7 +44646,7 @@
       <c r="K305" s="13"/>
     </row>
     <row r="306" spans="2:11" ht="40" customHeight="1">
-      <c r="B306" s="81"/>
+      <c r="B306" s="80"/>
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
       <c r="E306" s="13"/>
@@ -44417,7 +44658,7 @@
       <c r="K306" s="13"/>
     </row>
     <row r="307" spans="2:11" ht="40" customHeight="1">
-      <c r="B307" s="81"/>
+      <c r="B307" s="80"/>
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
       <c r="E307" s="13"/>
@@ -44429,7 +44670,7 @@
       <c r="K307" s="13"/>
     </row>
     <row r="308" spans="2:11" ht="40" customHeight="1">
-      <c r="B308" s="81"/>
+      <c r="B308" s="80"/>
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
       <c r="E308" s="13"/>
@@ -44441,7 +44682,7 @@
       <c r="K308" s="13"/>
     </row>
     <row r="309" spans="2:11" ht="40" customHeight="1">
-      <c r="B309" s="81"/>
+      <c r="B309" s="80"/>
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
       <c r="E309" s="13"/>
@@ -44453,7 +44694,7 @@
       <c r="K309" s="13"/>
     </row>
     <row r="310" spans="2:11" ht="40" customHeight="1">
-      <c r="B310" s="81"/>
+      <c r="B310" s="80"/>
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
       <c r="E310" s="13"/>
@@ -44465,7 +44706,7 @@
       <c r="K310" s="13"/>
     </row>
     <row r="311" spans="2:11" ht="40" customHeight="1">
-      <c r="B311" s="81"/>
+      <c r="B311" s="80"/>
       <c r="C311" s="12"/>
       <c r="D311" s="12"/>
       <c r="E311" s="13"/>
@@ -44477,7 +44718,7 @@
       <c r="K311" s="13"/>
     </row>
     <row r="312" spans="2:11" ht="40" customHeight="1">
-      <c r="B312" s="81"/>
+      <c r="B312" s="80"/>
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
       <c r="E312" s="13"/>
@@ -44489,7 +44730,7 @@
       <c r="K312" s="13"/>
     </row>
     <row r="313" spans="2:11" ht="40" customHeight="1">
-      <c r="B313" s="81"/>
+      <c r="B313" s="80"/>
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
       <c r="E313" s="13"/>
@@ -44501,7 +44742,7 @@
       <c r="K313" s="13"/>
     </row>
     <row r="314" spans="2:11" ht="40" customHeight="1">
-      <c r="B314" s="81"/>
+      <c r="B314" s="80"/>
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
       <c r="E314" s="13"/>
@@ -44513,7 +44754,7 @@
       <c r="K314" s="13"/>
     </row>
     <row r="315" spans="2:11" ht="40" customHeight="1">
-      <c r="B315" s="81"/>
+      <c r="B315" s="80"/>
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
       <c r="E315" s="13"/>
@@ -44525,7 +44766,7 @@
       <c r="K315" s="13"/>
     </row>
     <row r="316" spans="2:11" ht="40" customHeight="1">
-      <c r="B316" s="81"/>
+      <c r="B316" s="80"/>
       <c r="C316" s="12"/>
       <c r="D316" s="12"/>
       <c r="E316" s="13"/>
@@ -44537,7 +44778,7 @@
       <c r="K316" s="13"/>
     </row>
     <row r="317" spans="2:11" ht="40" customHeight="1">
-      <c r="B317" s="81"/>
+      <c r="B317" s="80"/>
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
       <c r="E317" s="13"/>
@@ -44549,7 +44790,7 @@
       <c r="K317" s="13"/>
     </row>
     <row r="318" spans="2:11" ht="40" customHeight="1">
-      <c r="B318" s="81"/>
+      <c r="B318" s="80"/>
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
       <c r="E318" s="13"/>
@@ -44561,7 +44802,7 @@
       <c r="K318" s="13"/>
     </row>
     <row r="319" spans="2:11" ht="40" customHeight="1">
-      <c r="B319" s="81"/>
+      <c r="B319" s="80"/>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="13"/>
@@ -44573,7 +44814,7 @@
       <c r="K319" s="13"/>
     </row>
     <row r="320" spans="2:11" ht="40" customHeight="1">
-      <c r="B320" s="81"/>
+      <c r="B320" s="80"/>
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="13"/>
@@ -44585,7 +44826,7 @@
       <c r="K320" s="13"/>
     </row>
     <row r="321" spans="2:11" ht="40" customHeight="1">
-      <c r="B321" s="81"/>
+      <c r="B321" s="80"/>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="13"/>
@@ -44597,7 +44838,7 @@
       <c r="K321" s="13"/>
     </row>
     <row r="322" spans="2:11" ht="40" customHeight="1">
-      <c r="B322" s="81"/>
+      <c r="B322" s="80"/>
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="13"/>
@@ -44609,7 +44850,7 @@
       <c r="K322" s="13"/>
     </row>
     <row r="323" spans="2:11" ht="40" customHeight="1">
-      <c r="B323" s="81"/>
+      <c r="B323" s="80"/>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
       <c r="E323" s="13"/>
@@ -44621,7 +44862,7 @@
       <c r="K323" s="13"/>
     </row>
     <row r="324" spans="2:11" ht="40" customHeight="1">
-      <c r="B324" s="81"/>
+      <c r="B324" s="80"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
       <c r="E324" s="13"/>
@@ -44633,7 +44874,7 @@
       <c r="K324" s="13"/>
     </row>
     <row r="325" spans="2:11" ht="40" customHeight="1">
-      <c r="B325" s="81"/>
+      <c r="B325" s="80"/>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="13"/>
@@ -44645,7 +44886,7 @@
       <c r="K325" s="13"/>
     </row>
     <row r="326" spans="2:11" ht="40" customHeight="1">
-      <c r="B326" s="81"/>
+      <c r="B326" s="80"/>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
       <c r="E326" s="13"/>
@@ -44657,7 +44898,7 @@
       <c r="K326" s="13"/>
     </row>
     <row r="327" spans="2:11" ht="40" customHeight="1">
-      <c r="B327" s="81"/>
+      <c r="B327" s="80"/>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
       <c r="E327" s="13"/>
@@ -44669,7 +44910,7 @@
       <c r="K327" s="13"/>
     </row>
     <row r="328" spans="2:11" ht="40" customHeight="1">
-      <c r="B328" s="81"/>
+      <c r="B328" s="80"/>
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
       <c r="E328" s="13"/>
@@ -44681,7 +44922,7 @@
       <c r="K328" s="13"/>
     </row>
     <row r="329" spans="2:11" ht="40" customHeight="1">
-      <c r="B329" s="81"/>
+      <c r="B329" s="80"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
       <c r="E329" s="13"/>
@@ -44693,7 +44934,7 @@
       <c r="K329" s="13"/>
     </row>
     <row r="330" spans="2:11" ht="40" customHeight="1">
-      <c r="B330" s="81"/>
+      <c r="B330" s="80"/>
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
       <c r="E330" s="13"/>
@@ -44705,7 +44946,7 @@
       <c r="K330" s="13"/>
     </row>
     <row r="331" spans="2:11" ht="40" customHeight="1">
-      <c r="B331" s="81"/>
+      <c r="B331" s="80"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
       <c r="E331" s="13"/>
@@ -44717,7 +44958,7 @@
       <c r="K331" s="13"/>
     </row>
     <row r="332" spans="2:11" ht="40" customHeight="1">
-      <c r="B332" s="81"/>
+      <c r="B332" s="80"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
       <c r="E332" s="13"/>
@@ -44729,7 +44970,7 @@
       <c r="K332" s="13"/>
     </row>
     <row r="333" spans="2:11" ht="40" customHeight="1">
-      <c r="B333" s="81"/>
+      <c r="B333" s="80"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="13"/>
@@ -44741,7 +44982,7 @@
       <c r="K333" s="13"/>
     </row>
     <row r="334" spans="2:11" ht="40" customHeight="1">
-      <c r="B334" s="81"/>
+      <c r="B334" s="80"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
       <c r="E334" s="13"/>
@@ -44753,7 +44994,7 @@
       <c r="K334" s="13"/>
     </row>
     <row r="335" spans="2:11" ht="40" customHeight="1">
-      <c r="B335" s="81"/>
+      <c r="B335" s="80"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="13"/>
@@ -44765,7 +45006,7 @@
       <c r="K335" s="13"/>
     </row>
     <row r="336" spans="2:11" ht="40" customHeight="1">
-      <c r="B336" s="81"/>
+      <c r="B336" s="80"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
       <c r="E336" s="13"/>
@@ -44777,7 +45018,7 @@
       <c r="K336" s="13"/>
     </row>
     <row r="337" spans="2:11" ht="40" customHeight="1">
-      <c r="B337" s="81"/>
+      <c r="B337" s="80"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="13"/>
@@ -44789,7 +45030,7 @@
       <c r="K337" s="13"/>
     </row>
     <row r="338" spans="2:11" ht="40" customHeight="1">
-      <c r="B338" s="81"/>
+      <c r="B338" s="80"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
       <c r="E338" s="13"/>
@@ -44801,7 +45042,7 @@
       <c r="K338" s="13"/>
     </row>
     <row r="339" spans="2:11" ht="40" customHeight="1">
-      <c r="B339" s="81"/>
+      <c r="B339" s="80"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
       <c r="E339" s="13"/>
@@ -44813,7 +45054,7 @@
       <c r="K339" s="13"/>
     </row>
     <row r="340" spans="2:11" ht="40" customHeight="1">
-      <c r="B340" s="81"/>
+      <c r="B340" s="80"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
       <c r="E340" s="13"/>
@@ -44825,7 +45066,7 @@
       <c r="K340" s="13"/>
     </row>
     <row r="341" spans="2:11" ht="40" customHeight="1">
-      <c r="B341" s="81"/>
+      <c r="B341" s="80"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
       <c r="E341" s="13"/>
@@ -44837,7 +45078,7 @@
       <c r="K341" s="13"/>
     </row>
     <row r="342" spans="2:11" ht="40" customHeight="1">
-      <c r="B342" s="81"/>
+      <c r="B342" s="80"/>
       <c r="C342" s="12"/>
       <c r="D342" s="12"/>
       <c r="E342" s="13"/>
@@ -44849,7 +45090,7 @@
       <c r="K342" s="13"/>
     </row>
     <row r="343" spans="2:11" ht="40" customHeight="1">
-      <c r="B343" s="81"/>
+      <c r="B343" s="80"/>
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
       <c r="E343" s="13"/>
@@ -44861,7 +45102,7 @@
       <c r="K343" s="13"/>
     </row>
     <row r="344" spans="2:11" ht="40" customHeight="1">
-      <c r="B344" s="81"/>
+      <c r="B344" s="80"/>
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
       <c r="E344" s="13"/>
@@ -44873,7 +45114,7 @@
       <c r="K344" s="13"/>
     </row>
     <row r="345" spans="2:11" ht="40" customHeight="1">
-      <c r="B345" s="81"/>
+      <c r="B345" s="80"/>
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="13"/>
@@ -44885,7 +45126,7 @@
       <c r="K345" s="13"/>
     </row>
     <row r="346" spans="2:11" ht="40" customHeight="1">
-      <c r="B346" s="81"/>
+      <c r="B346" s="80"/>
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
       <c r="E346" s="13"/>
@@ -44897,7 +45138,7 @@
       <c r="K346" s="13"/>
     </row>
     <row r="347" spans="2:11" ht="40" customHeight="1">
-      <c r="B347" s="81"/>
+      <c r="B347" s="80"/>
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
       <c r="E347" s="13"/>
@@ -44909,7 +45150,7 @@
       <c r="K347" s="13"/>
     </row>
     <row r="348" spans="2:11" ht="40" customHeight="1">
-      <c r="B348" s="81"/>
+      <c r="B348" s="80"/>
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
       <c r="E348" s="13"/>
@@ -44921,7 +45162,7 @@
       <c r="K348" s="13"/>
     </row>
     <row r="349" spans="2:11" ht="40" customHeight="1">
-      <c r="B349" s="81"/>
+      <c r="B349" s="80"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
       <c r="E349" s="13"/>
@@ -44933,7 +45174,7 @@
       <c r="K349" s="13"/>
     </row>
     <row r="350" spans="2:11" ht="40" customHeight="1">
-      <c r="B350" s="81"/>
+      <c r="B350" s="80"/>
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
       <c r="E350" s="13"/>
@@ -44945,7 +45186,7 @@
       <c r="K350" s="13"/>
     </row>
     <row r="351" spans="2:11" ht="40" customHeight="1">
-      <c r="B351" s="81"/>
+      <c r="B351" s="80"/>
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
       <c r="E351" s="13"/>
@@ -44957,7 +45198,7 @@
       <c r="K351" s="13"/>
     </row>
     <row r="352" spans="2:11" ht="40" customHeight="1">
-      <c r="B352" s="81"/>
+      <c r="B352" s="80"/>
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="13"/>
@@ -44969,7 +45210,7 @@
       <c r="K352" s="13"/>
     </row>
     <row r="353" spans="2:11" ht="40" customHeight="1">
-      <c r="B353" s="81"/>
+      <c r="B353" s="80"/>
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="13"/>
@@ -44981,7 +45222,7 @@
       <c r="K353" s="13"/>
     </row>
     <row r="354" spans="2:11" ht="40" customHeight="1">
-      <c r="B354" s="81"/>
+      <c r="B354" s="80"/>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
       <c r="E354" s="13"/>
@@ -44993,7 +45234,7 @@
       <c r="K354" s="13"/>
     </row>
     <row r="355" spans="2:11" ht="40" customHeight="1">
-      <c r="B355" s="81"/>
+      <c r="B355" s="80"/>
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
       <c r="E355" s="13"/>
@@ -45005,7 +45246,7 @@
       <c r="K355" s="13"/>
     </row>
     <row r="356" spans="2:11" ht="40" customHeight="1">
-      <c r="B356" s="81"/>
+      <c r="B356" s="80"/>
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
       <c r="E356" s="13"/>
@@ -45017,7 +45258,7 @@
       <c r="K356" s="13"/>
     </row>
     <row r="357" spans="2:11" ht="40" customHeight="1">
-      <c r="B357" s="81"/>
+      <c r="B357" s="80"/>
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
       <c r="E357" s="13"/>
@@ -45029,7 +45270,7 @@
       <c r="K357" s="13"/>
     </row>
     <row r="358" spans="2:11" ht="40" customHeight="1">
-      <c r="B358" s="81"/>
+      <c r="B358" s="80"/>
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
       <c r="E358" s="13"/>
@@ -45041,7 +45282,7 @@
       <c r="K358" s="13"/>
     </row>
     <row r="359" spans="2:11" ht="40" customHeight="1">
-      <c r="B359" s="81"/>
+      <c r="B359" s="80"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
       <c r="E359" s="13"/>
@@ -45053,7 +45294,7 @@
       <c r="K359" s="13"/>
     </row>
     <row r="360" spans="2:11" ht="40" customHeight="1">
-      <c r="B360" s="81"/>
+      <c r="B360" s="80"/>
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
       <c r="E360" s="13"/>
@@ -45065,7 +45306,7 @@
       <c r="K360" s="13"/>
     </row>
     <row r="361" spans="2:11" ht="40" customHeight="1">
-      <c r="B361" s="81"/>
+      <c r="B361" s="80"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
       <c r="E361" s="13"/>
@@ -45077,7 +45318,7 @@
       <c r="K361" s="13"/>
     </row>
     <row r="362" spans="2:11" ht="40" customHeight="1">
-      <c r="B362" s="81"/>
+      <c r="B362" s="80"/>
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
       <c r="E362" s="13"/>
@@ -45089,7 +45330,7 @@
       <c r="K362" s="13"/>
     </row>
     <row r="363" spans="2:11" ht="40" customHeight="1">
-      <c r="B363" s="81"/>
+      <c r="B363" s="80"/>
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
       <c r="E363" s="13"/>
@@ -45101,7 +45342,7 @@
       <c r="K363" s="13"/>
     </row>
     <row r="364" spans="2:11" ht="40" customHeight="1">
-      <c r="B364" s="81"/>
+      <c r="B364" s="80"/>
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
       <c r="E364" s="13"/>
@@ -45113,7 +45354,7 @@
       <c r="K364" s="13"/>
     </row>
     <row r="365" spans="2:11" ht="40" customHeight="1">
-      <c r="B365" s="81"/>
+      <c r="B365" s="80"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
       <c r="E365" s="13"/>
@@ -45125,7 +45366,7 @@
       <c r="K365" s="13"/>
     </row>
     <row r="366" spans="2:11" ht="40" customHeight="1">
-      <c r="B366" s="81"/>
+      <c r="B366" s="80"/>
       <c r="C366" s="12"/>
       <c r="D366" s="12"/>
       <c r="E366" s="13"/>
@@ -45137,7 +45378,7 @@
       <c r="K366" s="13"/>
     </row>
     <row r="367" spans="2:11" ht="40" customHeight="1">
-      <c r="B367" s="81"/>
+      <c r="B367" s="80"/>
       <c r="C367" s="12"/>
       <c r="D367" s="12"/>
       <c r="E367" s="13"/>
@@ -45149,7 +45390,7 @@
       <c r="K367" s="13"/>
     </row>
     <row r="368" spans="2:11" ht="40" customHeight="1">
-      <c r="B368" s="81"/>
+      <c r="B368" s="80"/>
       <c r="C368" s="12"/>
       <c r="D368" s="12"/>
       <c r="E368" s="13"/>
@@ -45161,7 +45402,7 @@
       <c r="K368" s="13"/>
     </row>
     <row r="369" spans="2:11" ht="40" customHeight="1">
-      <c r="B369" s="81"/>
+      <c r="B369" s="80"/>
       <c r="C369" s="12"/>
       <c r="D369" s="12"/>
       <c r="E369" s="13"/>
@@ -45173,7 +45414,7 @@
       <c r="K369" s="13"/>
     </row>
     <row r="370" spans="2:11" ht="40" customHeight="1">
-      <c r="B370" s="81"/>
+      <c r="B370" s="80"/>
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="13"/>
@@ -45185,7 +45426,7 @@
       <c r="K370" s="13"/>
     </row>
     <row r="371" spans="2:11" ht="40" customHeight="1">
-      <c r="B371" s="81"/>
+      <c r="B371" s="80"/>
       <c r="C371" s="12"/>
       <c r="D371" s="12"/>
       <c r="E371" s="13"/>
@@ -45197,7 +45438,7 @@
       <c r="K371" s="13"/>
     </row>
     <row r="372" spans="2:11" ht="40" customHeight="1">
-      <c r="B372" s="81"/>
+      <c r="B372" s="80"/>
       <c r="C372" s="12"/>
       <c r="D372" s="12"/>
       <c r="E372" s="13"/>
@@ -45209,7 +45450,7 @@
       <c r="K372" s="13"/>
     </row>
     <row r="373" spans="2:11" ht="40" customHeight="1">
-      <c r="B373" s="81"/>
+      <c r="B373" s="80"/>
       <c r="C373" s="12"/>
       <c r="D373" s="12"/>
       <c r="E373" s="13"/>
@@ -45221,7 +45462,7 @@
       <c r="K373" s="13"/>
     </row>
     <row r="374" spans="2:11" ht="40" customHeight="1">
-      <c r="B374" s="81"/>
+      <c r="B374" s="80"/>
       <c r="C374" s="12"/>
       <c r="D374" s="12"/>
       <c r="E374" s="13"/>
@@ -45233,7 +45474,7 @@
       <c r="K374" s="13"/>
     </row>
     <row r="375" spans="2:11" ht="40" customHeight="1">
-      <c r="B375" s="81"/>
+      <c r="B375" s="80"/>
       <c r="C375" s="12"/>
       <c r="D375" s="12"/>
       <c r="E375" s="13"/>
@@ -45245,7 +45486,7 @@
       <c r="K375" s="13"/>
     </row>
     <row r="376" spans="2:11" ht="40" customHeight="1">
-      <c r="B376" s="81"/>
+      <c r="B376" s="80"/>
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
       <c r="E376" s="13"/>
@@ -45257,7 +45498,7 @@
       <c r="K376" s="13"/>
     </row>
     <row r="377" spans="2:11" ht="40" customHeight="1">
-      <c r="B377" s="81"/>
+      <c r="B377" s="80"/>
       <c r="C377" s="12"/>
       <c r="D377" s="12"/>
       <c r="E377" s="13"/>
@@ -45269,7 +45510,7 @@
       <c r="K377" s="13"/>
     </row>
     <row r="378" spans="2:11" ht="40" customHeight="1">
-      <c r="B378" s="81"/>
+      <c r="B378" s="80"/>
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
       <c r="E378" s="13"/>
@@ -45281,7 +45522,7 @@
       <c r="K378" s="13"/>
     </row>
     <row r="379" spans="2:11" ht="40" customHeight="1">
-      <c r="B379" s="81"/>
+      <c r="B379" s="80"/>
       <c r="C379" s="12"/>
       <c r="D379" s="12"/>
       <c r="E379" s="13"/>
@@ -45293,7 +45534,7 @@
       <c r="K379" s="13"/>
     </row>
     <row r="380" spans="2:11" ht="40" customHeight="1">
-      <c r="B380" s="81"/>
+      <c r="B380" s="80"/>
       <c r="C380" s="12"/>
       <c r="D380" s="12"/>
       <c r="E380" s="13"/>
@@ -45305,7 +45546,7 @@
       <c r="K380" s="13"/>
     </row>
     <row r="381" spans="2:11" ht="40" customHeight="1">
-      <c r="B381" s="81"/>
+      <c r="B381" s="80"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
       <c r="E381" s="13"/>
@@ -45317,7 +45558,7 @@
       <c r="K381" s="13"/>
     </row>
     <row r="382" spans="2:11" ht="40" customHeight="1">
-      <c r="B382" s="81"/>
+      <c r="B382" s="80"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
       <c r="E382" s="13"/>
@@ -45329,7 +45570,7 @@
       <c r="K382" s="13"/>
     </row>
     <row r="383" spans="2:11" ht="40" customHeight="1">
-      <c r="B383" s="81"/>
+      <c r="B383" s="80"/>
       <c r="C383" s="12"/>
       <c r="D383" s="12"/>
       <c r="E383" s="13"/>
@@ -45341,7 +45582,7 @@
       <c r="K383" s="13"/>
     </row>
     <row r="384" spans="2:11" ht="40" customHeight="1">
-      <c r="B384" s="81"/>
+      <c r="B384" s="80"/>
       <c r="C384" s="12"/>
       <c r="D384" s="12"/>
       <c r="E384" s="13"/>
@@ -45353,7 +45594,7 @@
       <c r="K384" s="13"/>
     </row>
     <row r="385" spans="2:11" ht="40" customHeight="1">
-      <c r="B385" s="81"/>
+      <c r="B385" s="80"/>
       <c r="C385" s="12"/>
       <c r="D385" s="12"/>
       <c r="E385" s="13"/>
@@ -45365,7 +45606,7 @@
       <c r="K385" s="13"/>
     </row>
     <row r="386" spans="2:11" ht="40" customHeight="1">
-      <c r="B386" s="81"/>
+      <c r="B386" s="80"/>
       <c r="C386" s="12"/>
       <c r="D386" s="12"/>
       <c r="E386" s="13"/>
@@ -45377,7 +45618,7 @@
       <c r="K386" s="13"/>
     </row>
     <row r="387" spans="2:11" ht="40" customHeight="1">
-      <c r="B387" s="81"/>
+      <c r="B387" s="80"/>
       <c r="C387" s="12"/>
       <c r="D387" s="12"/>
       <c r="E387" s="13"/>
@@ -45389,7 +45630,7 @@
       <c r="K387" s="13"/>
     </row>
     <row r="388" spans="2:11" ht="40" customHeight="1">
-      <c r="B388" s="81"/>
+      <c r="B388" s="80"/>
       <c r="C388" s="12"/>
       <c r="D388" s="12"/>
       <c r="E388" s="13"/>
@@ -45401,7 +45642,7 @@
       <c r="K388" s="13"/>
     </row>
     <row r="389" spans="2:11" ht="40" customHeight="1">
-      <c r="B389" s="81"/>
+      <c r="B389" s="80"/>
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
       <c r="E389" s="13"/>
@@ -45413,7 +45654,7 @@
       <c r="K389" s="13"/>
     </row>
     <row r="390" spans="2:11" ht="40" customHeight="1">
-      <c r="B390" s="81"/>
+      <c r="B390" s="80"/>
       <c r="C390" s="12"/>
       <c r="D390" s="12"/>
       <c r="E390" s="13"/>
@@ -45425,7 +45666,7 @@
       <c r="K390" s="13"/>
     </row>
     <row r="391" spans="2:11" ht="40" customHeight="1">
-      <c r="B391" s="81"/>
+      <c r="B391" s="80"/>
       <c r="C391" s="12"/>
       <c r="D391" s="12"/>
       <c r="E391" s="13"/>
@@ -45437,7 +45678,7 @@
       <c r="K391" s="13"/>
     </row>
     <row r="392" spans="2:11" ht="40" customHeight="1">
-      <c r="B392" s="81"/>
+      <c r="B392" s="80"/>
       <c r="C392" s="12"/>
       <c r="D392" s="12"/>
       <c r="E392" s="13"/>
@@ -45449,7 +45690,7 @@
       <c r="K392" s="13"/>
     </row>
     <row r="393" spans="2:11" ht="40" customHeight="1">
-      <c r="B393" s="81"/>
+      <c r="B393" s="80"/>
       <c r="C393" s="12"/>
       <c r="D393" s="12"/>
       <c r="E393" s="13"/>
@@ -45461,7 +45702,7 @@
       <c r="K393" s="13"/>
     </row>
     <row r="394" spans="2:11" ht="40" customHeight="1">
-      <c r="B394" s="81"/>
+      <c r="B394" s="80"/>
       <c r="C394" s="12"/>
       <c r="D394" s="12"/>
       <c r="E394" s="13"/>
@@ -45473,7 +45714,7 @@
       <c r="K394" s="13"/>
     </row>
     <row r="395" spans="2:11" ht="40" customHeight="1">
-      <c r="B395" s="81"/>
+      <c r="B395" s="80"/>
       <c r="C395" s="12"/>
       <c r="D395" s="12"/>
       <c r="E395" s="13"/>
@@ -45485,7 +45726,7 @@
       <c r="K395" s="13"/>
     </row>
     <row r="396" spans="2:11" ht="40" customHeight="1">
-      <c r="B396" s="81"/>
+      <c r="B396" s="80"/>
       <c r="C396" s="12"/>
       <c r="D396" s="12"/>
       <c r="E396" s="13"/>
@@ -45497,7 +45738,7 @@
       <c r="K396" s="13"/>
     </row>
     <row r="397" spans="2:11" ht="40" customHeight="1">
-      <c r="B397" s="81"/>
+      <c r="B397" s="80"/>
       <c r="C397" s="12"/>
       <c r="D397" s="12"/>
       <c r="E397" s="13"/>
@@ -45509,7 +45750,7 @@
       <c r="K397" s="13"/>
     </row>
     <row r="398" spans="2:11" ht="40" customHeight="1">
-      <c r="B398" s="81"/>
+      <c r="B398" s="80"/>
       <c r="C398" s="12"/>
       <c r="D398" s="12"/>
       <c r="E398" s="13"/>
@@ -45521,7 +45762,7 @@
       <c r="K398" s="13"/>
     </row>
     <row r="399" spans="2:11" ht="40" customHeight="1">
-      <c r="B399" s="81"/>
+      <c r="B399" s="80"/>
       <c r="C399" s="12"/>
       <c r="D399" s="12"/>
       <c r="E399" s="13"/>
@@ -45533,7 +45774,7 @@
       <c r="K399" s="13"/>
     </row>
     <row r="400" spans="2:11" ht="40" customHeight="1">
-      <c r="B400" s="81"/>
+      <c r="B400" s="80"/>
       <c r="C400" s="12"/>
       <c r="D400" s="12"/>
       <c r="E400" s="13"/>
@@ -45545,7 +45786,7 @@
       <c r="K400" s="13"/>
     </row>
     <row r="401" spans="2:11" ht="40" customHeight="1">
-      <c r="B401" s="81"/>
+      <c r="B401" s="80"/>
       <c r="C401" s="12"/>
       <c r="D401" s="12"/>
       <c r="E401" s="13"/>
@@ -45557,7 +45798,7 @@
       <c r="K401" s="13"/>
     </row>
     <row r="402" spans="2:11" ht="40" customHeight="1">
-      <c r="B402" s="81"/>
+      <c r="B402" s="80"/>
       <c r="C402" s="12"/>
       <c r="D402" s="12"/>
       <c r="E402" s="13"/>
@@ -45569,7 +45810,7 @@
       <c r="K402" s="13"/>
     </row>
     <row r="403" spans="2:11" ht="40" customHeight="1">
-      <c r="B403" s="81"/>
+      <c r="B403" s="80"/>
       <c r="C403" s="12"/>
       <c r="D403" s="12"/>
       <c r="E403" s="13"/>
@@ -45581,7 +45822,7 @@
       <c r="K403" s="13"/>
     </row>
     <row r="404" spans="2:11" ht="40" customHeight="1">
-      <c r="B404" s="81"/>
+      <c r="B404" s="80"/>
       <c r="C404" s="12"/>
       <c r="D404" s="12"/>
       <c r="E404" s="13"/>
@@ -45593,7 +45834,7 @@
       <c r="K404" s="13"/>
     </row>
     <row r="405" spans="2:11" ht="40" customHeight="1">
-      <c r="B405" s="81"/>
+      <c r="B405" s="80"/>
       <c r="C405" s="12"/>
       <c r="D405" s="12"/>
       <c r="E405" s="13"/>
@@ -45605,7 +45846,7 @@
       <c r="K405" s="13"/>
     </row>
     <row r="406" spans="2:11" ht="40" customHeight="1">
-      <c r="B406" s="81"/>
+      <c r="B406" s="80"/>
       <c r="C406" s="12"/>
       <c r="D406" s="12"/>
       <c r="E406" s="13"/>
@@ -45617,7 +45858,7 @@
       <c r="K406" s="13"/>
     </row>
     <row r="407" spans="2:11" ht="40" customHeight="1">
-      <c r="B407" s="81"/>
+      <c r="B407" s="80"/>
       <c r="C407" s="12"/>
       <c r="D407" s="12"/>
       <c r="E407" s="13"/>
@@ -45629,7 +45870,7 @@
       <c r="K407" s="13"/>
     </row>
     <row r="408" spans="2:11" ht="40" customHeight="1">
-      <c r="B408" s="81"/>
+      <c r="B408" s="80"/>
       <c r="C408" s="12"/>
       <c r="D408" s="12"/>
       <c r="E408" s="13"/>
@@ -45641,7 +45882,7 @@
       <c r="K408" s="13"/>
     </row>
     <row r="409" spans="2:11" ht="40" customHeight="1">
-      <c r="B409" s="81"/>
+      <c r="B409" s="80"/>
       <c r="C409" s="12"/>
       <c r="D409" s="12"/>
       <c r="E409" s="13"/>
@@ -45653,7 +45894,7 @@
       <c r="K409" s="13"/>
     </row>
     <row r="410" spans="2:11" ht="40" customHeight="1">
-      <c r="B410" s="81"/>
+      <c r="B410" s="80"/>
       <c r="C410" s="12"/>
       <c r="D410" s="12"/>
       <c r="E410" s="13"/>
@@ -45665,7 +45906,7 @@
       <c r="K410" s="13"/>
     </row>
     <row r="411" spans="2:11" ht="40" customHeight="1">
-      <c r="B411" s="81"/>
+      <c r="B411" s="80"/>
       <c r="C411" s="12"/>
       <c r="D411" s="12"/>
       <c r="E411" s="13"/>
@@ -45677,7 +45918,7 @@
       <c r="K411" s="13"/>
     </row>
     <row r="412" spans="2:11" ht="40" customHeight="1">
-      <c r="B412" s="81"/>
+      <c r="B412" s="80"/>
       <c r="C412" s="12"/>
       <c r="D412" s="12"/>
       <c r="E412" s="13"/>
@@ -45689,7 +45930,7 @@
       <c r="K412" s="13"/>
     </row>
     <row r="413" spans="2:11" ht="40" customHeight="1">
-      <c r="B413" s="81"/>
+      <c r="B413" s="80"/>
       <c r="C413" s="12"/>
       <c r="D413" s="12"/>
       <c r="E413" s="13"/>
@@ -45701,7 +45942,7 @@
       <c r="K413" s="13"/>
     </row>
     <row r="414" spans="2:11" ht="40" customHeight="1">
-      <c r="B414" s="81"/>
+      <c r="B414" s="80"/>
       <c r="C414" s="12"/>
       <c r="D414" s="12"/>
       <c r="E414" s="13"/>
@@ -45713,7 +45954,7 @@
       <c r="K414" s="13"/>
     </row>
     <row r="415" spans="2:11" ht="40" customHeight="1">
-      <c r="B415" s="81"/>
+      <c r="B415" s="80"/>
       <c r="C415" s="12"/>
       <c r="D415" s="12"/>
       <c r="E415" s="13"/>
@@ -45725,7 +45966,7 @@
       <c r="K415" s="13"/>
     </row>
     <row r="416" spans="2:11" ht="40" customHeight="1">
-      <c r="B416" s="81"/>
+      <c r="B416" s="80"/>
       <c r="C416" s="12"/>
       <c r="D416" s="12"/>
       <c r="E416" s="13"/>
@@ -45737,7 +45978,7 @@
       <c r="K416" s="13"/>
     </row>
     <row r="417" spans="2:11" ht="40" customHeight="1">
-      <c r="B417" s="81"/>
+      <c r="B417" s="80"/>
       <c r="C417" s="12"/>
       <c r="D417" s="12"/>
       <c r="E417" s="13"/>
@@ -45749,7 +45990,7 @@
       <c r="K417" s="13"/>
     </row>
     <row r="418" spans="2:11" ht="40" customHeight="1">
-      <c r="B418" s="81"/>
+      <c r="B418" s="80"/>
       <c r="C418" s="12"/>
       <c r="D418" s="12"/>
       <c r="E418" s="13"/>
@@ -45761,7 +46002,7 @@
       <c r="K418" s="13"/>
     </row>
     <row r="419" spans="2:11" ht="40" customHeight="1">
-      <c r="B419" s="81"/>
+      <c r="B419" s="80"/>
       <c r="C419" s="12"/>
       <c r="D419" s="12"/>
       <c r="E419" s="13"/>
@@ -45773,7 +46014,7 @@
       <c r="K419" s="13"/>
     </row>
     <row r="420" spans="2:11" ht="40" customHeight="1">
-      <c r="B420" s="81"/>
+      <c r="B420" s="80"/>
       <c r="C420" s="12"/>
       <c r="D420" s="12"/>
       <c r="E420" s="13"/>
@@ -45785,7 +46026,7 @@
       <c r="K420" s="13"/>
     </row>
     <row r="421" spans="2:11" ht="40" customHeight="1">
-      <c r="B421" s="81"/>
+      <c r="B421" s="80"/>
       <c r="C421" s="12"/>
       <c r="D421" s="12"/>
       <c r="E421" s="13"/>
@@ -45797,7 +46038,7 @@
       <c r="K421" s="13"/>
     </row>
     <row r="422" spans="2:11" ht="40" customHeight="1">
-      <c r="B422" s="81"/>
+      <c r="B422" s="80"/>
       <c r="C422" s="12"/>
       <c r="D422" s="12"/>
       <c r="E422" s="13"/>
@@ -45809,7 +46050,7 @@
       <c r="K422" s="13"/>
     </row>
     <row r="423" spans="2:11" ht="40" customHeight="1">
-      <c r="B423" s="81"/>
+      <c r="B423" s="80"/>
       <c r="C423" s="12"/>
       <c r="D423" s="12"/>
       <c r="E423" s="13"/>
@@ -45821,7 +46062,7 @@
       <c r="K423" s="13"/>
     </row>
     <row r="424" spans="2:11" ht="40" customHeight="1">
-      <c r="B424" s="81"/>
+      <c r="B424" s="80"/>
       <c r="C424" s="12"/>
       <c r="D424" s="12"/>
       <c r="E424" s="13"/>
@@ -45833,7 +46074,7 @@
       <c r="K424" s="13"/>
     </row>
     <row r="425" spans="2:11" ht="40" customHeight="1">
-      <c r="B425" s="81"/>
+      <c r="B425" s="80"/>
       <c r="C425" s="12"/>
       <c r="D425" s="12"/>
       <c r="E425" s="13"/>
@@ -45845,7 +46086,7 @@
       <c r="K425" s="13"/>
     </row>
     <row r="426" spans="2:11" ht="40" customHeight="1">
-      <c r="B426" s="81"/>
+      <c r="B426" s="80"/>
       <c r="C426" s="12"/>
       <c r="D426" s="12"/>
       <c r="E426" s="13"/>
@@ -45857,7 +46098,7 @@
       <c r="K426" s="13"/>
     </row>
     <row r="427" spans="2:11" ht="40" customHeight="1">
-      <c r="B427" s="81"/>
+      <c r="B427" s="80"/>
       <c r="C427" s="12"/>
       <c r="D427" s="12"/>
       <c r="E427" s="13"/>
@@ -45869,7 +46110,7 @@
       <c r="K427" s="13"/>
     </row>
     <row r="428" spans="2:11" ht="40" customHeight="1">
-      <c r="B428" s="81"/>
+      <c r="B428" s="80"/>
       <c r="C428" s="12"/>
       <c r="D428" s="12"/>
       <c r="E428" s="13"/>
@@ -45881,7 +46122,7 @@
       <c r="K428" s="13"/>
     </row>
     <row r="429" spans="2:11" ht="40" customHeight="1">
-      <c r="B429" s="81"/>
+      <c r="B429" s="80"/>
       <c r="C429" s="12"/>
       <c r="D429" s="12"/>
       <c r="E429" s="13"/>
@@ -45893,7 +46134,7 @@
       <c r="K429" s="13"/>
     </row>
     <row r="430" spans="2:11" ht="40" customHeight="1">
-      <c r="B430" s="81"/>
+      <c r="B430" s="80"/>
       <c r="C430" s="12"/>
       <c r="D430" s="12"/>
       <c r="E430" s="13"/>
@@ -45905,7 +46146,7 @@
       <c r="K430" s="13"/>
     </row>
     <row r="431" spans="2:11" ht="40" customHeight="1">
-      <c r="B431" s="81"/>
+      <c r="B431" s="80"/>
       <c r="C431" s="12"/>
       <c r="D431" s="12"/>
       <c r="E431" s="13"/>
@@ -45917,7 +46158,7 @@
       <c r="K431" s="13"/>
     </row>
     <row r="432" spans="2:11" ht="40" customHeight="1">
-      <c r="B432" s="81"/>
+      <c r="B432" s="80"/>
       <c r="C432" s="12"/>
       <c r="D432" s="12"/>
       <c r="E432" s="13"/>
@@ -45929,7 +46170,7 @@
       <c r="K432" s="13"/>
     </row>
     <row r="433" spans="2:11" ht="40" customHeight="1">
-      <c r="B433" s="81"/>
+      <c r="B433" s="80"/>
       <c r="C433" s="12"/>
       <c r="D433" s="12"/>
       <c r="E433" s="13"/>
@@ -45941,7 +46182,7 @@
       <c r="K433" s="13"/>
     </row>
     <row r="434" spans="2:11" ht="40" customHeight="1">
-      <c r="B434" s="81"/>
+      <c r="B434" s="80"/>
       <c r="C434" s="12"/>
       <c r="D434" s="12"/>
       <c r="E434" s="13"/>
@@ -45953,7 +46194,7 @@
       <c r="K434" s="13"/>
     </row>
     <row r="435" spans="2:11" ht="40" customHeight="1">
-      <c r="B435" s="81"/>
+      <c r="B435" s="80"/>
       <c r="C435" s="12"/>
       <c r="D435" s="12"/>
       <c r="E435" s="13"/>
@@ -45965,7 +46206,7 @@
       <c r="K435" s="13"/>
     </row>
     <row r="436" spans="2:11" ht="40" customHeight="1">
-      <c r="B436" s="81"/>
+      <c r="B436" s="80"/>
       <c r="C436" s="12"/>
       <c r="D436" s="12"/>
       <c r="E436" s="13"/>
@@ -45977,7 +46218,7 @@
       <c r="K436" s="13"/>
     </row>
     <row r="437" spans="2:11" ht="40" customHeight="1">
-      <c r="B437" s="81"/>
+      <c r="B437" s="80"/>
       <c r="C437" s="12"/>
       <c r="D437" s="12"/>
       <c r="E437" s="13"/>
@@ -45989,7 +46230,7 @@
       <c r="K437" s="13"/>
     </row>
     <row r="438" spans="2:11" ht="40" customHeight="1">
-      <c r="B438" s="81"/>
+      <c r="B438" s="80"/>
       <c r="C438" s="12"/>
       <c r="D438" s="12"/>
       <c r="E438" s="13"/>
@@ -46001,7 +46242,7 @@
       <c r="K438" s="13"/>
     </row>
     <row r="439" spans="2:11" ht="40" customHeight="1">
-      <c r="B439" s="81"/>
+      <c r="B439" s="80"/>
       <c r="C439" s="12"/>
       <c r="D439" s="12"/>
       <c r="E439" s="13"/>
@@ -46013,7 +46254,7 @@
       <c r="K439" s="13"/>
     </row>
     <row r="440" spans="2:11" ht="40" customHeight="1">
-      <c r="B440" s="81"/>
+      <c r="B440" s="80"/>
       <c r="C440" s="12"/>
       <c r="D440" s="12"/>
       <c r="E440" s="13"/>
@@ -46025,7 +46266,7 @@
       <c r="K440" s="13"/>
     </row>
     <row r="441" spans="2:11" ht="40" customHeight="1">
-      <c r="B441" s="81"/>
+      <c r="B441" s="80"/>
       <c r="C441" s="12"/>
       <c r="D441" s="12"/>
       <c r="E441" s="13"/>
@@ -46037,7 +46278,7 @@
       <c r="K441" s="13"/>
     </row>
     <row r="442" spans="2:11" ht="40" customHeight="1">
-      <c r="B442" s="81"/>
+      <c r="B442" s="80"/>
       <c r="C442" s="12"/>
       <c r="D442" s="12"/>
       <c r="E442" s="13"/>
@@ -46049,7 +46290,7 @@
       <c r="K442" s="13"/>
     </row>
     <row r="443" spans="2:11" ht="40" customHeight="1">
-      <c r="B443" s="81"/>
+      <c r="B443" s="80"/>
       <c r="C443" s="12"/>
       <c r="D443" s="12"/>
       <c r="E443" s="13"/>
@@ -46061,7 +46302,7 @@
       <c r="K443" s="13"/>
     </row>
     <row r="444" spans="2:11" ht="40" customHeight="1">
-      <c r="B444" s="81"/>
+      <c r="B444" s="80"/>
       <c r="C444" s="12"/>
       <c r="D444" s="12"/>
       <c r="E444" s="13"/>
@@ -46073,7 +46314,7 @@
       <c r="K444" s="13"/>
     </row>
     <row r="445" spans="2:11" ht="40" customHeight="1">
-      <c r="B445" s="81"/>
+      <c r="B445" s="80"/>
       <c r="C445" s="12"/>
       <c r="D445" s="12"/>
       <c r="E445" s="13"/>
@@ -46085,7 +46326,7 @@
       <c r="K445" s="13"/>
     </row>
     <row r="446" spans="2:11" ht="40" customHeight="1">
-      <c r="B446" s="81"/>
+      <c r="B446" s="80"/>
       <c r="C446" s="12"/>
       <c r="D446" s="12"/>
       <c r="E446" s="13"/>
@@ -46097,7 +46338,7 @@
       <c r="K446" s="13"/>
     </row>
     <row r="447" spans="2:11" ht="40" customHeight="1">
-      <c r="B447" s="81"/>
+      <c r="B447" s="80"/>
       <c r="C447" s="12"/>
       <c r="D447" s="12"/>
       <c r="E447" s="13"/>
@@ -46109,7 +46350,7 @@
       <c r="K447" s="13"/>
     </row>
     <row r="448" spans="2:11" ht="40" customHeight="1">
-      <c r="B448" s="81"/>
+      <c r="B448" s="80"/>
       <c r="C448" s="12"/>
       <c r="D448" s="12"/>
       <c r="E448" s="13"/>
@@ -46121,7 +46362,7 @@
       <c r="K448" s="13"/>
     </row>
     <row r="449" spans="2:11" ht="40" customHeight="1">
-      <c r="B449" s="81"/>
+      <c r="B449" s="80"/>
       <c r="C449" s="12"/>
       <c r="D449" s="12"/>
       <c r="E449" s="13"/>
@@ -46133,7 +46374,7 @@
       <c r="K449" s="13"/>
     </row>
     <row r="450" spans="2:11" ht="40" customHeight="1">
-      <c r="B450" s="81"/>
+      <c r="B450" s="80"/>
       <c r="C450" s="12"/>
       <c r="D450" s="12"/>
       <c r="E450" s="13"/>
@@ -46145,7 +46386,7 @@
       <c r="K450" s="13"/>
     </row>
     <row r="451" spans="2:11" ht="40" customHeight="1">
-      <c r="B451" s="81"/>
+      <c r="B451" s="80"/>
       <c r="C451" s="12"/>
       <c r="D451" s="12"/>
       <c r="E451" s="13"/>
@@ -46157,7 +46398,7 @@
       <c r="K451" s="13"/>
     </row>
     <row r="452" spans="2:11" ht="40" customHeight="1">
-      <c r="B452" s="81"/>
+      <c r="B452" s="80"/>
       <c r="C452" s="12"/>
       <c r="D452" s="12"/>
       <c r="E452" s="13"/>
@@ -46169,7 +46410,7 @@
       <c r="K452" s="13"/>
     </row>
     <row r="453" spans="2:11" ht="40" customHeight="1">
-      <c r="B453" s="81"/>
+      <c r="B453" s="80"/>
       <c r="C453" s="12"/>
       <c r="D453" s="12"/>
       <c r="E453" s="13"/>
@@ -46181,7 +46422,7 @@
       <c r="K453" s="13"/>
     </row>
     <row r="454" spans="2:11" ht="40" customHeight="1">
-      <c r="B454" s="81"/>
+      <c r="B454" s="80"/>
       <c r="C454" s="12"/>
       <c r="D454" s="12"/>
       <c r="E454" s="13"/>
@@ -46193,7 +46434,7 @@
       <c r="K454" s="13"/>
     </row>
     <row r="455" spans="2:11" ht="40" customHeight="1">
-      <c r="B455" s="81"/>
+      <c r="B455" s="80"/>
       <c r="C455" s="12"/>
       <c r="D455" s="12"/>
       <c r="E455" s="13"/>
@@ -46205,7 +46446,7 @@
       <c r="K455" s="13"/>
     </row>
     <row r="456" spans="2:11" ht="40" customHeight="1">
-      <c r="B456" s="81"/>
+      <c r="B456" s="80"/>
       <c r="C456" s="12"/>
       <c r="D456" s="12"/>
       <c r="E456" s="13"/>
@@ -46217,7 +46458,7 @@
       <c r="K456" s="13"/>
     </row>
     <row r="457" spans="2:11" ht="40" customHeight="1">
-      <c r="B457" s="81"/>
+      <c r="B457" s="80"/>
       <c r="C457" s="12"/>
       <c r="D457" s="12"/>
       <c r="E457" s="13"/>
@@ -46229,7 +46470,7 @@
       <c r="K457" s="13"/>
     </row>
     <row r="458" spans="2:11" ht="40" customHeight="1">
-      <c r="B458" s="81"/>
+      <c r="B458" s="80"/>
       <c r="C458" s="12"/>
       <c r="D458" s="12"/>
       <c r="E458" s="13"/>
@@ -46241,7 +46482,7 @@
       <c r="K458" s="13"/>
     </row>
     <row r="459" spans="2:11" ht="40" customHeight="1">
-      <c r="B459" s="81"/>
+      <c r="B459" s="80"/>
       <c r="C459" s="12"/>
       <c r="D459" s="12"/>
       <c r="E459" s="13"/>
@@ -46253,7 +46494,7 @@
       <c r="K459" s="13"/>
     </row>
     <row r="460" spans="2:11" ht="40" customHeight="1">
-      <c r="B460" s="81"/>
+      <c r="B460" s="80"/>
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="13"/>
@@ -46265,7 +46506,7 @@
       <c r="K460" s="13"/>
     </row>
     <row r="461" spans="2:11" ht="40" customHeight="1">
-      <c r="B461" s="81"/>
+      <c r="B461" s="80"/>
       <c r="C461" s="12"/>
       <c r="D461" s="12"/>
       <c r="E461" s="13"/>
@@ -46277,7 +46518,7 @@
       <c r="K461" s="13"/>
     </row>
     <row r="462" spans="2:11" ht="40" customHeight="1">
-      <c r="B462" s="81"/>
+      <c r="B462" s="80"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
       <c r="E462" s="13"/>
@@ -46289,7 +46530,7 @@
       <c r="K462" s="13"/>
     </row>
     <row r="463" spans="2:11" ht="40" customHeight="1">
-      <c r="B463" s="81"/>
+      <c r="B463" s="80"/>
       <c r="C463" s="12"/>
       <c r="D463" s="12"/>
       <c r="E463" s="13"/>
@@ -46301,7 +46542,7 @@
       <c r="K463" s="13"/>
     </row>
     <row r="464" spans="2:11" ht="40" customHeight="1">
-      <c r="B464" s="81"/>
+      <c r="B464" s="80"/>
       <c r="C464" s="12"/>
       <c r="D464" s="12"/>
       <c r="E464" s="13"/>
@@ -46313,7 +46554,7 @@
       <c r="K464" s="13"/>
     </row>
     <row r="465" spans="2:11" ht="40" customHeight="1">
-      <c r="B465" s="81"/>
+      <c r="B465" s="80"/>
       <c r="C465" s="12"/>
       <c r="D465" s="12"/>
       <c r="E465" s="13"/>
@@ -46325,7 +46566,7 @@
       <c r="K465" s="13"/>
     </row>
     <row r="466" spans="2:11" ht="40" customHeight="1">
-      <c r="B466" s="81"/>
+      <c r="B466" s="80"/>
       <c r="C466" s="12"/>
       <c r="D466" s="12"/>
       <c r="E466" s="13"/>
@@ -46337,7 +46578,7 @@
       <c r="K466" s="13"/>
     </row>
     <row r="467" spans="2:11" ht="40" customHeight="1">
-      <c r="B467" s="81"/>
+      <c r="B467" s="80"/>
       <c r="C467" s="12"/>
       <c r="D467" s="12"/>
       <c r="E467" s="13"/>
@@ -46349,7 +46590,7 @@
       <c r="K467" s="13"/>
     </row>
     <row r="468" spans="2:11" ht="40" customHeight="1">
-      <c r="B468" s="81"/>
+      <c r="B468" s="80"/>
       <c r="C468" s="12"/>
       <c r="D468" s="12"/>
       <c r="E468" s="13"/>
@@ -46361,7 +46602,7 @@
       <c r="K468" s="13"/>
     </row>
     <row r="469" spans="2:11" ht="40" customHeight="1">
-      <c r="B469" s="81"/>
+      <c r="B469" s="80"/>
       <c r="C469" s="12"/>
       <c r="D469" s="12"/>
       <c r="E469" s="13"/>
@@ -46373,7 +46614,7 @@
       <c r="K469" s="13"/>
     </row>
     <row r="470" spans="2:11" ht="40" customHeight="1">
-      <c r="B470" s="81"/>
+      <c r="B470" s="80"/>
       <c r="C470" s="12"/>
       <c r="D470" s="12"/>
       <c r="E470" s="13"/>
@@ -46385,7 +46626,7 @@
       <c r="K470" s="13"/>
     </row>
     <row r="471" spans="2:11" ht="40" customHeight="1">
-      <c r="B471" s="81"/>
+      <c r="B471" s="80"/>
       <c r="C471" s="12"/>
       <c r="D471" s="12"/>
       <c r="E471" s="13"/>
@@ -46397,7 +46638,7 @@
       <c r="K471" s="13"/>
     </row>
     <row r="472" spans="2:11" ht="40" customHeight="1">
-      <c r="B472" s="81"/>
+      <c r="B472" s="80"/>
       <c r="C472" s="12"/>
       <c r="D472" s="12"/>
       <c r="E472" s="13"/>
@@ -46409,7 +46650,7 @@
       <c r="K472" s="13"/>
     </row>
     <row r="473" spans="2:11" ht="40" customHeight="1">
-      <c r="B473" s="81"/>
+      <c r="B473" s="80"/>
       <c r="C473" s="12"/>
       <c r="D473" s="12"/>
       <c r="E473" s="13"/>
@@ -46421,7 +46662,7 @@
       <c r="K473" s="13"/>
     </row>
     <row r="474" spans="2:11" ht="40" customHeight="1">
-      <c r="B474" s="81"/>
+      <c r="B474" s="80"/>
       <c r="C474" s="12"/>
       <c r="D474" s="12"/>
       <c r="E474" s="13"/>
@@ -46433,7 +46674,7 @@
       <c r="K474" s="13"/>
     </row>
     <row r="475" spans="2:11" ht="40" customHeight="1">
-      <c r="B475" s="81"/>
+      <c r="B475" s="80"/>
       <c r="C475" s="12"/>
       <c r="D475" s="12"/>
       <c r="E475" s="13"/>
@@ -46445,7 +46686,7 @@
       <c r="K475" s="13"/>
     </row>
     <row r="476" spans="2:11" ht="40" customHeight="1">
-      <c r="B476" s="81"/>
+      <c r="B476" s="80"/>
       <c r="C476" s="12"/>
       <c r="D476" s="12"/>
       <c r="E476" s="13"/>
@@ -46457,7 +46698,7 @@
       <c r="K476" s="13"/>
     </row>
     <row r="477" spans="2:11" ht="40" customHeight="1">
-      <c r="B477" s="81"/>
+      <c r="B477" s="80"/>
       <c r="C477" s="12"/>
       <c r="D477" s="12"/>
       <c r="E477" s="13"/>
@@ -46469,7 +46710,7 @@
       <c r="K477" s="13"/>
     </row>
     <row r="478" spans="2:11" ht="40" customHeight="1">
-      <c r="B478" s="81"/>
+      <c r="B478" s="80"/>
       <c r="C478" s="12"/>
       <c r="D478" s="12"/>
       <c r="E478" s="13"/>
@@ -46481,7 +46722,7 @@
       <c r="K478" s="13"/>
     </row>
     <row r="479" spans="2:11" ht="40" customHeight="1">
-      <c r="B479" s="81"/>
+      <c r="B479" s="80"/>
       <c r="C479" s="12"/>
       <c r="D479" s="12"/>
       <c r="E479" s="13"/>
@@ -46493,7 +46734,7 @@
       <c r="K479" s="13"/>
     </row>
     <row r="480" spans="2:11" ht="40" customHeight="1">
-      <c r="B480" s="81"/>
+      <c r="B480" s="80"/>
       <c r="C480" s="12"/>
       <c r="D480" s="12"/>
       <c r="E480" s="13"/>
@@ -46505,7 +46746,7 @@
       <c r="K480" s="13"/>
     </row>
     <row r="481" spans="2:11" ht="40" customHeight="1">
-      <c r="B481" s="81"/>
+      <c r="B481" s="80"/>
       <c r="C481" s="12"/>
       <c r="D481" s="12"/>
       <c r="E481" s="13"/>
@@ -46517,7 +46758,7 @@
       <c r="K481" s="13"/>
     </row>
     <row r="482" spans="2:11" ht="40" customHeight="1">
-      <c r="B482" s="81"/>
+      <c r="B482" s="80"/>
       <c r="C482" s="12"/>
       <c r="D482" s="12"/>
       <c r="E482" s="13"/>
@@ -46529,7 +46770,7 @@
       <c r="K482" s="13"/>
     </row>
     <row r="483" spans="2:11" ht="40" customHeight="1">
-      <c r="B483" s="81"/>
+      <c r="B483" s="80"/>
       <c r="C483" s="12"/>
       <c r="D483" s="12"/>
       <c r="E483" s="13"/>
@@ -46541,7 +46782,7 @@
       <c r="K483" s="13"/>
     </row>
     <row r="484" spans="2:11" ht="40" customHeight="1">
-      <c r="B484" s="81"/>
+      <c r="B484" s="80"/>
       <c r="C484" s="12"/>
       <c r="D484" s="12"/>
       <c r="E484" s="13"/>
@@ -46553,7 +46794,7 @@
       <c r="K484" s="13"/>
     </row>
     <row r="485" spans="2:11" ht="40" customHeight="1">
-      <c r="B485" s="81"/>
+      <c r="B485" s="80"/>
       <c r="C485" s="12"/>
       <c r="D485" s="12"/>
       <c r="E485" s="13"/>
@@ -46565,7 +46806,7 @@
       <c r="K485" s="13"/>
     </row>
     <row r="486" spans="2:11" ht="40" customHeight="1">
-      <c r="B486" s="81"/>
+      <c r="B486" s="80"/>
       <c r="C486" s="12"/>
       <c r="D486" s="12"/>
       <c r="E486" s="13"/>
@@ -46577,7 +46818,7 @@
       <c r="K486" s="13"/>
     </row>
     <row r="487" spans="2:11" ht="40" customHeight="1">
-      <c r="B487" s="81"/>
+      <c r="B487" s="80"/>
       <c r="C487" s="12"/>
       <c r="D487" s="12"/>
       <c r="E487" s="13"/>
@@ -46589,7 +46830,7 @@
       <c r="K487" s="13"/>
     </row>
     <row r="488" spans="2:11" ht="40" customHeight="1">
-      <c r="B488" s="81"/>
+      <c r="B488" s="80"/>
       <c r="C488" s="12"/>
       <c r="D488" s="12"/>
       <c r="E488" s="13"/>
@@ -46601,7 +46842,7 @@
       <c r="K488" s="13"/>
     </row>
     <row r="489" spans="2:11" ht="40" customHeight="1">
-      <c r="B489" s="81"/>
+      <c r="B489" s="80"/>
       <c r="C489" s="12"/>
       <c r="D489" s="12"/>
       <c r="E489" s="13"/>
@@ -46613,7 +46854,7 @@
       <c r="K489" s="13"/>
     </row>
     <row r="490" spans="2:11" ht="40" customHeight="1">
-      <c r="B490" s="81"/>
+      <c r="B490" s="80"/>
       <c r="C490" s="12"/>
       <c r="D490" s="12"/>
       <c r="E490" s="13"/>
@@ -46625,7 +46866,7 @@
       <c r="K490" s="13"/>
     </row>
     <row r="491" spans="2:11" ht="40" customHeight="1">
-      <c r="B491" s="81"/>
+      <c r="B491" s="80"/>
       <c r="C491" s="12"/>
       <c r="D491" s="12"/>
       <c r="E491" s="13"/>
@@ -46637,7 +46878,7 @@
       <c r="K491" s="13"/>
     </row>
     <row r="492" spans="2:11" ht="40" customHeight="1">
-      <c r="B492" s="81"/>
+      <c r="B492" s="80"/>
       <c r="C492" s="12"/>
       <c r="D492" s="12"/>
       <c r="E492" s="13"/>
@@ -46649,7 +46890,7 @@
       <c r="K492" s="13"/>
     </row>
     <row r="493" spans="2:11" ht="40" customHeight="1">
-      <c r="B493" s="81"/>
+      <c r="B493" s="80"/>
       <c r="C493" s="12"/>
       <c r="D493" s="12"/>
       <c r="E493" s="13"/>
@@ -46661,7 +46902,7 @@
       <c r="K493" s="13"/>
     </row>
     <row r="494" spans="2:11" ht="40" customHeight="1">
-      <c r="B494" s="81"/>
+      <c r="B494" s="80"/>
       <c r="C494" s="12"/>
       <c r="D494" s="12"/>
       <c r="E494" s="13"/>
@@ -46673,7 +46914,7 @@
       <c r="K494" s="13"/>
     </row>
     <row r="495" spans="2:11" ht="40" customHeight="1">
-      <c r="B495" s="81"/>
+      <c r="B495" s="80"/>
       <c r="C495" s="12"/>
       <c r="D495" s="12"/>
       <c r="E495" s="13"/>
@@ -46685,7 +46926,7 @@
       <c r="K495" s="13"/>
     </row>
     <row r="496" spans="2:11" ht="40" customHeight="1">
-      <c r="B496" s="81"/>
+      <c r="B496" s="80"/>
       <c r="C496" s="12"/>
       <c r="D496" s="12"/>
       <c r="E496" s="13"/>
@@ -46697,7 +46938,7 @@
       <c r="K496" s="13"/>
     </row>
     <row r="497" spans="2:11" ht="40" customHeight="1">
-      <c r="B497" s="81"/>
+      <c r="B497" s="80"/>
       <c r="C497" s="12"/>
       <c r="D497" s="12"/>
       <c r="E497" s="13"/>
@@ -46709,7 +46950,7 @@
       <c r="K497" s="13"/>
     </row>
     <row r="498" spans="2:11" ht="40" customHeight="1">
-      <c r="B498" s="81"/>
+      <c r="B498" s="80"/>
       <c r="C498" s="12"/>
       <c r="D498" s="12"/>
       <c r="E498" s="13"/>
@@ -46721,7 +46962,7 @@
       <c r="K498" s="13"/>
     </row>
     <row r="499" spans="2:11" ht="40" customHeight="1">
-      <c r="B499" s="81"/>
+      <c r="B499" s="80"/>
       <c r="C499" s="12"/>
       <c r="D499" s="12"/>
       <c r="E499" s="13"/>
@@ -46733,7 +46974,7 @@
       <c r="K499" s="13"/>
     </row>
     <row r="500" spans="2:11" ht="40" customHeight="1">
-      <c r="B500" s="81"/>
+      <c r="B500" s="80"/>
       <c r="C500" s="12"/>
       <c r="D500" s="12"/>
       <c r="E500" s="13"/>
@@ -46745,7 +46986,7 @@
       <c r="K500" s="13"/>
     </row>
     <row r="501" spans="2:11" ht="40" customHeight="1">
-      <c r="B501" s="81"/>
+      <c r="B501" s="80"/>
       <c r="C501" s="12"/>
       <c r="D501" s="12"/>
       <c r="E501" s="13"/>
@@ -46757,7 +46998,7 @@
       <c r="K501" s="13"/>
     </row>
     <row r="502" spans="2:11" ht="40" customHeight="1">
-      <c r="B502" s="81"/>
+      <c r="B502" s="80"/>
       <c r="C502" s="12"/>
       <c r="D502" s="12"/>
       <c r="E502" s="13"/>
@@ -46769,7 +47010,7 @@
       <c r="K502" s="13"/>
     </row>
     <row r="503" spans="2:11" ht="40" customHeight="1">
-      <c r="B503" s="81"/>
+      <c r="B503" s="80"/>
       <c r="C503" s="12"/>
       <c r="D503" s="12"/>
       <c r="E503" s="13"/>
@@ -46781,7 +47022,7 @@
       <c r="K503" s="13"/>
     </row>
     <row r="504" spans="2:11" ht="40" customHeight="1">
-      <c r="B504" s="81"/>
+      <c r="B504" s="80"/>
       <c r="C504" s="12"/>
       <c r="D504" s="12"/>
       <c r="E504" s="13"/>
@@ -46793,7 +47034,7 @@
       <c r="K504" s="13"/>
     </row>
     <row r="505" spans="2:11" ht="40" customHeight="1">
-      <c r="B505" s="81"/>
+      <c r="B505" s="80"/>
       <c r="C505" s="12"/>
       <c r="D505" s="12"/>
       <c r="E505" s="13"/>
@@ -46805,7 +47046,7 @@
       <c r="K505" s="13"/>
     </row>
     <row r="506" spans="2:11" ht="40" customHeight="1">
-      <c r="B506" s="81"/>
+      <c r="B506" s="80"/>
       <c r="C506" s="12"/>
       <c r="D506" s="12"/>
       <c r="E506" s="13"/>
@@ -46817,7 +47058,7 @@
       <c r="K506" s="13"/>
     </row>
     <row r="507" spans="2:11" ht="40" customHeight="1">
-      <c r="B507" s="81"/>
+      <c r="B507" s="80"/>
       <c r="C507" s="12"/>
       <c r="D507" s="12"/>
       <c r="E507" s="13"/>
@@ -46829,7 +47070,7 @@
       <c r="K507" s="13"/>
     </row>
     <row r="508" spans="2:11" ht="40" customHeight="1">
-      <c r="B508" s="81"/>
+      <c r="B508" s="80"/>
       <c r="C508" s="12"/>
       <c r="D508" s="12"/>
       <c r="E508" s="13"/>
@@ -46841,7 +47082,7 @@
       <c r="K508" s="13"/>
     </row>
     <row r="509" spans="2:11" ht="40" customHeight="1">
-      <c r="B509" s="81"/>
+      <c r="B509" s="80"/>
       <c r="C509" s="12"/>
       <c r="D509" s="12"/>
       <c r="E509" s="13"/>
@@ -46853,7 +47094,7 @@
       <c r="K509" s="13"/>
     </row>
     <row r="510" spans="2:11" ht="40" customHeight="1">
-      <c r="B510" s="81"/>
+      <c r="B510" s="80"/>
       <c r="C510" s="12"/>
       <c r="D510" s="12"/>
       <c r="E510" s="13"/>
@@ -46865,7 +47106,7 @@
       <c r="K510" s="13"/>
     </row>
     <row r="511" spans="2:11" ht="40" customHeight="1">
-      <c r="B511" s="81"/>
+      <c r="B511" s="80"/>
       <c r="C511" s="12"/>
       <c r="D511" s="12"/>
       <c r="E511" s="13"/>
@@ -46877,7 +47118,7 @@
       <c r="K511" s="13"/>
     </row>
     <row r="512" spans="2:11" ht="40" customHeight="1">
-      <c r="B512" s="81"/>
+      <c r="B512" s="80"/>
       <c r="C512" s="12"/>
       <c r="D512" s="12"/>
       <c r="E512" s="13"/>
@@ -46889,7 +47130,7 @@
       <c r="K512" s="13"/>
     </row>
     <row r="513" spans="2:11" ht="40" customHeight="1">
-      <c r="B513" s="81"/>
+      <c r="B513" s="80"/>
       <c r="C513" s="12"/>
       <c r="D513" s="12"/>
       <c r="E513" s="13"/>
@@ -46901,7 +47142,7 @@
       <c r="K513" s="13"/>
     </row>
     <row r="514" spans="2:11" ht="40" customHeight="1">
-      <c r="B514" s="81"/>
+      <c r="B514" s="80"/>
       <c r="C514" s="12"/>
       <c r="D514" s="12"/>
       <c r="E514" s="13"/>
@@ -46913,7 +47154,7 @@
       <c r="K514" s="13"/>
     </row>
     <row r="515" spans="2:11" ht="40" customHeight="1">
-      <c r="B515" s="81"/>
+      <c r="B515" s="80"/>
       <c r="C515" s="12"/>
       <c r="D515" s="12"/>
       <c r="E515" s="13"/>
@@ -46925,7 +47166,7 @@
       <c r="K515" s="13"/>
     </row>
     <row r="516" spans="2:11" ht="40" customHeight="1">
-      <c r="B516" s="81"/>
+      <c r="B516" s="80"/>
       <c r="C516" s="12"/>
       <c r="D516" s="12"/>
       <c r="E516" s="13"/>
@@ -46937,7 +47178,7 @@
       <c r="K516" s="13"/>
     </row>
     <row r="517" spans="2:11" ht="40" customHeight="1">
-      <c r="B517" s="81"/>
+      <c r="B517" s="80"/>
       <c r="C517" s="12"/>
       <c r="D517" s="12"/>
       <c r="E517" s="13"/>
@@ -46949,7 +47190,7 @@
       <c r="K517" s="13"/>
     </row>
     <row r="518" spans="2:11" ht="40" customHeight="1">
-      <c r="B518" s="81"/>
+      <c r="B518" s="80"/>
       <c r="C518" s="12"/>
       <c r="D518" s="12"/>
       <c r="E518" s="13"/>
@@ -46961,7 +47202,7 @@
       <c r="K518" s="13"/>
     </row>
     <row r="519" spans="2:11" ht="40" customHeight="1">
-      <c r="B519" s="81"/>
+      <c r="B519" s="80"/>
       <c r="C519" s="12"/>
       <c r="D519" s="12"/>
       <c r="E519" s="13"/>
@@ -46973,7 +47214,7 @@
       <c r="K519" s="13"/>
     </row>
     <row r="520" spans="2:11" ht="40" customHeight="1">
-      <c r="B520" s="81"/>
+      <c r="B520" s="80"/>
       <c r="C520" s="12"/>
       <c r="D520" s="12"/>
       <c r="E520" s="13"/>
@@ -46985,7 +47226,7 @@
       <c r="K520" s="13"/>
     </row>
     <row r="521" spans="2:11" ht="40" customHeight="1">
-      <c r="B521" s="81"/>
+      <c r="B521" s="80"/>
       <c r="C521" s="12"/>
       <c r="D521" s="12"/>
       <c r="E521" s="13"/>
@@ -46997,7 +47238,7 @@
       <c r="K521" s="13"/>
     </row>
     <row r="522" spans="2:11" ht="40" customHeight="1">
-      <c r="B522" s="81"/>
+      <c r="B522" s="80"/>
       <c r="C522" s="12"/>
       <c r="D522" s="12"/>
       <c r="E522" s="13"/>
@@ -47009,7 +47250,7 @@
       <c r="K522" s="13"/>
     </row>
     <row r="523" spans="2:11" ht="40" customHeight="1">
-      <c r="B523" s="81"/>
+      <c r="B523" s="80"/>
       <c r="C523" s="12"/>
       <c r="D523" s="12"/>
       <c r="E523" s="13"/>
@@ -47021,7 +47262,7 @@
       <c r="K523" s="13"/>
     </row>
     <row r="524" spans="2:11" ht="40" customHeight="1">
-      <c r="B524" s="81"/>
+      <c r="B524" s="80"/>
       <c r="C524" s="12"/>
       <c r="D524" s="12"/>
       <c r="E524" s="13"/>
@@ -47033,7 +47274,7 @@
       <c r="K524" s="13"/>
     </row>
     <row r="525" spans="2:11" ht="40" customHeight="1">
-      <c r="B525" s="81"/>
+      <c r="B525" s="80"/>
       <c r="C525" s="12"/>
       <c r="D525" s="12"/>
       <c r="E525" s="13"/>
@@ -47045,7 +47286,7 @@
       <c r="K525" s="13"/>
     </row>
     <row r="526" spans="2:11" ht="40" customHeight="1">
-      <c r="B526" s="81"/>
+      <c r="B526" s="80"/>
       <c r="C526" s="12"/>
       <c r="D526" s="12"/>
       <c r="E526" s="13"/>
@@ -47057,7 +47298,7 @@
       <c r="K526" s="13"/>
     </row>
     <row r="527" spans="2:11" ht="40" customHeight="1">
-      <c r="B527" s="81"/>
+      <c r="B527" s="80"/>
       <c r="C527" s="12"/>
       <c r="D527" s="12"/>
       <c r="E527" s="13"/>
@@ -47069,7 +47310,7 @@
       <c r="K527" s="13"/>
     </row>
     <row r="528" spans="2:11" ht="40" customHeight="1">
-      <c r="B528" s="81"/>
+      <c r="B528" s="80"/>
       <c r="C528" s="12"/>
       <c r="D528" s="12"/>
       <c r="E528" s="13"/>
@@ -47081,7 +47322,7 @@
       <c r="K528" s="13"/>
     </row>
     <row r="529" spans="2:11" ht="40" customHeight="1">
-      <c r="B529" s="81"/>
+      <c r="B529" s="80"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
       <c r="E529" s="13"/>
@@ -47093,7 +47334,7 @@
       <c r="K529" s="13"/>
     </row>
     <row r="530" spans="2:11" ht="40" customHeight="1">
-      <c r="B530" s="81"/>
+      <c r="B530" s="80"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
       <c r="E530" s="13"/>
@@ -47105,7 +47346,7 @@
       <c r="K530" s="13"/>
     </row>
     <row r="531" spans="2:11" ht="40" customHeight="1">
-      <c r="B531" s="81"/>
+      <c r="B531" s="80"/>
       <c r="C531" s="12"/>
       <c r="D531" s="12"/>
       <c r="E531" s="13"/>
@@ -47117,7 +47358,7 @@
       <c r="K531" s="13"/>
     </row>
     <row r="532" spans="2:11" ht="40" customHeight="1">
-      <c r="B532" s="81"/>
+      <c r="B532" s="80"/>
       <c r="C532" s="12"/>
       <c r="D532" s="12"/>
       <c r="E532" s="13"/>
@@ -47129,7 +47370,7 @@
       <c r="K532" s="13"/>
     </row>
     <row r="533" spans="2:11" ht="40" customHeight="1">
-      <c r="B533" s="81"/>
+      <c r="B533" s="80"/>
       <c r="C533" s="12"/>
       <c r="D533" s="12"/>
       <c r="E533" s="13"/>
@@ -47141,7 +47382,7 @@
       <c r="K533" s="13"/>
     </row>
     <row r="534" spans="2:11" ht="40" customHeight="1">
-      <c r="B534" s="81"/>
+      <c r="B534" s="80"/>
       <c r="C534" s="12"/>
       <c r="D534" s="12"/>
       <c r="E534" s="13"/>
@@ -47153,7 +47394,7 @@
       <c r="K534" s="13"/>
     </row>
     <row r="535" spans="2:11" ht="40" customHeight="1">
-      <c r="B535" s="81"/>
+      <c r="B535" s="80"/>
       <c r="C535" s="12"/>
       <c r="D535" s="12"/>
       <c r="E535" s="13"/>
@@ -47165,7 +47406,7 @@
       <c r="K535" s="13"/>
     </row>
     <row r="536" spans="2:11" ht="40" customHeight="1">
-      <c r="B536" s="81"/>
+      <c r="B536" s="80"/>
       <c r="C536" s="12"/>
       <c r="D536" s="12"/>
       <c r="E536" s="13"/>
@@ -47177,7 +47418,7 @@
       <c r="K536" s="13"/>
     </row>
     <row r="537" spans="2:11" ht="40" customHeight="1">
-      <c r="B537" s="81"/>
+      <c r="B537" s="80"/>
       <c r="C537" s="12"/>
       <c r="D537" s="12"/>
       <c r="E537" s="13"/>
@@ -47189,7 +47430,7 @@
       <c r="K537" s="13"/>
     </row>
     <row r="538" spans="2:11" ht="40" customHeight="1">
-      <c r="B538" s="81"/>
+      <c r="B538" s="80"/>
       <c r="C538" s="12"/>
       <c r="D538" s="12"/>
       <c r="E538" s="13"/>
@@ -47201,7 +47442,7 @@
       <c r="K538" s="13"/>
     </row>
     <row r="539" spans="2:11" ht="40" customHeight="1">
-      <c r="B539" s="81"/>
+      <c r="B539" s="80"/>
       <c r="C539" s="12"/>
       <c r="D539" s="12"/>
       <c r="E539" s="13"/>
@@ -47213,7 +47454,7 @@
       <c r="K539" s="13"/>
     </row>
     <row r="540" spans="2:11" ht="40" customHeight="1">
-      <c r="B540" s="81"/>
+      <c r="B540" s="80"/>
       <c r="C540" s="12"/>
       <c r="D540" s="12"/>
       <c r="E540" s="13"/>
@@ -47225,7 +47466,7 @@
       <c r="K540" s="13"/>
     </row>
     <row r="541" spans="2:11" ht="40" customHeight="1">
-      <c r="B541" s="81"/>
+      <c r="B541" s="80"/>
       <c r="C541" s="12"/>
       <c r="D541" s="12"/>
       <c r="E541" s="13"/>
@@ -47237,7 +47478,7 @@
       <c r="K541" s="13"/>
     </row>
     <row r="542" spans="2:11" ht="40" customHeight="1">
-      <c r="B542" s="81"/>
+      <c r="B542" s="80"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
       <c r="E542" s="13"/>
@@ -47249,7 +47490,7 @@
       <c r="K542" s="13"/>
     </row>
     <row r="543" spans="2:11" ht="40" customHeight="1">
-      <c r="B543" s="81"/>
+      <c r="B543" s="80"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
       <c r="E543" s="13"/>
@@ -47261,7 +47502,7 @@
       <c r="K543" s="13"/>
     </row>
     <row r="544" spans="2:11" ht="40" customHeight="1">
-      <c r="B544" s="81"/>
+      <c r="B544" s="80"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
       <c r="E544" s="13"/>
@@ -47273,7 +47514,7 @@
       <c r="K544" s="13"/>
     </row>
     <row r="545" spans="2:11" ht="40" customHeight="1">
-      <c r="B545" s="81"/>
+      <c r="B545" s="80"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
       <c r="E545" s="13"/>
@@ -47285,7 +47526,7 @@
       <c r="K545" s="13"/>
     </row>
     <row r="546" spans="2:11" ht="40" customHeight="1">
-      <c r="B546" s="81"/>
+      <c r="B546" s="80"/>
       <c r="C546" s="12"/>
       <c r="D546" s="12"/>
       <c r="E546" s="13"/>
@@ -47297,7 +47538,7 @@
       <c r="K546" s="13"/>
     </row>
     <row r="547" spans="2:11" ht="40" customHeight="1">
-      <c r="B547" s="81"/>
+      <c r="B547" s="80"/>
       <c r="C547" s="12"/>
       <c r="D547" s="12"/>
       <c r="E547" s="13"/>
@@ -47309,7 +47550,7 @@
       <c r="K547" s="13"/>
     </row>
     <row r="548" spans="2:11" ht="40" customHeight="1">
-      <c r="B548" s="81"/>
+      <c r="B548" s="80"/>
       <c r="C548" s="12"/>
       <c r="D548" s="12"/>
       <c r="E548" s="13"/>
@@ -47321,7 +47562,7 @@
       <c r="K548" s="13"/>
     </row>
     <row r="549" spans="2:11" ht="40" customHeight="1">
-      <c r="B549" s="81"/>
+      <c r="B549" s="80"/>
       <c r="C549" s="12"/>
       <c r="D549" s="12"/>
       <c r="E549" s="13"/>
@@ -47333,7 +47574,7 @@
       <c r="K549" s="13"/>
     </row>
     <row r="550" spans="2:11" ht="40" customHeight="1">
-      <c r="B550" s="81"/>
+      <c r="B550" s="80"/>
       <c r="C550" s="12"/>
       <c r="D550" s="12"/>
       <c r="E550" s="13"/>
@@ -47345,7 +47586,7 @@
       <c r="K550" s="13"/>
     </row>
     <row r="551" spans="2:11" ht="40" customHeight="1">
-      <c r="B551" s="81"/>
+      <c r="B551" s="80"/>
       <c r="C551" s="12"/>
       <c r="D551" s="12"/>
       <c r="E551" s="13"/>
@@ -47357,7 +47598,7 @@
       <c r="K551" s="13"/>
     </row>
     <row r="552" spans="2:11" ht="40" customHeight="1">
-      <c r="B552" s="81"/>
+      <c r="B552" s="80"/>
       <c r="C552" s="12"/>
       <c r="D552" s="12"/>
       <c r="E552" s="13"/>
@@ -47369,7 +47610,7 @@
       <c r="K552" s="13"/>
     </row>
     <row r="553" spans="2:11" ht="40" customHeight="1">
-      <c r="B553" s="81"/>
+      <c r="B553" s="80"/>
       <c r="C553" s="12"/>
       <c r="D553" s="12"/>
       <c r="E553" s="13"/>
@@ -47381,7 +47622,7 @@
       <c r="K553" s="13"/>
     </row>
     <row r="554" spans="2:11" ht="40" customHeight="1">
-      <c r="B554" s="81"/>
+      <c r="B554" s="80"/>
       <c r="C554" s="12"/>
       <c r="D554" s="12"/>
       <c r="E554" s="13"/>
@@ -47393,7 +47634,7 @@
       <c r="K554" s="13"/>
     </row>
     <row r="555" spans="2:11" ht="40" customHeight="1">
-      <c r="B555" s="81"/>
+      <c r="B555" s="80"/>
       <c r="C555" s="12"/>
       <c r="D555" s="12"/>
       <c r="E555" s="13"/>
@@ -47405,7 +47646,7 @@
       <c r="K555" s="13"/>
     </row>
     <row r="556" spans="2:11" ht="40" customHeight="1">
-      <c r="B556" s="81"/>
+      <c r="B556" s="80"/>
       <c r="C556" s="12"/>
       <c r="D556" s="12"/>
       <c r="E556" s="13"/>
@@ -47417,7 +47658,7 @@
       <c r="K556" s="13"/>
     </row>
     <row r="557" spans="2:11" ht="40" customHeight="1">
-      <c r="B557" s="81"/>
+      <c r="B557" s="80"/>
       <c r="C557" s="12"/>
       <c r="D557" s="12"/>
       <c r="E557" s="13"/>
@@ -47429,7 +47670,7 @@
       <c r="K557" s="13"/>
     </row>
     <row r="558" spans="2:11" ht="40" customHeight="1">
-      <c r="B558" s="81"/>
+      <c r="B558" s="80"/>
       <c r="C558" s="12"/>
       <c r="D558" s="12"/>
       <c r="E558" s="13"/>
@@ -47441,7 +47682,7 @@
       <c r="K558" s="13"/>
     </row>
     <row r="559" spans="2:11" ht="40" customHeight="1">
-      <c r="B559" s="81"/>
+      <c r="B559" s="80"/>
       <c r="C559" s="12"/>
       <c r="D559" s="12"/>
       <c r="E559" s="13"/>
@@ -47453,7 +47694,7 @@
       <c r="K559" s="13"/>
     </row>
     <row r="560" spans="2:11" ht="40" customHeight="1">
-      <c r="B560" s="81"/>
+      <c r="B560" s="80"/>
       <c r="C560" s="12"/>
       <c r="D560" s="12"/>
       <c r="E560" s="13"/>
@@ -47465,7 +47706,7 @@
       <c r="K560" s="13"/>
     </row>
     <row r="561" spans="2:11" ht="40" customHeight="1">
-      <c r="B561" s="81"/>
+      <c r="B561" s="80"/>
       <c r="C561" s="12"/>
       <c r="D561" s="12"/>
       <c r="E561" s="13"/>
@@ -47477,7 +47718,7 @@
       <c r="K561" s="13"/>
     </row>
     <row r="562" spans="2:11" ht="40" customHeight="1">
-      <c r="B562" s="81"/>
+      <c r="B562" s="80"/>
       <c r="C562" s="12"/>
       <c r="D562" s="12"/>
       <c r="E562" s="13"/>
@@ -47489,7 +47730,7 @@
       <c r="K562" s="13"/>
     </row>
     <row r="563" spans="2:11" ht="40" customHeight="1">
-      <c r="B563" s="81"/>
+      <c r="B563" s="80"/>
       <c r="C563" s="12"/>
       <c r="D563" s="12"/>
       <c r="E563" s="13"/>
@@ -47501,7 +47742,7 @@
       <c r="K563" s="13"/>
     </row>
     <row r="564" spans="2:11" ht="40" customHeight="1">
-      <c r="B564" s="81"/>
+      <c r="B564" s="80"/>
       <c r="C564" s="12"/>
       <c r="D564" s="12"/>
       <c r="E564" s="13"/>
@@ -47513,7 +47754,7 @@
       <c r="K564" s="13"/>
     </row>
     <row r="565" spans="2:11" ht="40" customHeight="1">
-      <c r="B565" s="81"/>
+      <c r="B565" s="80"/>
       <c r="C565" s="12"/>
       <c r="D565" s="12"/>
       <c r="E565" s="13"/>
@@ -47525,7 +47766,7 @@
       <c r="K565" s="13"/>
     </row>
     <row r="566" spans="2:11" ht="40" customHeight="1">
-      <c r="B566" s="81"/>
+      <c r="B566" s="80"/>
       <c r="C566" s="12"/>
       <c r="D566" s="12"/>
       <c r="E566" s="13"/>
@@ -47537,7 +47778,7 @@
       <c r="K566" s="13"/>
     </row>
     <row r="567" spans="2:11" ht="40" customHeight="1">
-      <c r="B567" s="81"/>
+      <c r="B567" s="80"/>
       <c r="C567" s="12"/>
       <c r="D567" s="12"/>
       <c r="E567" s="13"/>
@@ -47549,7 +47790,7 @@
       <c r="K567" s="13"/>
     </row>
     <row r="568" spans="2:11" ht="40" customHeight="1">
-      <c r="B568" s="81"/>
+      <c r="B568" s="80"/>
       <c r="C568" s="12"/>
       <c r="D568" s="12"/>
       <c r="E568" s="13"/>
@@ -47561,7 +47802,7 @@
       <c r="K568" s="13"/>
     </row>
     <row r="569" spans="2:11" ht="40" customHeight="1">
-      <c r="B569" s="81"/>
+      <c r="B569" s="80"/>
       <c r="C569" s="12"/>
       <c r="D569" s="12"/>
       <c r="E569" s="13"/>
@@ -47573,7 +47814,7 @@
       <c r="K569" s="13"/>
     </row>
     <row r="570" spans="2:11" ht="40" customHeight="1">
-      <c r="B570" s="81"/>
+      <c r="B570" s="80"/>
       <c r="C570" s="12"/>
       <c r="D570" s="12"/>
       <c r="E570" s="13"/>
@@ -47585,7 +47826,7 @@
       <c r="K570" s="13"/>
     </row>
     <row r="571" spans="2:11" ht="40" customHeight="1">
-      <c r="B571" s="81"/>
+      <c r="B571" s="80"/>
       <c r="C571" s="12"/>
       <c r="D571" s="12"/>
       <c r="E571" s="13"/>
@@ -47597,7 +47838,7 @@
       <c r="K571" s="13"/>
     </row>
     <row r="572" spans="2:11" ht="40" customHeight="1">
-      <c r="B572" s="81"/>
+      <c r="B572" s="80"/>
       <c r="C572" s="12"/>
       <c r="D572" s="12"/>
       <c r="E572" s="13"/>
@@ -47609,7 +47850,7 @@
       <c r="K572" s="13"/>
     </row>
     <row r="573" spans="2:11" ht="40" customHeight="1">
-      <c r="B573" s="81"/>
+      <c r="B573" s="80"/>
       <c r="C573" s="12"/>
       <c r="D573" s="12"/>
       <c r="E573" s="13"/>
@@ -47621,7 +47862,7 @@
       <c r="K573" s="13"/>
     </row>
     <row r="574" spans="2:11" ht="40" customHeight="1">
-      <c r="B574" s="81"/>
+      <c r="B574" s="80"/>
       <c r="C574" s="12"/>
       <c r="D574" s="12"/>
       <c r="E574" s="13"/>
@@ -47633,7 +47874,7 @@
       <c r="K574" s="13"/>
     </row>
     <row r="575" spans="2:11" ht="40" customHeight="1">
-      <c r="B575" s="81"/>
+      <c r="B575" s="80"/>
       <c r="C575" s="12"/>
       <c r="D575" s="12"/>
       <c r="E575" s="13"/>
@@ -47645,7 +47886,7 @@
       <c r="K575" s="13"/>
     </row>
     <row r="576" spans="2:11" ht="40" customHeight="1">
-      <c r="B576" s="81"/>
+      <c r="B576" s="80"/>
       <c r="C576" s="12"/>
       <c r="D576" s="12"/>
       <c r="E576" s="13"/>
@@ -47657,7 +47898,7 @@
       <c r="K576" s="13"/>
     </row>
     <row r="577" spans="2:11" ht="40" customHeight="1">
-      <c r="B577" s="81"/>
+      <c r="B577" s="80"/>
       <c r="C577" s="12"/>
       <c r="D577" s="12"/>
       <c r="E577" s="13"/>
@@ -47669,7 +47910,7 @@
       <c r="K577" s="13"/>
     </row>
     <row r="578" spans="2:11" ht="40" customHeight="1">
-      <c r="B578" s="81"/>
+      <c r="B578" s="80"/>
       <c r="C578" s="12"/>
       <c r="D578" s="12"/>
       <c r="E578" s="13"/>
@@ -47681,7 +47922,7 @@
       <c r="K578" s="13"/>
     </row>
     <row r="579" spans="2:11" ht="40" customHeight="1">
-      <c r="B579" s="81"/>
+      <c r="B579" s="80"/>
       <c r="C579" s="12"/>
       <c r="D579" s="12"/>
       <c r="E579" s="13"/>
@@ -47693,7 +47934,7 @@
       <c r="K579" s="13"/>
     </row>
     <row r="580" spans="2:11" ht="40" customHeight="1">
-      <c r="B580" s="81"/>
+      <c r="B580" s="80"/>
       <c r="C580" s="12"/>
       <c r="D580" s="12"/>
       <c r="E580" s="13"/>
@@ -47705,7 +47946,7 @@
       <c r="K580" s="13"/>
     </row>
     <row r="581" spans="2:11" ht="40" customHeight="1">
-      <c r="B581" s="81"/>
+      <c r="B581" s="80"/>
       <c r="C581" s="12"/>
       <c r="D581" s="12"/>
       <c r="E581" s="13"/>
@@ -47717,7 +47958,7 @@
       <c r="K581" s="13"/>
     </row>
     <row r="582" spans="2:11" ht="40" customHeight="1">
-      <c r="B582" s="81"/>
+      <c r="B582" s="80"/>
       <c r="C582" s="12"/>
       <c r="D582" s="12"/>
       <c r="E582" s="13"/>
@@ -47729,7 +47970,7 @@
       <c r="K582" s="13"/>
     </row>
     <row r="583" spans="2:11" ht="40" customHeight="1">
-      <c r="B583" s="81"/>
+      <c r="B583" s="80"/>
       <c r="C583" s="12"/>
       <c r="D583" s="12"/>
       <c r="E583" s="13"/>
@@ -47741,7 +47982,7 @@
       <c r="K583" s="13"/>
     </row>
     <row r="584" spans="2:11" ht="40" customHeight="1">
-      <c r="B584" s="81"/>
+      <c r="B584" s="80"/>
       <c r="C584" s="12"/>
       <c r="D584" s="12"/>
       <c r="E584" s="13"/>
@@ -47753,7 +47994,7 @@
       <c r="K584" s="13"/>
     </row>
     <row r="585" spans="2:11" ht="40" customHeight="1">
-      <c r="B585" s="81"/>
+      <c r="B585" s="80"/>
       <c r="C585" s="12"/>
       <c r="D585" s="12"/>
       <c r="E585" s="13"/>
@@ -47765,7 +48006,7 @@
       <c r="K585" s="13"/>
     </row>
     <row r="586" spans="2:11" ht="40" customHeight="1">
-      <c r="B586" s="81"/>
+      <c r="B586" s="80"/>
       <c r="C586" s="12"/>
       <c r="D586" s="12"/>
       <c r="E586" s="13"/>
@@ -47777,7 +48018,7 @@
       <c r="K586" s="13"/>
     </row>
     <row r="587" spans="2:11" ht="40" customHeight="1">
-      <c r="B587" s="81"/>
+      <c r="B587" s="80"/>
       <c r="C587" s="12"/>
       <c r="D587" s="12"/>
       <c r="E587" s="13"/>
@@ -47789,7 +48030,7 @@
       <c r="K587" s="13"/>
     </row>
     <row r="588" spans="2:11" ht="40" customHeight="1">
-      <c r="B588" s="81"/>
+      <c r="B588" s="80"/>
       <c r="C588" s="12"/>
       <c r="D588" s="12"/>
       <c r="E588" s="13"/>
@@ -47801,7 +48042,7 @@
       <c r="K588" s="13"/>
     </row>
     <row r="589" spans="2:11" ht="40" customHeight="1">
-      <c r="B589" s="81"/>
+      <c r="B589" s="80"/>
       <c r="C589" s="12"/>
       <c r="D589" s="12"/>
       <c r="E589" s="13"/>
@@ -47813,7 +48054,7 @@
       <c r="K589" s="13"/>
     </row>
     <row r="590" spans="2:11" ht="40" customHeight="1">
-      <c r="B590" s="81"/>
+      <c r="B590" s="80"/>
       <c r="C590" s="12"/>
       <c r="D590" s="12"/>
       <c r="E590" s="13"/>
@@ -47825,7 +48066,7 @@
       <c r="K590" s="13"/>
     </row>
     <row r="591" spans="2:11" ht="40" customHeight="1">
-      <c r="B591" s="81"/>
+      <c r="B591" s="80"/>
       <c r="C591" s="12"/>
       <c r="D591" s="12"/>
       <c r="E591" s="13"/>
@@ -47837,7 +48078,7 @@
       <c r="K591" s="13"/>
     </row>
     <row r="592" spans="2:11" ht="40" customHeight="1">
-      <c r="B592" s="81"/>
+      <c r="B592" s="80"/>
       <c r="C592" s="12"/>
       <c r="D592" s="12"/>
       <c r="E592" s="13"/>
@@ -47849,7 +48090,7 @@
       <c r="K592" s="13"/>
     </row>
     <row r="593" spans="2:11" ht="40" customHeight="1">
-      <c r="B593" s="81"/>
+      <c r="B593" s="80"/>
       <c r="C593" s="12"/>
       <c r="D593" s="12"/>
       <c r="E593" s="13"/>
@@ -47861,7 +48102,7 @@
       <c r="K593" s="13"/>
     </row>
     <row r="594" spans="2:11" ht="40" customHeight="1">
-      <c r="B594" s="81"/>
+      <c r="B594" s="80"/>
       <c r="C594" s="12"/>
       <c r="D594" s="12"/>
       <c r="E594" s="13"/>
@@ -47873,7 +48114,7 @@
       <c r="K594" s="13"/>
     </row>
     <row r="595" spans="2:11" ht="40" customHeight="1">
-      <c r="B595" s="81"/>
+      <c r="B595" s="80"/>
       <c r="C595" s="12"/>
       <c r="D595" s="12"/>
       <c r="E595" s="13"/>
@@ -47885,7 +48126,7 @@
       <c r="K595" s="13"/>
     </row>
     <row r="596" spans="2:11" ht="40" customHeight="1">
-      <c r="B596" s="81"/>
+      <c r="B596" s="80"/>
       <c r="C596" s="12"/>
       <c r="D596" s="12"/>
       <c r="E596" s="13"/>
@@ -47897,7 +48138,7 @@
       <c r="K596" s="13"/>
     </row>
     <row r="597" spans="2:11" ht="40" customHeight="1">
-      <c r="B597" s="81"/>
+      <c r="B597" s="80"/>
       <c r="C597" s="12"/>
       <c r="D597" s="12"/>
       <c r="E597" s="13"/>
@@ -47909,7 +48150,7 @@
       <c r="K597" s="13"/>
     </row>
     <row r="598" spans="2:11" ht="40" customHeight="1">
-      <c r="B598" s="81"/>
+      <c r="B598" s="80"/>
       <c r="C598" s="12"/>
       <c r="D598" s="12"/>
       <c r="E598" s="13"/>
@@ -47921,7 +48162,7 @@
       <c r="K598" s="13"/>
     </row>
     <row r="599" spans="2:11" ht="40" customHeight="1">
-      <c r="B599" s="81"/>
+      <c r="B599" s="80"/>
       <c r="C599" s="12"/>
       <c r="D599" s="12"/>
       <c r="E599" s="13"/>
@@ -47933,7 +48174,7 @@
       <c r="K599" s="13"/>
     </row>
     <row r="600" spans="2:11" ht="40" customHeight="1">
-      <c r="B600" s="81"/>
+      <c r="B600" s="80"/>
       <c r="C600" s="12"/>
       <c r="D600" s="12"/>
       <c r="E600" s="13"/>
@@ -47945,7 +48186,7 @@
       <c r="K600" s="13"/>
     </row>
     <row r="601" spans="2:11" ht="40" customHeight="1">
-      <c r="B601" s="81"/>
+      <c r="B601" s="80"/>
       <c r="C601" s="12"/>
       <c r="D601" s="12"/>
       <c r="E601" s="13"/>
@@ -47957,7 +48198,7 @@
       <c r="K601" s="13"/>
     </row>
     <row r="602" spans="2:11" ht="40" customHeight="1">
-      <c r="B602" s="81"/>
+      <c r="B602" s="80"/>
       <c r="C602" s="12"/>
       <c r="D602" s="12"/>
       <c r="E602" s="13"/>
@@ -47969,7 +48210,7 @@
       <c r="K602" s="13"/>
     </row>
     <row r="603" spans="2:11" ht="40" customHeight="1">
-      <c r="B603" s="81"/>
+      <c r="B603" s="80"/>
       <c r="C603" s="12"/>
       <c r="D603" s="12"/>
       <c r="E603" s="13"/>
@@ -47981,7 +48222,7 @@
       <c r="K603" s="13"/>
     </row>
     <row r="604" spans="2:11" ht="40" customHeight="1">
-      <c r="B604" s="81"/>
+      <c r="B604" s="80"/>
       <c r="C604" s="12"/>
       <c r="D604" s="12"/>
       <c r="E604" s="13"/>
@@ -47993,7 +48234,7 @@
       <c r="K604" s="13"/>
     </row>
     <row r="605" spans="2:11" ht="40" customHeight="1">
-      <c r="B605" s="81"/>
+      <c r="B605" s="80"/>
       <c r="C605" s="12"/>
       <c r="D605" s="12"/>
       <c r="E605" s="13"/>
@@ -48005,7 +48246,7 @@
       <c r="K605" s="13"/>
     </row>
     <row r="606" spans="2:11" ht="40" customHeight="1">
-      <c r="B606" s="81"/>
+      <c r="B606" s="80"/>
       <c r="C606" s="12"/>
       <c r="D606" s="12"/>
       <c r="E606" s="13"/>
@@ -48017,7 +48258,7 @@
       <c r="K606" s="13"/>
     </row>
     <row r="607" spans="2:11" ht="40" customHeight="1">
-      <c r="B607" s="81"/>
+      <c r="B607" s="80"/>
       <c r="C607" s="12"/>
       <c r="D607" s="12"/>
       <c r="E607" s="13"/>
@@ -48029,7 +48270,7 @@
       <c r="K607" s="13"/>
     </row>
     <row r="608" spans="2:11" ht="40" customHeight="1">
-      <c r="B608" s="81"/>
+      <c r="B608" s="80"/>
       <c r="C608" s="12"/>
       <c r="D608" s="12"/>
       <c r="E608" s="13"/>
@@ -48041,7 +48282,7 @@
       <c r="K608" s="13"/>
     </row>
     <row r="609" spans="2:11" ht="40" customHeight="1">
-      <c r="B609" s="81"/>
+      <c r="B609" s="80"/>
       <c r="C609" s="12"/>
       <c r="D609" s="12"/>
       <c r="E609" s="13"/>
@@ -48053,7 +48294,7 @@
       <c r="K609" s="13"/>
     </row>
     <row r="610" spans="2:11" ht="40" customHeight="1">
-      <c r="B610" s="81"/>
+      <c r="B610" s="80"/>
       <c r="C610" s="12"/>
       <c r="D610" s="12"/>
       <c r="E610" s="13"/>
@@ -48065,7 +48306,7 @@
       <c r="K610" s="13"/>
     </row>
     <row r="611" spans="2:11" ht="40" customHeight="1">
-      <c r="B611" s="81"/>
+      <c r="B611" s="80"/>
       <c r="C611" s="12"/>
       <c r="D611" s="12"/>
       <c r="E611" s="13"/>
@@ -48077,7 +48318,7 @@
       <c r="K611" s="13"/>
     </row>
     <row r="612" spans="2:11" ht="40" customHeight="1">
-      <c r="B612" s="81"/>
+      <c r="B612" s="80"/>
       <c r="C612" s="12"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13"/>
@@ -48089,7 +48330,7 @@
       <c r="K612" s="13"/>
     </row>
     <row r="613" spans="2:11" ht="40" customHeight="1">
-      <c r="B613" s="81"/>
+      <c r="B613" s="80"/>
       <c r="C613" s="12"/>
       <c r="D613" s="12"/>
       <c r="E613" s="13"/>
@@ -48101,7 +48342,7 @@
       <c r="K613" s="13"/>
     </row>
     <row r="614" spans="2:11" ht="40" customHeight="1">
-      <c r="B614" s="81"/>
+      <c r="B614" s="80"/>
       <c r="C614" s="12"/>
       <c r="D614" s="12"/>
       <c r="E614" s="13"/>
@@ -48113,7 +48354,7 @@
       <c r="K614" s="13"/>
     </row>
     <row r="615" spans="2:11" ht="40" customHeight="1">
-      <c r="B615" s="81"/>
+      <c r="B615" s="80"/>
       <c r="C615" s="12"/>
       <c r="D615" s="12"/>
       <c r="E615" s="13"/>
@@ -48125,7 +48366,7 @@
       <c r="K615" s="13"/>
     </row>
     <row r="616" spans="2:11" ht="40" customHeight="1">
-      <c r="B616" s="81"/>
+      <c r="B616" s="80"/>
       <c r="C616" s="12"/>
       <c r="D616" s="12"/>
       <c r="E616" s="13"/>
@@ -48137,7 +48378,7 @@
       <c r="K616" s="13"/>
     </row>
     <row r="617" spans="2:11" ht="40" customHeight="1">
-      <c r="B617" s="81"/>
+      <c r="B617" s="80"/>
       <c r="C617" s="12"/>
       <c r="D617" s="12"/>
       <c r="E617" s="13"/>
@@ -48149,7 +48390,7 @@
       <c r="K617" s="13"/>
     </row>
     <row r="618" spans="2:11" ht="40" customHeight="1">
-      <c r="B618" s="81"/>
+      <c r="B618" s="80"/>
       <c r="C618" s="12"/>
       <c r="D618" s="12"/>
       <c r="E618" s="13"/>
@@ -48161,7 +48402,7 @@
       <c r="K618" s="13"/>
     </row>
     <row r="619" spans="2:11" ht="40" customHeight="1">
-      <c r="B619" s="81"/>
+      <c r="B619" s="80"/>
       <c r="C619" s="12"/>
       <c r="D619" s="12"/>
       <c r="E619" s="13"/>
@@ -48173,7 +48414,7 @@
       <c r="K619" s="13"/>
     </row>
     <row r="620" spans="2:11" ht="40" customHeight="1">
-      <c r="B620" s="81"/>
+      <c r="B620" s="80"/>
       <c r="C620" s="12"/>
       <c r="D620" s="12"/>
       <c r="E620" s="13"/>
@@ -48185,7 +48426,7 @@
       <c r="K620" s="13"/>
     </row>
     <row r="621" spans="2:11" ht="40" customHeight="1">
-      <c r="B621" s="81"/>
+      <c r="B621" s="80"/>
       <c r="C621" s="12"/>
       <c r="D621" s="12"/>
       <c r="E621" s="13"/>
@@ -48197,7 +48438,7 @@
       <c r="K621" s="13"/>
     </row>
     <row r="622" spans="2:11" ht="40" customHeight="1">
-      <c r="B622" s="81"/>
+      <c r="B622" s="80"/>
       <c r="C622" s="12"/>
       <c r="D622" s="12"/>
       <c r="E622" s="13"/>
@@ -48209,7 +48450,7 @@
       <c r="K622" s="13"/>
     </row>
     <row r="623" spans="2:11" ht="40" customHeight="1">
-      <c r="B623" s="81"/>
+      <c r="B623" s="80"/>
       <c r="C623" s="12"/>
       <c r="D623" s="12"/>
       <c r="E623" s="13"/>
@@ -48221,7 +48462,7 @@
       <c r="K623" s="13"/>
     </row>
     <row r="624" spans="2:11" ht="40" customHeight="1">
-      <c r="B624" s="81"/>
+      <c r="B624" s="80"/>
       <c r="C624" s="12"/>
       <c r="D624" s="12"/>
       <c r="E624" s="13"/>
@@ -48233,7 +48474,7 @@
       <c r="K624" s="13"/>
     </row>
     <row r="625" spans="2:11" ht="40" customHeight="1">
-      <c r="B625" s="81"/>
+      <c r="B625" s="80"/>
       <c r="C625" s="12"/>
       <c r="D625" s="12"/>
       <c r="E625" s="13"/>
@@ -48245,7 +48486,7 @@
       <c r="K625" s="13"/>
     </row>
     <row r="626" spans="2:11" ht="40" customHeight="1">
-      <c r="B626" s="81"/>
+      <c r="B626" s="80"/>
       <c r="C626" s="12"/>
       <c r="D626" s="12"/>
       <c r="E626" s="13"/>
@@ -48257,7 +48498,7 @@
       <c r="K626" s="13"/>
     </row>
     <row r="627" spans="2:11" ht="40" customHeight="1">
-      <c r="B627" s="81"/>
+      <c r="B627" s="80"/>
       <c r="C627" s="12"/>
       <c r="D627" s="12"/>
       <c r="E627" s="13"/>
@@ -48269,7 +48510,7 @@
       <c r="K627" s="13"/>
     </row>
     <row r="628" spans="2:11" ht="40" customHeight="1">
-      <c r="B628" s="81"/>
+      <c r="B628" s="80"/>
       <c r="C628" s="12"/>
       <c r="D628" s="12"/>
       <c r="E628" s="13"/>
@@ -48281,7 +48522,7 @@
       <c r="K628" s="13"/>
     </row>
     <row r="629" spans="2:11" ht="40" customHeight="1">
-      <c r="B629" s="81"/>
+      <c r="B629" s="80"/>
       <c r="C629" s="12"/>
       <c r="D629" s="12"/>
       <c r="E629" s="13"/>
@@ -48293,7 +48534,7 @@
       <c r="K629" s="13"/>
     </row>
     <row r="630" spans="2:11" ht="40" customHeight="1">
-      <c r="B630" s="81"/>
+      <c r="B630" s="80"/>
       <c r="C630" s="12"/>
       <c r="D630" s="12"/>
       <c r="E630" s="13"/>
@@ -48305,7 +48546,7 @@
       <c r="K630" s="13"/>
     </row>
     <row r="631" spans="2:11" ht="40" customHeight="1">
-      <c r="B631" s="81"/>
+      <c r="B631" s="80"/>
       <c r="C631" s="12"/>
       <c r="D631" s="12"/>
       <c r="E631" s="13"/>
@@ -48317,7 +48558,7 @@
       <c r="K631" s="13"/>
     </row>
     <row r="632" spans="2:11" ht="40" customHeight="1">
-      <c r="B632" s="81"/>
+      <c r="B632" s="80"/>
       <c r="C632" s="12"/>
       <c r="D632" s="12"/>
       <c r="E632" s="13"/>
@@ -48329,7 +48570,7 @@
       <c r="K632" s="13"/>
     </row>
     <row r="633" spans="2:11" ht="40" customHeight="1">
-      <c r="B633" s="81"/>
+      <c r="B633" s="80"/>
       <c r="C633" s="12"/>
       <c r="D633" s="12"/>
       <c r="E633" s="13"/>
@@ -48341,7 +48582,7 @@
       <c r="K633" s="13"/>
     </row>
     <row r="634" spans="2:11" ht="40" customHeight="1">
-      <c r="B634" s="81"/>
+      <c r="B634" s="80"/>
       <c r="C634" s="12"/>
       <c r="D634" s="12"/>
       <c r="E634" s="13"/>
@@ -48353,7 +48594,7 @@
       <c r="K634" s="13"/>
     </row>
     <row r="635" spans="2:11" ht="40" customHeight="1">
-      <c r="B635" s="81"/>
+      <c r="B635" s="80"/>
       <c r="C635" s="12"/>
       <c r="D635" s="12"/>
       <c r="E635" s="13"/>
@@ -48365,7 +48606,7 @@
       <c r="K635" s="13"/>
     </row>
     <row r="636" spans="2:11" ht="40" customHeight="1">
-      <c r="B636" s="81"/>
+      <c r="B636" s="80"/>
       <c r="C636" s="12"/>
       <c r="D636" s="12"/>
       <c r="E636" s="13"/>
@@ -48377,7 +48618,7 @@
       <c r="K636" s="13"/>
     </row>
     <row r="637" spans="2:11" ht="40" customHeight="1">
-      <c r="B637" s="81"/>
+      <c r="B637" s="80"/>
       <c r="C637" s="12"/>
       <c r="D637" s="12"/>
       <c r="E637" s="13"/>
@@ -48389,7 +48630,7 @@
       <c r="K637" s="13"/>
     </row>
     <row r="638" spans="2:11" ht="40" customHeight="1">
-      <c r="B638" s="81"/>
+      <c r="B638" s="80"/>
       <c r="C638" s="12"/>
       <c r="D638" s="12"/>
       <c r="E638" s="13"/>
@@ -48401,7 +48642,7 @@
       <c r="K638" s="13"/>
     </row>
     <row r="639" spans="2:11" ht="40" customHeight="1">
-      <c r="B639" s="81"/>
+      <c r="B639" s="80"/>
       <c r="C639" s="12"/>
       <c r="D639" s="12"/>
       <c r="E639" s="13"/>
@@ -48413,7 +48654,7 @@
       <c r="K639" s="13"/>
     </row>
     <row r="640" spans="2:11" ht="40" customHeight="1">
-      <c r="B640" s="81"/>
+      <c r="B640" s="80"/>
       <c r="C640" s="12"/>
       <c r="D640" s="12"/>
       <c r="E640" s="13"/>
@@ -48425,7 +48666,7 @@
       <c r="K640" s="13"/>
     </row>
     <row r="641" spans="2:11" ht="40" customHeight="1">
-      <c r="B641" s="81"/>
+      <c r="B641" s="80"/>
       <c r="C641" s="12"/>
       <c r="D641" s="12"/>
       <c r="E641" s="13"/>
@@ -48437,7 +48678,7 @@
       <c r="K641" s="13"/>
     </row>
     <row r="642" spans="2:11" ht="40" customHeight="1">
-      <c r="B642" s="81"/>
+      <c r="B642" s="80"/>
       <c r="C642" s="12"/>
       <c r="D642" s="12"/>
       <c r="E642" s="13"/>
@@ -48449,7 +48690,7 @@
       <c r="K642" s="13"/>
     </row>
     <row r="643" spans="2:11" ht="40" customHeight="1">
-      <c r="B643" s="81"/>
+      <c r="B643" s="80"/>
       <c r="C643" s="12"/>
       <c r="D643" s="12"/>
       <c r="E643" s="13"/>
@@ -48461,7 +48702,7 @@
       <c r="K643" s="13"/>
     </row>
     <row r="644" spans="2:11" ht="40" customHeight="1">
-      <c r="B644" s="81"/>
+      <c r="B644" s="80"/>
       <c r="C644" s="12"/>
       <c r="D644" s="12"/>
       <c r="E644" s="13"/>
@@ -48473,7 +48714,7 @@
       <c r="K644" s="13"/>
     </row>
     <row r="645" spans="2:11" ht="40" customHeight="1">
-      <c r="B645" s="81"/>
+      <c r="B645" s="80"/>
       <c r="C645" s="12"/>
       <c r="D645" s="12"/>
       <c r="E645" s="13"/>
@@ -48485,7 +48726,7 @@
       <c r="K645" s="13"/>
     </row>
     <row r="646" spans="2:11" ht="40" customHeight="1">
-      <c r="B646" s="81"/>
+      <c r="B646" s="80"/>
       <c r="C646" s="12"/>
       <c r="D646" s="12"/>
       <c r="E646" s="13"/>
@@ -48497,7 +48738,7 @@
       <c r="K646" s="13"/>
     </row>
     <row r="647" spans="2:11" ht="40" customHeight="1">
-      <c r="B647" s="81"/>
+      <c r="B647" s="80"/>
       <c r="C647" s="12"/>
       <c r="D647" s="12"/>
       <c r="E647" s="13"/>
@@ -48509,7 +48750,7 @@
       <c r="K647" s="13"/>
     </row>
     <row r="648" spans="2:11" ht="40" customHeight="1">
-      <c r="B648" s="81"/>
+      <c r="B648" s="80"/>
       <c r="C648" s="12"/>
       <c r="D648" s="12"/>
       <c r="E648" s="13"/>
@@ -48521,7 +48762,7 @@
       <c r="K648" s="13"/>
     </row>
     <row r="649" spans="2:11" ht="40" customHeight="1">
-      <c r="B649" s="81"/>
+      <c r="B649" s="80"/>
       <c r="C649" s="12"/>
       <c r="D649" s="12"/>
       <c r="E649" s="13"/>
@@ -48533,7 +48774,7 @@
       <c r="K649" s="13"/>
     </row>
     <row r="650" spans="2:11" ht="40" customHeight="1">
-      <c r="B650" s="81"/>
+      <c r="B650" s="80"/>
       <c r="C650" s="12"/>
       <c r="D650" s="12"/>
       <c r="E650" s="13"/>
@@ -48545,7 +48786,7 @@
       <c r="K650" s="13"/>
     </row>
     <row r="651" spans="2:11" ht="40" customHeight="1">
-      <c r="B651" s="81"/>
+      <c r="B651" s="80"/>
       <c r="C651" s="12"/>
       <c r="D651" s="12"/>
       <c r="E651" s="13"/>
@@ -48557,7 +48798,7 @@
       <c r="K651" s="13"/>
     </row>
     <row r="652" spans="2:11" ht="40" customHeight="1">
-      <c r="B652" s="81"/>
+      <c r="B652" s="80"/>
       <c r="C652" s="12"/>
       <c r="D652" s="12"/>
       <c r="E652" s="13"/>
@@ -48569,7 +48810,7 @@
       <c r="K652" s="13"/>
     </row>
     <row r="653" spans="2:11" ht="40" customHeight="1">
-      <c r="B653" s="81"/>
+      <c r="B653" s="80"/>
       <c r="C653" s="12"/>
       <c r="D653" s="12"/>
       <c r="E653" s="13"/>
@@ -48581,7 +48822,7 @@
       <c r="K653" s="13"/>
     </row>
     <row r="654" spans="2:11" ht="40" customHeight="1">
-      <c r="B654" s="81"/>
+      <c r="B654" s="80"/>
       <c r="C654" s="12"/>
       <c r="D654" s="12"/>
       <c r="E654" s="13"/>
@@ -48593,7 +48834,7 @@
       <c r="K654" s="13"/>
     </row>
     <row r="655" spans="2:11" ht="40" customHeight="1">
-      <c r="B655" s="81"/>
+      <c r="B655" s="80"/>
       <c r="C655" s="12"/>
       <c r="D655" s="12"/>
       <c r="E655" s="13"/>
@@ -48605,7 +48846,7 @@
       <c r="K655" s="13"/>
     </row>
     <row r="656" spans="2:11" ht="40" customHeight="1">
-      <c r="B656" s="81"/>
+      <c r="B656" s="80"/>
       <c r="C656" s="12"/>
       <c r="D656" s="12"/>
       <c r="E656" s="13"/>
@@ -48617,7 +48858,7 @@
       <c r="K656" s="13"/>
     </row>
     <row r="657" spans="2:11" ht="40" customHeight="1">
-      <c r="B657" s="81"/>
+      <c r="B657" s="80"/>
       <c r="C657" s="12"/>
       <c r="D657" s="12"/>
       <c r="E657" s="13"/>
@@ -48629,7 +48870,7 @@
       <c r="K657" s="13"/>
     </row>
     <row r="658" spans="2:11" ht="40" customHeight="1">
-      <c r="B658" s="81"/>
+      <c r="B658" s="80"/>
       <c r="C658" s="12"/>
       <c r="D658" s="12"/>
       <c r="E658" s="13"/>
@@ -48641,7 +48882,7 @@
       <c r="K658" s="13"/>
     </row>
     <row r="659" spans="2:11" ht="40" customHeight="1">
-      <c r="B659" s="81"/>
+      <c r="B659" s="80"/>
       <c r="C659" s="12"/>
       <c r="D659" s="12"/>
       <c r="E659" s="13"/>
@@ -48653,7 +48894,7 @@
       <c r="K659" s="13"/>
     </row>
     <row r="660" spans="2:11" ht="40" customHeight="1">
-      <c r="B660" s="81"/>
+      <c r="B660" s="80"/>
       <c r="C660" s="12"/>
       <c r="D660" s="12"/>
       <c r="E660" s="13"/>
@@ -48665,7 +48906,7 @@
       <c r="K660" s="13"/>
     </row>
     <row r="661" spans="2:11" ht="40" customHeight="1">
-      <c r="B661" s="81"/>
+      <c r="B661" s="80"/>
       <c r="C661" s="12"/>
       <c r="D661" s="12"/>
       <c r="E661" s="13"/>
@@ -48677,7 +48918,7 @@
       <c r="K661" s="13"/>
     </row>
     <row r="662" spans="2:11" ht="40" customHeight="1">
-      <c r="B662" s="81"/>
+      <c r="B662" s="80"/>
       <c r="C662" s="12"/>
       <c r="D662" s="12"/>
       <c r="E662" s="13"/>
@@ -48689,7 +48930,7 @@
       <c r="K662" s="13"/>
     </row>
     <row r="663" spans="2:11" ht="40" customHeight="1">
-      <c r="B663" s="81"/>
+      <c r="B663" s="80"/>
       <c r="C663" s="12"/>
       <c r="D663" s="12"/>
       <c r="E663" s="13"/>
@@ -48701,7 +48942,7 @@
       <c r="K663" s="13"/>
     </row>
     <row r="664" spans="2:11" ht="40" customHeight="1">
-      <c r="B664" s="81"/>
+      <c r="B664" s="80"/>
       <c r="C664" s="12"/>
       <c r="D664" s="12"/>
       <c r="E664" s="13"/>
@@ -48713,7 +48954,7 @@
       <c r="K664" s="13"/>
     </row>
     <row r="665" spans="2:11" ht="40" customHeight="1">
-      <c r="B665" s="81"/>
+      <c r="B665" s="80"/>
       <c r="C665" s="12"/>
       <c r="D665" s="12"/>
       <c r="E665" s="13"/>
@@ -48725,7 +48966,7 @@
       <c r="K665" s="13"/>
     </row>
     <row r="666" spans="2:11" ht="40" customHeight="1">
-      <c r="B666" s="81"/>
+      <c r="B666" s="80"/>
       <c r="C666" s="12"/>
       <c r="D666" s="12"/>
       <c r="E666" s="13"/>
@@ -48737,7 +48978,7 @@
       <c r="K666" s="13"/>
     </row>
     <row r="667" spans="2:11" ht="40" customHeight="1">
-      <c r="B667" s="81"/>
+      <c r="B667" s="80"/>
       <c r="C667" s="12"/>
       <c r="D667" s="12"/>
       <c r="E667" s="13"/>
@@ -48749,7 +48990,7 @@
       <c r="K667" s="13"/>
     </row>
     <row r="668" spans="2:11" ht="40" customHeight="1">
-      <c r="B668" s="81"/>
+      <c r="B668" s="80"/>
       <c r="C668" s="12"/>
       <c r="D668" s="12"/>
       <c r="E668" s="13"/>
@@ -48761,7 +49002,7 @@
       <c r="K668" s="13"/>
     </row>
     <row r="669" spans="2:11" ht="40" customHeight="1">
-      <c r="B669" s="81"/>
+      <c r="B669" s="80"/>
       <c r="C669" s="12"/>
       <c r="D669" s="12"/>
       <c r="E669" s="13"/>
@@ -48773,7 +49014,7 @@
       <c r="K669" s="13"/>
     </row>
     <row r="670" spans="2:11" ht="40" customHeight="1">
-      <c r="B670" s="81"/>
+      <c r="B670" s="80"/>
       <c r="C670" s="12"/>
       <c r="D670" s="12"/>
       <c r="E670" s="13"/>
@@ -48785,7 +49026,7 @@
       <c r="K670" s="13"/>
     </row>
     <row r="671" spans="2:11" ht="40" customHeight="1">
-      <c r="B671" s="81"/>
+      <c r="B671" s="80"/>
       <c r="C671" s="12"/>
       <c r="D671" s="12"/>
       <c r="E671" s="13"/>
@@ -48797,7 +49038,7 @@
       <c r="K671" s="13"/>
     </row>
     <row r="672" spans="2:11" ht="40" customHeight="1">
-      <c r="B672" s="81"/>
+      <c r="B672" s="80"/>
       <c r="C672" s="12"/>
       <c r="D672" s="12"/>
       <c r="E672" s="13"/>
@@ -48809,7 +49050,7 @@
       <c r="K672" s="13"/>
     </row>
     <row r="673" spans="2:11" ht="40" customHeight="1">
-      <c r="B673" s="81"/>
+      <c r="B673" s="80"/>
       <c r="C673" s="12"/>
       <c r="D673" s="12"/>
       <c r="E673" s="13"/>
@@ -48821,7 +49062,7 @@
       <c r="K673" s="13"/>
     </row>
     <row r="674" spans="2:11" ht="40" customHeight="1">
-      <c r="B674" s="81"/>
+      <c r="B674" s="80"/>
       <c r="C674" s="12"/>
       <c r="D674" s="12"/>
       <c r="E674" s="13"/>
@@ -48833,7 +49074,7 @@
       <c r="K674" s="13"/>
     </row>
     <row r="675" spans="2:11" ht="40" customHeight="1">
-      <c r="B675" s="81"/>
+      <c r="B675" s="80"/>
       <c r="C675" s="12"/>
       <c r="D675" s="12"/>
       <c r="E675" s="13"/>
@@ -48845,7 +49086,7 @@
       <c r="K675" s="13"/>
     </row>
     <row r="676" spans="2:11" ht="40" customHeight="1">
-      <c r="B676" s="81"/>
+      <c r="B676" s="80"/>
       <c r="C676" s="12"/>
       <c r="D676" s="12"/>
       <c r="E676" s="13"/>
@@ -48857,7 +49098,7 @@
       <c r="K676" s="13"/>
     </row>
     <row r="677" spans="2:11" ht="40" customHeight="1">
-      <c r="B677" s="81"/>
+      <c r="B677" s="80"/>
       <c r="C677" s="12"/>
       <c r="D677" s="12"/>
       <c r="E677" s="13"/>
@@ -48869,7 +49110,7 @@
       <c r="K677" s="13"/>
     </row>
     <row r="678" spans="2:11" ht="40" customHeight="1">
-      <c r="B678" s="81"/>
+      <c r="B678" s="80"/>
       <c r="C678" s="12"/>
       <c r="D678" s="12"/>
       <c r="E678" s="13"/>
@@ -48881,7 +49122,7 @@
       <c r="K678" s="13"/>
     </row>
     <row r="679" spans="2:11" ht="40" customHeight="1">
-      <c r="B679" s="81"/>
+      <c r="B679" s="80"/>
       <c r="C679" s="12"/>
       <c r="D679" s="12"/>
       <c r="E679" s="13"/>
@@ -48893,7 +49134,7 @@
       <c r="K679" s="13"/>
     </row>
     <row r="680" spans="2:11" ht="40" customHeight="1">
-      <c r="B680" s="81"/>
+      <c r="B680" s="80"/>
       <c r="C680" s="12"/>
       <c r="D680" s="12"/>
       <c r="E680" s="13"/>
@@ -48905,7 +49146,7 @@
       <c r="K680" s="13"/>
     </row>
     <row r="681" spans="2:11" ht="40" customHeight="1">
-      <c r="B681" s="81"/>
+      <c r="B681" s="80"/>
       <c r="C681" s="12"/>
       <c r="D681" s="12"/>
       <c r="E681" s="13"/>
@@ -48917,7 +49158,7 @@
       <c r="K681" s="13"/>
     </row>
     <row r="682" spans="2:11" ht="40" customHeight="1">
-      <c r="B682" s="81"/>
+      <c r="B682" s="80"/>
       <c r="C682" s="12"/>
       <c r="D682" s="12"/>
       <c r="E682" s="13"/>
@@ -48929,7 +49170,7 @@
       <c r="K682" s="13"/>
     </row>
     <row r="683" spans="2:11" ht="40" customHeight="1">
-      <c r="B683" s="81"/>
+      <c r="B683" s="80"/>
       <c r="C683" s="12"/>
       <c r="D683" s="12"/>
       <c r="E683" s="13"/>
@@ -48941,7 +49182,7 @@
       <c r="K683" s="13"/>
     </row>
     <row r="684" spans="2:11" ht="40" customHeight="1">
-      <c r="B684" s="81"/>
+      <c r="B684" s="80"/>
       <c r="C684" s="12"/>
       <c r="D684" s="12"/>
       <c r="E684" s="13"/>
@@ -48953,7 +49194,7 @@
       <c r="K684" s="13"/>
     </row>
     <row r="685" spans="2:11" ht="40" customHeight="1">
-      <c r="B685" s="81"/>
+      <c r="B685" s="80"/>
       <c r="C685" s="12"/>
       <c r="D685" s="12"/>
       <c r="E685" s="13"/>
@@ -48965,7 +49206,7 @@
       <c r="K685" s="13"/>
     </row>
     <row r="686" spans="2:11" ht="40" customHeight="1">
-      <c r="B686" s="81"/>
+      <c r="B686" s="80"/>
       <c r="C686" s="12"/>
       <c r="D686" s="12"/>
       <c r="E686" s="13"/>
@@ -48977,7 +49218,7 @@
       <c r="K686" s="13"/>
     </row>
     <row r="687" spans="2:11" ht="40" customHeight="1">
-      <c r="B687" s="81"/>
+      <c r="B687" s="80"/>
       <c r="C687" s="12"/>
       <c r="D687" s="12"/>
       <c r="E687" s="13"/>
@@ -48989,7 +49230,7 @@
       <c r="K687" s="13"/>
     </row>
     <row r="688" spans="2:11" ht="40" customHeight="1">
-      <c r="B688" s="81"/>
+      <c r="B688" s="80"/>
       <c r="C688" s="12"/>
       <c r="D688" s="12"/>
       <c r="E688" s="13"/>
@@ -49001,7 +49242,7 @@
       <c r="K688" s="13"/>
     </row>
     <row r="689" spans="2:11" ht="40" customHeight="1">
-      <c r="B689" s="81"/>
+      <c r="B689" s="80"/>
       <c r="C689" s="12"/>
       <c r="D689" s="12"/>
       <c r="E689" s="13"/>
@@ -49013,7 +49254,7 @@
       <c r="K689" s="13"/>
     </row>
     <row r="690" spans="2:11" ht="40" customHeight="1">
-      <c r="B690" s="81"/>
+      <c r="B690" s="80"/>
       <c r="C690" s="12"/>
       <c r="D690" s="12"/>
       <c r="E690" s="13"/>
@@ -49025,7 +49266,7 @@
       <c r="K690" s="13"/>
     </row>
     <row r="691" spans="2:11" ht="40" customHeight="1">
-      <c r="B691" s="81"/>
+      <c r="B691" s="80"/>
       <c r="C691" s="12"/>
       <c r="D691" s="12"/>
       <c r="E691" s="13"/>
@@ -49037,7 +49278,7 @@
       <c r="K691" s="13"/>
     </row>
     <row r="692" spans="2:11" ht="40" customHeight="1">
-      <c r="B692" s="81"/>
+      <c r="B692" s="80"/>
       <c r="C692" s="12"/>
       <c r="D692" s="12"/>
       <c r="E692" s="13"/>
@@ -49049,7 +49290,7 @@
       <c r="K692" s="13"/>
     </row>
     <row r="693" spans="2:11" ht="40" customHeight="1">
-      <c r="B693" s="81"/>
+      <c r="B693" s="80"/>
       <c r="C693" s="12"/>
       <c r="D693" s="12"/>
       <c r="E693" s="13"/>
@@ -49061,7 +49302,7 @@
       <c r="K693" s="13"/>
     </row>
     <row r="694" spans="2:11" ht="40" customHeight="1">
-      <c r="B694" s="81"/>
+      <c r="B694" s="80"/>
       <c r="C694" s="12"/>
       <c r="D694" s="12"/>
       <c r="E694" s="13"/>
@@ -49073,7 +49314,7 @@
       <c r="K694" s="13"/>
     </row>
     <row r="695" spans="2:11" ht="40" customHeight="1">
-      <c r="B695" s="81"/>
+      <c r="B695" s="80"/>
       <c r="C695" s="12"/>
       <c r="D695" s="12"/>
       <c r="E695" s="13"/>
@@ -49085,7 +49326,7 @@
       <c r="K695" s="13"/>
     </row>
     <row r="696" spans="2:11" ht="40" customHeight="1">
-      <c r="B696" s="81"/>
+      <c r="B696" s="80"/>
       <c r="C696" s="12"/>
       <c r="D696" s="12"/>
       <c r="E696" s="13"/>
@@ -49097,7 +49338,7 @@
       <c r="K696" s="13"/>
     </row>
     <row r="697" spans="2:11" ht="40" customHeight="1">
-      <c r="B697" s="81"/>
+      <c r="B697" s="80"/>
       <c r="C697" s="12"/>
       <c r="D697" s="12"/>
       <c r="E697" s="13"/>
@@ -49109,7 +49350,7 @@
       <c r="K697" s="13"/>
     </row>
     <row r="698" spans="2:11" ht="40" customHeight="1">
-      <c r="B698" s="81"/>
+      <c r="B698" s="80"/>
       <c r="C698" s="12"/>
       <c r="D698" s="12"/>
       <c r="E698" s="13"/>
@@ -49121,7 +49362,7 @@
       <c r="K698" s="13"/>
     </row>
     <row r="699" spans="2:11" ht="40" customHeight="1">
-      <c r="B699" s="81"/>
+      <c r="B699" s="80"/>
       <c r="C699" s="12"/>
       <c r="D699" s="12"/>
       <c r="E699" s="13"/>
@@ -49133,7 +49374,7 @@
       <c r="K699" s="13"/>
     </row>
     <row r="700" spans="2:11" ht="40" customHeight="1">
-      <c r="B700" s="81"/>
+      <c r="B700" s="80"/>
       <c r="C700" s="12"/>
       <c r="D700" s="12"/>
       <c r="E700" s="13"/>
@@ -49145,7 +49386,7 @@
       <c r="K700" s="13"/>
     </row>
     <row r="701" spans="2:11" ht="40" customHeight="1">
-      <c r="B701" s="81"/>
+      <c r="B701" s="80"/>
       <c r="C701" s="12"/>
       <c r="D701" s="12"/>
       <c r="E701" s="13"/>
@@ -49157,7 +49398,7 @@
       <c r="K701" s="13"/>
     </row>
     <row r="702" spans="2:11" ht="40" customHeight="1">
-      <c r="B702" s="81"/>
+      <c r="B702" s="80"/>
       <c r="C702" s="12"/>
       <c r="D702" s="12"/>
       <c r="E702" s="13"/>
@@ -49169,7 +49410,7 @@
       <c r="K702" s="13"/>
     </row>
     <row r="703" spans="2:11" ht="40" customHeight="1">
-      <c r="B703" s="81"/>
+      <c r="B703" s="80"/>
       <c r="C703" s="12"/>
       <c r="D703" s="12"/>
       <c r="E703" s="13"/>
@@ -49181,7 +49422,7 @@
       <c r="K703" s="13"/>
     </row>
     <row r="704" spans="2:11" ht="40" customHeight="1">
-      <c r="B704" s="81"/>
+      <c r="B704" s="80"/>
       <c r="C704" s="12"/>
       <c r="D704" s="12"/>
       <c r="E704" s="13"/>
@@ -49193,7 +49434,7 @@
       <c r="K704" s="13"/>
     </row>
     <row r="705" spans="2:11" ht="40" customHeight="1">
-      <c r="B705" s="81"/>
+      <c r="B705" s="80"/>
       <c r="C705" s="12"/>
       <c r="D705" s="12"/>
       <c r="E705" s="13"/>
@@ -49205,7 +49446,7 @@
       <c r="K705" s="13"/>
     </row>
     <row r="706" spans="2:11" ht="40" customHeight="1">
-      <c r="B706" s="81"/>
+      <c r="B706" s="80"/>
       <c r="C706" s="12"/>
       <c r="D706" s="12"/>
       <c r="E706" s="13"/>
@@ -49217,7 +49458,7 @@
       <c r="K706" s="13"/>
     </row>
     <row r="707" spans="2:11" ht="40" customHeight="1">
-      <c r="B707" s="81"/>
+      <c r="B707" s="80"/>
       <c r="C707" s="12"/>
       <c r="D707" s="12"/>
       <c r="E707" s="13"/>
@@ -49229,7 +49470,7 @@
       <c r="K707" s="13"/>
     </row>
     <row r="708" spans="2:11" ht="40" customHeight="1">
-      <c r="B708" s="81"/>
+      <c r="B708" s="80"/>
       <c r="C708" s="12"/>
       <c r="D708" s="12"/>
       <c r="E708" s="13"/>
@@ -49241,7 +49482,7 @@
       <c r="K708" s="13"/>
     </row>
     <row r="709" spans="2:11" ht="40" customHeight="1">
-      <c r="B709" s="81"/>
+      <c r="B709" s="80"/>
       <c r="C709" s="12"/>
       <c r="D709" s="12"/>
       <c r="E709" s="13"/>
@@ -49253,7 +49494,7 @@
       <c r="K709" s="13"/>
     </row>
     <row r="710" spans="2:11" ht="40" customHeight="1">
-      <c r="B710" s="81"/>
+      <c r="B710" s="80"/>
       <c r="C710" s="12"/>
       <c r="D710" s="12"/>
       <c r="E710" s="13"/>
@@ -49265,7 +49506,7 @@
       <c r="K710" s="13"/>
     </row>
     <row r="711" spans="2:11" ht="40" customHeight="1">
-      <c r="B711" s="81"/>
+      <c r="B711" s="80"/>
       <c r="C711" s="12"/>
       <c r="D711" s="12"/>
       <c r="E711" s="13"/>
@@ -49277,7 +49518,7 @@
       <c r="K711" s="13"/>
     </row>
     <row r="712" spans="2:11" ht="40" customHeight="1">
-      <c r="B712" s="81"/>
+      <c r="B712" s="80"/>
       <c r="C712" s="12"/>
       <c r="D712" s="12"/>
       <c r="E712" s="13"/>
